--- a/3project_management/project_management.xlsx
+++ b/3project_management/project_management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PLANA\planning-of-the-assignments-for-lecturers-plana\3project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3320821-FC7D-4E6C-AE71-DA79ABEB6F96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29058006-22D3-4F15-B52A-52DBE5EE7E99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Termins-rules" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -381,6 +381,12 @@
   <si>
     <t>h</t>
   </si>
+  <si>
+    <t>Seed data</t>
+  </si>
+  <si>
+    <t>seed data, repositories</t>
+  </si>
 </sst>
 </file>
 
@@ -390,9 +396,9 @@
     <numFmt numFmtId="164" formatCode="dd\.mm\.yy"/>
     <numFmt numFmtId="165" formatCode="dd"/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="167" formatCode="\ h:mm"/>
+    <numFmt numFmtId="170" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +501,12 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -736,7 +748,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -876,11 +888,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Date" xfId="2" xr:uid="{52E8FA25-AB34-439C-BC48-9650F425CC09}"/>
@@ -2137,30 +2150,27 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D939E36-8CC7-42CA-89EC-66812AD518D2}">
-  <dimension ref="B1:E4"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="16.9296875" customWidth="1"/>
     <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.73046875" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C2" t="str">
-        <f>Sprint2!C8</f>
-        <v>Implement Repositories *</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>78</v>
       </c>
@@ -2171,17 +2181,279 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B4" s="73">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="76">
+        <f>D4-C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="74">
         <f ca="1">TODAY()</f>
         <v>44061</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="E4">
-        <v>3</v>
+      <c r="C5" s="75">
+        <v>0.65625</v>
+      </c>
+      <c r="D5" s="75">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="E5" s="75">
+        <f>D5-C5</f>
+        <v>4.861111111111116E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="74">
+        <v>44062</v>
+      </c>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75">
+        <f t="shared" ref="E6:E19" si="0">D6-C6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="74">
+        <v>44063</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="74">
+        <v>44064</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="74">
+        <v>44065</v>
+      </c>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="74">
+        <v>44066</v>
+      </c>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="74">
+        <v>44067</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="74">
+        <v>44068</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B13" s="74">
+        <v>44069</v>
+      </c>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="74">
+        <v>44070</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="74">
+        <v>44071</v>
+      </c>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="74">
+        <v>44072</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="74">
+        <v>44073</v>
+      </c>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="74">
+        <v>44074</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="74">
+        <v>44075</v>
+      </c>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B20" s="74">
+        <v>44076</v>
+      </c>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21" s="74">
+        <v>44077</v>
+      </c>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B22" s="74">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="74">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B24" s="74">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B25" s="74">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B26" s="74">
+        <v>44082</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B27" s="74">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B28" s="74">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B29" s="74">
+        <v>44085</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B30" s="74">
+        <v>44086</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B31" s="74">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B32" s="74">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" s="74">
+        <v>44089</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="74">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35" s="74">
+        <v>44091</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B36" s="74">
+        <v>44092</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12402,7 +12674,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12693,8 +12965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8346C48C-640E-494D-85F6-A16EC8AEE9A1}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12763,6 +13035,11 @@
     </row>
     <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="49"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
@@ -13204,7 +13481,7 @@
       <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:21" ht="171" x14ac:dyDescent="0.45">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="73" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="13"/>

--- a/3project_management/project_management.xlsx
+++ b/3project_management/project_management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PLANA\planning-of-the-assignments-for-lecturers-plana\3project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29058006-22D3-4F15-B52A-52DBE5EE7E99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2CC920-D650-4D65-9959-55522C64F1F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -387,6 +387,9 @@
   <si>
     <t>seed data, repositories</t>
   </si>
+  <si>
+    <t>models, 1st test</t>
+  </si>
 </sst>
 </file>
 
@@ -396,7 +399,7 @@
     <numFmt numFmtId="164" formatCode="dd\.mm\.yy"/>
     <numFmt numFmtId="165" formatCode="dd"/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="170" formatCode="h:mm;@"/>
+    <numFmt numFmtId="167" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -892,7 +895,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -1024,6 +1027,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC65911"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="7"/>
       </font>
     </dxf>
@@ -1073,11 +1081,6 @@
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC65911"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2153,7 +2156,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2192,7 +2195,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" s="74">
         <f ca="1">TODAY()</f>
@@ -2202,11 +2205,11 @@
         <v>0.65625</v>
       </c>
       <c r="D5" s="75">
-        <v>0.70486111111111116</v>
+        <v>0.8125</v>
       </c>
       <c r="E5" s="75">
         <f>D5-C5</f>
-        <v>4.861111111111116E-2</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -12278,35 +12281,35 @@
     <row r="23" spans="1:148" ht="21.4" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <conditionalFormatting sqref="I24:EP1048576 AD23:EP23 J18:EP22 I6:EP6 I5:ER5 I7:ER17 I3:EP4 I2:AD2 AH2:EP2">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:EH22 I8:ER17">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>High</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D13">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:EN6">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"m"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D17">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12948,7 +12951,7 @@
   </sheetData>
   <autoFilter ref="E5:E22" xr:uid="{19388B08-6607-4FB7-80A4-7440077A6089}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:I18">
-      <sortCondition sortBy="fontColor" ref="E5:E18" dxfId="21"/>
+      <sortCondition sortBy="fontColor" ref="E5:E18" dxfId="14"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E4:E15">

--- a/3project_management/project_management.xlsx
+++ b/3project_management/project_management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PLANA\planning-of-the-assignments-for-lecturers-plana\3project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2CC920-D650-4D65-9959-55522C64F1F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4283D5F-A013-4CF0-B5FA-6813454B9D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Termins-rules" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="120">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -390,18 +390,288 @@
   <si>
     <t>models, 1st test</t>
   </si>
+  <si>
+    <t>Ablauf der Bachelor-Thesis / Milestones</t>
+  </si>
+  <si>
+    <t>Semester-Woche</t>
+  </si>
+  <si>
+    <t>1  -- 2</t>
+  </si>
+  <si>
+    <t>1 -- 16</t>
+  </si>
+  <si>
+    <t>Ausstellung</t>
+  </si>
+  <si>
+    <t>Prüfungswochen</t>
+  </si>
+  <si>
+    <t>Start Bachelor-Thesis Montag 08h00</t>
+  </si>
+  <si>
+    <t>Festlegen des Deliverables und deren Termine</t>
+  </si>
+  <si>
+    <t>Regelmässige Treffen</t>
+  </si>
+  <si>
+    <t>Abgabe Kurz-Film</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>vormittag</t>
+  </si>
+  <si>
+    <t>14h00-18h00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finaltag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ende Woche 17, </t>
+  </si>
+  <si>
+    <t>20h00</t>
+  </si>
+  <si>
+    <t>10.2.21) mit Experten und Studierenden und melden den Termin an</t>
+  </si>
+  <si>
+    <t>ARB1</t>
+  </si>
+  <si>
+    <t>till 1.12.20</t>
+  </si>
+  <si>
+    <t>ca Oct/Nov</t>
+  </si>
+  <si>
+    <t>wird direkt durch das Sekretariat</t>
+  </si>
+  <si>
+    <t>(Silvia.Gasenzer@bfh.ch)</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <r>
+      <t>Abgabe Texte/Graphiken/etc. für das “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <t>gem. Moodle (Heinz.Kipfer@bfh.ch)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Abgabe elektronische Version des </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Posters</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        25.01.21 - 10.02.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20h00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; Moodle</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Öffentliche </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ausstellung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> der Bachelor-Thesis mit Präsenz der Studierenden</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kurzpräsentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> im Rahmen des Finaltages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Abgabe Projektdokumentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> an Betreuer/in und Experten/Expertin; zusätzlich ein Exemplar ans Sekretariat (Archivierung). 
+Eine elektronische Version muss z.Hd. der Abteilung abgegeben werden; Informationen dazu folgen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Betreuer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vereinbaren</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ort und Zeit der </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prüfung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (zwischen 25.1. und</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verteidigung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mit Betreuer/in und Experte/Expertin</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yy"/>
     <numFmt numFmtId="165" formatCode="dd"/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="167" formatCode="h:mm;@"/>
+    <numFmt numFmtId="174" formatCode="ddd"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +780,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -751,7 +1029,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -897,6 +1175,17 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Date" xfId="2" xr:uid="{52E8FA25-AB34-439C-BC48-9650F425CC09}"/>
@@ -1027,11 +1316,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC65911"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="7"/>
       </font>
     </dxf>
@@ -1081,6 +1365,11 @@
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC65911"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2127,23 +2416,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13538CB-7E67-4044-B4BC-9356A4A96686}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="20.53125" customWidth="1"/>
+    <col min="5" max="5" width="5.53125" style="80" customWidth="1"/>
+    <col min="6" max="6" width="10.265625" style="74" customWidth="1"/>
+    <col min="7" max="7" width="11" style="42" customWidth="1"/>
+    <col min="8" max="8" width="16.46484375" style="77" customWidth="1"/>
+    <col min="9" max="9" width="63" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>Gannt!A1</f>
         <v>BaThesis BTI7321 20/21, HS, Project Planning</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A2" s="72" t="s">
         <v>76</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F3" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H4" s="68">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H5" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H6" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+      <c r="E7" s="80">
+        <f>F7</f>
+        <v>44217</v>
+      </c>
+      <c r="F7" s="74">
+        <v>44217</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="79">
+        <v>16</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H8" s="79"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E9" s="80">
+        <f t="shared" ref="E8:E12" si="0">F9</f>
+        <v>44218</v>
+      </c>
+      <c r="F9" s="74">
+        <v>44218</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E10" s="80">
+        <f t="shared" si="0"/>
+        <v>44218</v>
+      </c>
+      <c r="F10" s="74">
+        <v>44218</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E11" s="80">
+        <f t="shared" si="0"/>
+        <v>44217</v>
+      </c>
+      <c r="F11" s="74">
+        <v>44217</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F12" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F16" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="I17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="I18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F19" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="I21" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2155,7 +2624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D939E36-8CC7-42CA-89EC-66812AD518D2}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -2199,7 +2668,7 @@
       </c>
       <c r="B5" s="74">
         <f ca="1">TODAY()</f>
-        <v>44061</v>
+        <v>44089</v>
       </c>
       <c r="C5" s="75">
         <v>0.65625</v>
@@ -2466,13 +2935,15 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -2504,6 +2975,9 @@
       </c>
       <c r="D4" s="20" t="s">
         <v>21</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -2780,8 +3254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ER23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3041,11 +3515,11 @@
       <c r="G6" s="58"/>
       <c r="H6" s="58"/>
       <c r="I6" s="48" t="str">
-        <f t="shared" ref="I6:AN6" si="0">LEFT(TEXT(I7,"ddd"),1)</f>
+        <f>LEFT(TEXT(I7,"ddd"),1)</f>
         <v>M</v>
       </c>
       <c r="J6" s="48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I6:AN6" si="0">LEFT(TEXT(J7,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="K6" s="47" t="str">
@@ -12281,35 +12755,35 @@
     <row r="23" spans="1:148" ht="21.4" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <conditionalFormatting sqref="I24:EP1048576 AD23:EP23 J18:EP22 I6:EP6 I5:ER5 I7:ER17 I3:EP4 I2:AD2 AH2:EP2">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:EH22 I8:ER17">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>High</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D13">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:EN6">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"m"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D17">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12676,8 +13150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D544E4EA-43A9-4C2D-95F8-E8BC054D1071}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12951,7 +13425,7 @@
   </sheetData>
   <autoFilter ref="E5:E22" xr:uid="{19388B08-6607-4FB7-80A4-7440077A6089}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:I18">
-      <sortCondition sortBy="fontColor" ref="E5:E18" dxfId="14"/>
+      <sortCondition sortBy="fontColor" ref="E5:E18" dxfId="21"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E4:E15">

--- a/3project_management/project_management.xlsx
+++ b/3project_management/project_management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PLANA\planning-of-the-assignments-for-lecturers-plana\3project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4283D5F-A013-4CF0-B5FA-6813454B9D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A732978D-E161-4D48-9C7C-4B2F47767933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Termins-rules" sheetId="9" r:id="rId1"/>
@@ -669,7 +669,7 @@
     <numFmt numFmtId="165" formatCode="dd"/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="167" formatCode="h:mm;@"/>
-    <numFmt numFmtId="174" formatCode="ddd"/>
+    <numFmt numFmtId="168" formatCode="ddd"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1184,7 +1184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -1557,7 +1557,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>-In parallel with implementation of api describe it in the main</a:t>
+            <a:t>-In parallel with implementation of api, describe it in the main</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -1594,8 +1594,12 @@
             <a:buChar char="Ø"/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Project Management document </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Project Management document with structure for : -PB , - Sprint 1, gannt diagram</a:t>
+            <a:t>with structure for : -PB , - Sprint 1, gannt diagram</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1605,7 +1609,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t> Enter content for PB at the beginning of the sprint</a:t>
+            <a:t> Enter content for the PB at the beginning of the sprint</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1624,8 +1628,8 @@
             <a:buChar char="Ø"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Planner Controller (min -start it)</a:t>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>code:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1645,8 +1649,37 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Controllers</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
             <a:t>View -&gt; Planner -&gt;start state</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>report:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> -&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1865,13 +1898,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>  - Start with PlannerController</a:t>
+            <a:t>  </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
           </a:endParaRPr>
@@ -2418,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13538CB-7E67-4044-B4BC-9356A4A96686}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2507,7 +2535,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E9" s="80">
-        <f t="shared" ref="E8:E12" si="0">F9</f>
+        <f t="shared" ref="E9:E11" si="0">F9</f>
         <v>44218</v>
       </c>
       <c r="F9" s="74">
@@ -2668,7 +2696,7 @@
       </c>
       <c r="B5" s="74">
         <f ca="1">TODAY()</f>
-        <v>44089</v>
+        <v>44091</v>
       </c>
       <c r="C5" s="75">
         <v>0.65625</v>
@@ -3519,7 +3547,7 @@
         <v>M</v>
       </c>
       <c r="J6" s="48" t="str">
-        <f t="shared" ref="I6:AN6" si="0">LEFT(TEXT(J7,"ddd"),1)</f>
+        <f t="shared" ref="J6:AN6" si="0">LEFT(TEXT(J7,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="K6" s="47" t="str">
@@ -13150,7 +13178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D544E4EA-43A9-4C2D-95F8-E8BC054D1071}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>

--- a/3project_management/project_management.xlsx
+++ b/3project_management/project_management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PLANA\planning-of-the-assignments-for-lecturers-plana\3project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A732978D-E161-4D48-9C7C-4B2F47767933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08435411-CDEA-4325-AB30-EE8EDE170CD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Termins-rules" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="145">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -174,9 +174,6 @@
     <t xml:space="preserve">User stories </t>
   </si>
   <si>
-    <t>Enter user stories in product backlog</t>
-  </si>
-  <si>
     <t>Break down user stories to tasks for sprint1</t>
   </si>
   <si>
@@ -259,9 +256,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Start first steps of study director's view design with Blazor </t>
-  </si>
-  <si>
     <t>max hs sprint1 = 100h</t>
   </si>
   <si>
@@ -302,23 +296,13 @@
     <t>Management tools</t>
   </si>
   <si>
-    <t>Create project management document structure(PB, sprints,
-gannt diagramm )</t>
-  </si>
-  <si>
     <t xml:space="preserve">max hs sprint1 </t>
   </si>
   <si>
     <t xml:space="preserve"> delivery of sprint1</t>
   </si>
   <si>
-    <t>Make a plan of assignments</t>
-  </si>
-  <si>
     <t>Manage plan of assignments</t>
-  </si>
-  <si>
-    <t>As a study director, I want to be able to make a concrete plan of assignments for lecturers for the coming year as well as a provision plan for the next 2-3 years, so the teachers can be better informed about their work hours and schedule for the next several years. And it will be easier to add new small changes into the employment plan.</t>
   </si>
   <si>
     <t xml:space="preserve">Appointments and Rules </t>
@@ -659,6 +643,97 @@
       <t xml:space="preserve"> mit Betreuer/in und Experte/Expertin</t>
     </r>
   </si>
+  <si>
+    <t>Holidays15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> days-duration
+</t>
+  </si>
+  <si>
+    <t>hours per day</t>
+  </si>
+  <si>
+    <t>As a study director, I want to be able to make a  plan of assignments for lecturers .</t>
+  </si>
+  <si>
+    <t>As a study director, I want to be able to manage a  plan of assignments for lecturers .</t>
+  </si>
+  <si>
+    <t>Make own plan.</t>
+  </si>
+  <si>
+    <t>As a lecturer, I want to be able to manage the plan of my assignments.</t>
+  </si>
+  <si>
+    <t>Manage my plan.</t>
+  </si>
+  <si>
+    <t>As a study director, I want to be able to add groups of lecturers to the module run.</t>
+  </si>
+  <si>
+    <t>Make a group of lecturers.</t>
+  </si>
+  <si>
+    <t>Make a group of modules.</t>
+  </si>
+  <si>
+    <t>As a study director, I want to be able to make a group of module runs.</t>
+  </si>
+  <si>
+    <t>Create a subgroup .</t>
+  </si>
+  <si>
+    <t>As a lecturer, I want to be able to create a subgroup with another lecturer/s.</t>
+  </si>
+  <si>
+    <t>Join a subgroup.</t>
+  </si>
+  <si>
+    <t>As a lecturer, I want to be able to join a subgroup with other lecturer/s.</t>
+  </si>
+  <si>
+    <t>Create a plan of assignments</t>
+  </si>
+  <si>
+    <t>As a lecturer,I want to be able to  add Module Runs in my provision plan.</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Ask Mr.Pfahrer if it's like this</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>doing</t>
+  </si>
+  <si>
+    <t>Make repositories</t>
+  </si>
+  <si>
+    <t>Make controllers</t>
+  </si>
+  <si>
+    <t>Create a user stories</t>
+  </si>
+  <si>
+    <t>Create and enter a user stories in product backlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User story </t>
+  </si>
+  <si>
+    <t>Start user story(#1) - make crud for planner of the assignments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start planner view for user story(#1) </t>
+  </si>
+  <si>
+    <t>Create project management document structure(PB, sprints, gannt diagramm )</t>
+  </si>
 </sst>
 </file>
 
@@ -861,7 +936,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1020,6 +1095,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1029,7 +1166,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1186,6 +1323,35 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Date" xfId="2" xr:uid="{52E8FA25-AB34-439C-BC48-9650F425CC09}"/>
@@ -1316,6 +1482,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC65911"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="7"/>
       </font>
     </dxf>
@@ -1365,11 +1536,6 @@
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC65911"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1447,7 +1613,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>deliverable 1</a:t>
+            <a:t>deliverable sprint 1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1473,7 +1639,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Organize product backlog :</a:t>
+            <a:t>Organize Product Backlog(PB) :</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1487,7 +1653,15 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t> -  PL item prioritization</a:t>
+            <a:t> -  PB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>item prioritization</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1679,7 +1853,107 @@
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Structure</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Description of code in parallel with a code state.</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7767639" cy="971550"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F701DBF-173C-4E33-801B-433AE780A996}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3714750"/>
+          <a:ext cx="7767639" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>The main aspects of Sprint 1 were:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> Creation of project management.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t>2. Working with user story #1.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t>3. Creating of ducument structure.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2446,7 +2720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13538CB-7E67-4044-B4BC-9356A4A96686}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2468,24 +2742,24 @@
     </row>
     <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A2" s="72" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H2" s="77" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="F3" s="74" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H3" s="77" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -2493,23 +2767,23 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H5" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" t="s">
         <v>87</v>
-      </c>
-      <c r="I5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H6" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" t="s">
         <v>88</v>
-      </c>
-      <c r="I6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="57" x14ac:dyDescent="0.45">
@@ -2521,13 +2795,13 @@
         <v>44217</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H7" s="79">
         <v>16</v>
       </c>
       <c r="I7" s="49" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
@@ -2542,13 +2816,13 @@
         <v>44218</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H9" s="79" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
@@ -2560,13 +2834,13 @@
         <v>44218</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H10" s="68" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -2578,69 +2852,69 @@
         <v>44217</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H11" s="79" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="F12" s="74" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H12" s="68" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="F16" s="81" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.45">
       <c r="I17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.45">
       <c r="I18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F19" s="74" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J19" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.45">
       <c r="J20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.45">
       <c r="I21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2667,23 +2941,23 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E4" s="76">
         <f>D4-C4</f>
@@ -2692,11 +2966,11 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B5" s="74">
         <f ca="1">TODAY()</f>
-        <v>44091</v>
+        <v>44103</v>
       </c>
       <c r="C5" s="75">
         <v>0.65625</v>
@@ -2962,8 +3236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB44EE33-8DB4-4D77-8C2D-5A0F5796B97D}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3005,7 +3279,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -3209,8 +3483,8 @@
       <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="21">
-        <v>15</v>
+      <c r="A21" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="B21" s="16">
         <v>44200</v>
@@ -3282,8 +3556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ER23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3314,7 +3588,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="64" t="s">
         <v>1</v>
@@ -4092,7 +4366,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>5</v>
@@ -4101,13 +4375,13 @@
         <v>26</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="51" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="60" t="s">
         <v>14</v>
@@ -5269,11 +5543,11 @@
       </c>
       <c r="B9" s="53" t="str">
         <f>'Sprint 1'!B7</f>
-        <v xml:space="preserve">User stories </v>
+        <v>Create a user stories</v>
       </c>
       <c r="C9" s="54" t="str">
         <f>'Sprint 1'!C7</f>
-        <v>Enter user stories in product backlog</v>
+        <v>Create and enter a user stories in product backlog</v>
       </c>
       <c r="D9" s="54" t="str">
         <f>'Sprint 1'!E7</f>
@@ -9400,7 +9674,7 @@
       </c>
       <c r="C16" s="54" t="str">
         <f>'Sprint 1'!C14</f>
-        <v xml:space="preserve">Start first steps of study director's view design with Blazor </v>
+        <v xml:space="preserve">Start planner view for user story(#1) </v>
       </c>
       <c r="D16" s="54" t="str">
         <f>'Sprint 1'!E14</f>
@@ -12783,35 +13057,35 @@
     <row r="23" spans="1:148" ht="21.4" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <conditionalFormatting sqref="I24:EP1048576 AD23:EP23 J18:EP22 I6:EP6 I5:ER5 I7:ER17 I3:EP4 I2:AD2 AH2:EP2">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:EH22 I8:ER17">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>High</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D13">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:EN6">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"m"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D17">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12822,35 +13096,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7E729C-7B33-4373-8A6D-2CA0A89FC9F4}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.53125" customWidth="1"/>
     <col min="2" max="2" width="21.59765625" customWidth="1"/>
-    <col min="3" max="3" width="104.73046875" customWidth="1"/>
+    <col min="3" max="3" width="78.265625" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" customWidth="1"/>
     <col min="6" max="6" width="6.86328125" customWidth="1"/>
     <col min="7" max="7" width="6.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>Gannt!A1</f>
         <v>BaThesis BTI7321 20/21, HS, Project Planning</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A2" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="70" t="s">
         <v>23</v>
       </c>
@@ -12872,104 +13146,158 @@
       <c r="G4" s="70" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="H4" s="82" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="69">
         <v>1</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="D5" s="69" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G5" s="69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="69">
         <v>2</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
+        <v>70</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>38</v>
+      </c>
       <c r="E6" s="69"/>
       <c r="F6" s="69"/>
       <c r="G6" s="69"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="69">
         <v>3</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
+      <c r="B7" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>38</v>
+      </c>
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="69">
         <v>4</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
+      <c r="B8" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>38</v>
+      </c>
       <c r="E8" s="69"/>
       <c r="F8" s="69"/>
       <c r="G8" s="69"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="69">
         <v>5</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
+      <c r="B9" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>38</v>
+      </c>
       <c r="E9" s="69"/>
       <c r="F9" s="69"/>
       <c r="G9" s="69"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="69">
         <v>6</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
+      <c r="B10" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>38</v>
+      </c>
       <c r="E10" s="69"/>
       <c r="F10" s="69"/>
       <c r="G10" s="69"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="69">
         <v>7</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
+      <c r="B11" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>38</v>
+      </c>
       <c r="E11" s="69"/>
       <c r="F11" s="69"/>
       <c r="G11" s="69"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="69">
         <v>8</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
+      <c r="B12" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>135</v>
+      </c>
       <c r="E12" s="69"/>
       <c r="F12" s="69"/>
       <c r="G12" s="69"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="69">
         <v>9</v>
       </c>
@@ -12980,7 +13308,7 @@
       <c r="F13" s="69"/>
       <c r="G13" s="69"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="69">
         <v>10</v>
       </c>
@@ -12991,7 +13319,7 @@
       <c r="F14" s="69"/>
       <c r="G14" s="69"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="69">
         <v>11</v>
       </c>
@@ -13002,7 +13330,7 @@
       <c r="F15" s="69"/>
       <c r="G15" s="69"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="69">
         <v>12</v>
       </c>
@@ -13179,7 +13507,350 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.796875" customWidth="1"/>
+    <col min="2" max="2" width="19.3984375" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="9.06640625" style="42"/>
+    <col min="8" max="8" width="7.796875" customWidth="1"/>
+    <col min="9" max="9" width="8.9296875" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="str">
+        <f>Gannt!A1</f>
+        <v>BaThesis BTI7321 20/21, HS, Project Planning</v>
+      </c>
+      <c r="I1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="A2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F3">
+        <f>SUM(F5:F15)</f>
+        <v>91</v>
+      </c>
+      <c r="G3" s="13">
+        <f>SUM(G5:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="88">
+        <v>1</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="90">
+        <f>F5/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="14">
+        <v>2</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="92"/>
+    </row>
+    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="88">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="90">
+        <f>F6/4</f>
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="14">
+        <v>10</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="92"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="88">
+        <v>2</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="90">
+        <f t="shared" ref="D7:D15" si="0">F7/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="14">
+        <v>2</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="92"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="88">
+        <v>3</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="90">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="14">
+        <v>2</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="92"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="88">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="90">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="14">
+        <v>20</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="92"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="88">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="90">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="14">
+        <v>20</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="92"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="88">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="90">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="14">
+        <v>10</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="92"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="88">
+        <v>4</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="90">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="14">
+        <v>10</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="92"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="88">
+        <v>7</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="90">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="14">
+        <v>10</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="92"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="88">
+        <v>9</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="90">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="14">
+        <v>5</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="92"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="93">
+        <v>10</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="94">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="96"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="E5:E22" xr:uid="{19388B08-6607-4FB7-80A4-7440077A6089}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:I18">
+      <sortCondition sortBy="fontColor" ref="E5:E18" dxfId="14"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="E4:E15">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8346C48C-640E-494D-85F6-A16EC8AEE9A1}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13201,302 +13872,10 @@
     </row>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A2" s="31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F3">
-        <f>SUM(F5:F15)</f>
-        <v>91</v>
-      </c>
-      <c r="G3" s="13">
-        <f>SUM(G5:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="44">
-        <f>F5/4</f>
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="44">
-        <f>F6/4</f>
-        <v>2.5</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="44">
-        <f t="shared" ref="D7:D15" si="0">F7/4</f>
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="44">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="D9" s="44">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="D10" s="44">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="D11" s="44">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="D12" s="44">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="D13" s="44">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="44">
-        <f t="shared" si="0"/>
-        <v>1.25</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="E5:E22" xr:uid="{19388B08-6607-4FB7-80A4-7440077A6089}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:I18">
-      <sortCondition sortBy="fontColor" ref="E5:E18" dxfId="21"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="E4:E15">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8346C48C-640E-494D-85F6-A16EC8AEE9A1}">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="15.59765625" customWidth="1"/>
-    <col min="3" max="3" width="30.59765625" customWidth="1"/>
-    <col min="4" max="4" width="13.73046875" style="44" customWidth="1"/>
-    <col min="5" max="5" width="9.06640625" style="42"/>
-    <col min="8" max="8" width="7.796875" customWidth="1"/>
-    <col min="9" max="9" width="17.796875" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" t="str">
-        <f>Gannt!A1</f>
-        <v>BaThesis BTI7321 20/21, HS, Project Planning</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A2" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -13509,7 +13888,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -13523,7 +13902,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4" s="43" t="s">
         <v>26</v>
@@ -13543,47 +13922,47 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
         <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
         <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -13638,7 +14017,7 @@
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -13651,7 +14030,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -13665,7 +14044,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4" s="43" t="s">
         <v>26</v>
@@ -13710,7 +14089,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13735,7 +14114,7 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -13748,7 +14127,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -13762,7 +14141,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4" s="43" t="s">
         <v>26</v>
@@ -13832,7 +14211,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -13841,10 +14220,10 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -13883,7 +14262,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -13914,7 +14293,7 @@
         <v>M</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -13945,7 +14324,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -13987,7 +14366,7 @@
     </row>
     <row r="11" spans="1:21" ht="171" x14ac:dyDescent="0.45">
       <c r="A11" s="73" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>

--- a/3project_management/project_management.xlsx
+++ b/3project_management/project_management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PLANA\planning-of-the-assignments-for-lecturers-plana\3project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C3F857-9CC3-4D9C-B8E9-37E27EEF43BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7165AE-D811-4A93-9D1A-A96A21BDD778}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1163" yWindow="1222" windowWidth="10800" windowHeight="5461" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Termins-rules" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="163">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>Sprint Backlog(Sprint2)</t>
-  </si>
-  <si>
     <t>Sprint Backlog(Sprint3)</t>
   </si>
   <si>
@@ -187,27 +184,6 @@
   </si>
   <si>
     <t xml:space="preserve">User stories </t>
-  </si>
-  <si>
-    <t>Create tasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tests </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide first test classes </t>
-  </si>
-  <si>
-    <t>User story</t>
-  </si>
-  <si>
-    <t>Implement Repositories *</t>
-  </si>
-  <si>
-    <t>Implement PlanController</t>
-  </si>
-  <si>
-    <t>Document</t>
   </si>
   <si>
     <t>Milestone</t>
@@ -234,12 +210,6 @@
   </si>
   <si>
     <t>// this is the basic formula for gannt</t>
-  </si>
-  <si>
-    <t>Knowledges</t>
-  </si>
-  <si>
-    <t>Learn deeper about repositories methods and controllers in asp.net core</t>
   </si>
   <si>
     <t>tot hours per sprint</t>
@@ -269,9 +239,6 @@
   <si>
     <t xml:space="preserve">duration in days
 </t>
-  </si>
-  <si>
-    <t>Describe repositories and controllers</t>
   </si>
   <si>
     <r>
@@ -369,9 +336,6 @@
   </si>
   <si>
     <t>h</t>
-  </si>
-  <si>
-    <t>Seed data</t>
   </si>
   <si>
     <t>seed data, repositories</t>
@@ -797,6 +761,66 @@
   </si>
   <si>
     <t>sprint1</t>
+  </si>
+  <si>
+    <t>sum of days</t>
+  </si>
+  <si>
+    <t>Create the tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create the tasks </t>
+  </si>
+  <si>
+    <t>Break down user stories for the sprint2</t>
+  </si>
+  <si>
+    <t>UI concepts</t>
+  </si>
+  <si>
+    <t>Continue with UI concepts</t>
+  </si>
+  <si>
+    <t>Domain model</t>
+  </si>
+  <si>
+    <t>Add new concepts to the domain model</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> delivery of sprint2</t>
+  </si>
+  <si>
+    <t>360/14/5</t>
+  </si>
+  <si>
+    <t>total hours/ 14 sprint weeks / 5 working days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UML </t>
+  </si>
+  <si>
+    <t>UML class diagram</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add user stories </t>
+    </r>
+  </si>
+  <si>
+    <t>Display module run in concrete semester</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1431,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1629,6 +1653,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Date" xfId="2" xr:uid="{52E8FA25-AB34-439C-BC48-9650F425CC09}"/>
@@ -1724,6 +1764,11 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1808,11 +1853,6 @@
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC65911"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2251,18 +2291,18 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>195262</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2790825" cy="3500437"/>
+    <xdr:ext cx="2847975" cy="5634038"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
+        <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{452BF8ED-D79D-4BF0-A1C2-233FB3106CF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72369C26-065E-4DF6-B635-F16475FC304E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,8 +2310,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8720138" y="195262"/>
-          <a:ext cx="2790825" cy="3500437"/>
+          <a:off x="9120188" y="238125"/>
+          <a:ext cx="2847975" cy="5634038"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2305,233 +2345,309 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>deliverable</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> 2</a:t>
+            <a:t>deliverable sprint 2</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Goals</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Organize project management</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Organize Product Backlog(PB) :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>goals</a:t>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> -  PB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>item prioritization</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Organize sprint</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>   - fix the list of PB for this sprint</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>   - split big PB in smaller items</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>   - schedule the tasks using gannt diagram</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Component of Deliverable 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> Enter content for the PB at the beginning of the sprint</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Enter priority to the tasks </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>concepts:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0"/>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> concepts</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>code:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Controllers</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Frontend</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>report:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> -&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Domain model</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Description of code in parallel with a code state.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7767639" cy="1076325"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7223A2F-D025-4BC0-B6AA-81EAEC07788B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3895724"/>
+          <a:ext cx="7767639" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>The main aspects of Sprint 2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>were:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Organize product backlog :</a:t>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>1. </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> -  PL item prioritization</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Organize sprint</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>   - fix the list of PB for this sprint</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>   - split big PB in smaller items</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>   - schedule the tasks using gannt diagram</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  - Implementation of repositories</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Component of Deliverable 2</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3027,24 +3143,24 @@
     </row>
     <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A2" s="64" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H2" s="69" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="F3" s="66" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H3" s="69" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -3052,23 +3168,23 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H5" s="70" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H6" s="60" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="57" x14ac:dyDescent="0.45">
@@ -3080,13 +3196,13 @@
         <v>44217</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H7" s="71">
         <v>16</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
@@ -3101,13 +3217,13 @@
         <v>44218</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H9" s="71" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
@@ -3119,13 +3235,13 @@
         <v>44218</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H10" s="60" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -3137,69 +3253,69 @@
         <v>44217</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H11" s="71" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="F12" s="66" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="F16" s="73" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.45">
       <c r="I17" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.45">
       <c r="I18" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F19" s="66" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.45">
       <c r="J20" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.45">
       <c r="I21" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3226,23 +3342,23 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E4" s="68">
         <f>D4-C4</f>
@@ -3251,11 +3367,11 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B5" s="66">
         <f ca="1">TODAY()</f>
-        <v>44115</v>
+        <v>44116</v>
       </c>
       <c r="C5" s="67">
         <v>0.65625</v>
@@ -3540,16 +3656,16 @@
     </row>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A2" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>34</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -3567,10 +3683,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -3792,7 +3908,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="21" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B21" s="16">
         <v>44200</v>
@@ -3864,8 +3980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ES24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AR16" sqref="AR16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3896,7 +4012,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="56" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F2" s="56"/>
       <c r="G2" s="56" t="s">
@@ -3961,7 +4077,7 @@
       <c r="L4" s="100"/>
       <c r="M4" s="100"/>
       <c r="N4" s="100" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="O4" s="100"/>
       <c r="P4" s="100"/>
@@ -4708,7 +4824,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>5</v>
@@ -4717,17 +4833,17 @@
         <v>24</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F7" s="46"/>
       <c r="G7" s="47" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="I7" s="55" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="J7" s="42">
         <f>G9</f>
@@ -5293,7 +5409,7 @@
     <row r="8" spans="1:149" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="101"/>
       <c r="B8" s="101" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C8" s="102"/>
       <c r="D8" s="102"/>
@@ -5995,43 +6111,43 @@
         <v/>
       </c>
       <c r="EJ9" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EJ$7=$G9,$E9=0),"u",  IF(AND(EJ$7&gt;=$G9,EJ$7&lt;$H9),"X",IF(AND(EJ$7&gt;=$H9,EJ$7&lt;=$I9),"Y","")))</f>
+        <f t="shared" ref="EJ9:ES18" si="14" xml:space="preserve"> IF(AND(EJ$7=$G9,$E9=0),"u",  IF(AND(EJ$7&gt;=$G9,EJ$7&lt;$H9),"X",IF(AND(EJ$7&gt;=$H9,EJ$7&lt;=$I9),"Y","")))</f>
         <v/>
       </c>
       <c r="EK9" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EK$7=$G9,$E9=0),"u",  IF(AND(EK$7&gt;=$G9,EK$7&lt;$H9),"X",IF(AND(EK$7&gt;=$H9,EK$7&lt;=$I9),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EL9" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EL$7=$G9,$E9=0),"u",  IF(AND(EL$7&gt;=$G9,EL$7&lt;$H9),"X",IF(AND(EL$7&gt;=$H9,EL$7&lt;=$I9),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EM9" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EM$7=$G9,$E9=0),"u",  IF(AND(EM$7&gt;=$G9,EM$7&lt;$H9),"X",IF(AND(EM$7&gt;=$H9,EM$7&lt;=$I9),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EN9" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EN$7=$G9,$E9=0),"u",  IF(AND(EN$7&gt;=$G9,EN$7&lt;$H9),"X",IF(AND(EN$7&gt;=$H9,EN$7&lt;=$I9),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EO9" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EO$7=$G9,$E9=0),"u",  IF(AND(EO$7&gt;=$G9,EO$7&lt;$H9),"X",IF(AND(EO$7&gt;=$H9,EO$7&lt;=$I9),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EP9" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EP$7=$G9,$E9=0),"u",  IF(AND(EP$7&gt;=$G9,EP$7&lt;$H9),"X",IF(AND(EP$7&gt;=$H9,EP$7&lt;=$I9),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EQ9" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EQ$7=$G9,$E9=0),"u",  IF(AND(EQ$7&gt;=$G9,EQ$7&lt;$H9),"X",IF(AND(EQ$7&gt;=$H9,EQ$7&lt;=$I9),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="ER9" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(ER$7=$G9,$E9=0),"u",  IF(AND(ER$7&gt;=$G9,ER$7&lt;$H9),"X",IF(AND(ER$7&gt;=$H9,ER$7&lt;=$I9),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="ES9" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(ES$7=$G9,$E9=0),"u",  IF(AND(ES$7&gt;=$G9,ES$7&lt;$H9),"X",IF(AND(ES$7&gt;=$H9,ES$7&lt;=$I9),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -6065,563 +6181,563 @@
       </c>
       <c r="I10" s="111"/>
       <c r="J10" s="52" t="str">
-        <f t="shared" ref="J10:Y21" si="14" xml:space="preserve"> IF(AND(J$7=$G10,$E10=0),"u",  IF(AND(J$7&gt;=$G10,J$7&lt;$H10),"X",IF(AND(J$7&gt;=$H10,J$7&lt;=$I10),"Y","")))</f>
+        <f t="shared" ref="J10:Y21" si="15" xml:space="preserve"> IF(AND(J$7=$G10,$E10=0),"u",  IF(AND(J$7&gt;=$G10,J$7&lt;$H10),"X",IF(AND(J$7&gt;=$H10,J$7&lt;=$I10),"Y","")))</f>
         <v/>
       </c>
       <c r="K10" s="52" t="str">
+        <f t="shared" si="15"/>
+        <v>X</v>
+      </c>
+      <c r="L10" s="52" t="str">
+        <f t="shared" si="15"/>
+        <v>X</v>
+      </c>
+      <c r="M10" s="52" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N10" s="52" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="O10" s="52" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="P10" s="52" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="Q10" s="52" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="R10" s="52" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="S10" s="52" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T10" s="52" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="U10" s="52" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="V10" s="52" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="W10" s="52" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="X10" s="52" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="Y10" s="52" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="Z10" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA10" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB10" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC10" s="52" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD10" s="52" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AE10" s="52" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AF10" s="52" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AG10" s="52" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AH10" s="52" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AI10" s="52" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AJ10" s="52" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AK10" s="52" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AL10" s="52" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AM10" s="52" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AN10" s="52" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AO10" s="52" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP10" s="52" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AQ10" s="52" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AR10" s="52" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AS10" s="52" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AT10" s="52" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AU10" s="52" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AV10" s="52" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AW10" s="52" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AX10" s="52" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AY10" s="52" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AZ10" s="52" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BA10" s="52" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BB10" s="52" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BC10" s="52" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BD10" s="52" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BE10" s="52" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BF10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BG10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BH10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BI10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BJ10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BK10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BL10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BM10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BN10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BO10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BP10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BQ10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BR10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BS10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BT10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BU10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BV10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BW10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BX10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BY10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BZ10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CA10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CB10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CC10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CD10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CE10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CF10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CG10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CH10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CI10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CJ10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CK10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CL10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CM10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CN10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CO10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CP10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CQ10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CR10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CS10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CT10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CU10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CV10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CW10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CX10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CY10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CZ10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="DA10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="DB10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="DC10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="DD10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="DE10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="DF10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="DG10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="DH10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="DI10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="DJ10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="DK10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="DL10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="DM10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="DN10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="DO10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="DP10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="DQ10" s="52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="DR10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="DS10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="DT10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="DU10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="DV10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="DW10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="DX10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="DY10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="DZ10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="EA10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="EB10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="EC10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="ED10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="EE10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="EF10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="EG10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="EH10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="EI10" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="EJ10" s="52" t="str">
         <f t="shared" si="14"/>
-        <v>X</v>
-      </c>
-      <c r="L10" s="52" t="str">
+        <v/>
+      </c>
+      <c r="EK10" s="52" t="str">
         <f t="shared" si="14"/>
-        <v>X</v>
-      </c>
-      <c r="M10" s="52" t="str">
+        <v/>
+      </c>
+      <c r="EL10" s="52" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="N10" s="52" t="str">
+      <c r="EM10" s="52" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="O10" s="52" t="str">
+      <c r="EN10" s="52" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P10" s="52" t="str">
+      <c r="EO10" s="52" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q10" s="52" t="str">
+      <c r="EP10" s="52" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="R10" s="52" t="str">
+      <c r="EQ10" s="52" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="S10" s="52" t="str">
+      <c r="ER10" s="52" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="T10" s="52" t="str">
+      <c r="ES10" s="52" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="U10" s="52" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="V10" s="52" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="W10" s="52" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="X10" s="52" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="Y10" s="52" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="Z10" s="52" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AA10" s="52" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AB10" s="52" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AC10" s="52" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AD10" s="52" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AE10" s="52" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AF10" s="52" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AG10" s="52" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AH10" s="52" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AI10" s="52" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AJ10" s="52" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AK10" s="52" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AL10" s="52" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AM10" s="52" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AN10" s="52" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AO10" s="52" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP10" s="52" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AQ10" s="52" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AR10" s="52" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AS10" s="52" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AT10" s="52" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AU10" s="52" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AV10" s="52" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AW10" s="52" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AX10" s="52" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AY10" s="52" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AZ10" s="52" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="BA10" s="52" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="BB10" s="52" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="BC10" s="52" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="BD10" s="52" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="BE10" s="52" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="BF10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BG10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BH10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BI10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BJ10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BK10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BL10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BM10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BN10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BO10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BP10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BQ10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BR10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BS10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BT10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BU10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BV10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BW10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BX10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BY10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BZ10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CA10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CB10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CC10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CD10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CE10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CF10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CG10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CH10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CI10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CJ10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CK10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CL10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CM10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CN10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CO10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CP10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CQ10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CR10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CS10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CT10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CU10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CV10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CW10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CX10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CY10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CZ10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="DA10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="DB10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="DC10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="DD10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="DE10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="DF10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="DG10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="DH10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="DI10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="DJ10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="DK10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="DL10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="DM10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="DN10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="DO10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="DP10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="DQ10" s="52" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="DR10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="DS10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="DT10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="DU10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="DV10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="DW10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="DX10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="DY10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="DZ10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="EA10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="EB10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="EC10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="ED10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="EE10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="EF10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="EG10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="EH10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="EI10" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="EJ10" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EJ$7=$G10,$E10=0),"u",  IF(AND(EJ$7&gt;=$G10,EJ$7&lt;$H10),"X",IF(AND(EJ$7&gt;=$H10,EJ$7&lt;=$I10),"Y","")))</f>
-        <v/>
-      </c>
-      <c r="EK10" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EK$7=$G10,$E10=0),"u",  IF(AND(EK$7&gt;=$G10,EK$7&lt;$H10),"X",IF(AND(EK$7&gt;=$H10,EK$7&lt;=$I10),"Y","")))</f>
-        <v/>
-      </c>
-      <c r="EL10" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EL$7=$G10,$E10=0),"u",  IF(AND(EL$7&gt;=$G10,EL$7&lt;$H10),"X",IF(AND(EL$7&gt;=$H10,EL$7&lt;=$I10),"Y","")))</f>
-        <v/>
-      </c>
-      <c r="EM10" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EM$7=$G10,$E10=0),"u",  IF(AND(EM$7&gt;=$G10,EM$7&lt;$H10),"X",IF(AND(EM$7&gt;=$H10,EM$7&lt;=$I10),"Y","")))</f>
-        <v/>
-      </c>
-      <c r="EN10" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EN$7=$G10,$E10=0),"u",  IF(AND(EN$7&gt;=$G10,EN$7&lt;$H10),"X",IF(AND(EN$7&gt;=$H10,EN$7&lt;=$I10),"Y","")))</f>
-        <v/>
-      </c>
-      <c r="EO10" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EO$7=$G10,$E10=0),"u",  IF(AND(EO$7&gt;=$G10,EO$7&lt;$H10),"X",IF(AND(EO$7&gt;=$H10,EO$7&lt;=$I10),"Y","")))</f>
-        <v/>
-      </c>
-      <c r="EP10" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EP$7=$G10,$E10=0),"u",  IF(AND(EP$7&gt;=$G10,EP$7&lt;$H10),"X",IF(AND(EP$7&gt;=$H10,EP$7&lt;=$I10),"Y","")))</f>
-        <v/>
-      </c>
-      <c r="EQ10" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EQ$7=$G10,$E10=0),"u",  IF(AND(EQ$7&gt;=$G10,EQ$7&lt;$H10),"X",IF(AND(EQ$7&gt;=$H10,EQ$7&lt;=$I10),"Y","")))</f>
-        <v/>
-      </c>
-      <c r="ER10" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(ER$7=$G10,$E10=0),"u",  IF(AND(ER$7&gt;=$G10,ER$7&lt;$H10),"X",IF(AND(ER$7&gt;=$H10,ER$7&lt;=$I10),"Y","")))</f>
-        <v/>
-      </c>
-      <c r="ES10" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(ES$7=$G10,$E10=0),"u",  IF(AND(ES$7&gt;=$G10,ES$7&lt;$H10),"X",IF(AND(ES$7&gt;=$H10,ES$7&lt;=$I10),"Y","")))</f>
         <v/>
       </c>
     </row>
@@ -6655,23 +6771,23 @@
       </c>
       <c r="I11" s="111"/>
       <c r="J11" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K11" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L11" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M11" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>X</v>
       </c>
       <c r="N11" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O11" s="52" t="str">
@@ -7175,43 +7291,43 @@
         <v/>
       </c>
       <c r="EJ11" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EJ$7=$G11,$E11=0),"u",  IF(AND(EJ$7&gt;=$G11,EJ$7&lt;$H11),"X",IF(AND(EJ$7&gt;=$H11,EJ$7&lt;=$I11),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EK11" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EK$7=$G11,$E11=0),"u",  IF(AND(EK$7&gt;=$G11,EK$7&lt;$H11),"X",IF(AND(EK$7&gt;=$H11,EK$7&lt;=$I11),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EL11" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EL$7=$G11,$E11=0),"u",  IF(AND(EL$7&gt;=$G11,EL$7&lt;$H11),"X",IF(AND(EL$7&gt;=$H11,EL$7&lt;=$I11),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EM11" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EM$7=$G11,$E11=0),"u",  IF(AND(EM$7&gt;=$G11,EM$7&lt;$H11),"X",IF(AND(EM$7&gt;=$H11,EM$7&lt;=$I11),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EN11" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EN$7=$G11,$E11=0),"u",  IF(AND(EN$7&gt;=$G11,EN$7&lt;$H11),"X",IF(AND(EN$7&gt;=$H11,EN$7&lt;=$I11),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EO11" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EO$7=$G11,$E11=0),"u",  IF(AND(EO$7&gt;=$G11,EO$7&lt;$H11),"X",IF(AND(EO$7&gt;=$H11,EO$7&lt;=$I11),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EP11" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EP$7=$G11,$E11=0),"u",  IF(AND(EP$7&gt;=$G11,EP$7&lt;$H11),"X",IF(AND(EP$7&gt;=$H11,EP$7&lt;=$I11),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EQ11" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EQ$7=$G11,$E11=0),"u",  IF(AND(EQ$7&gt;=$G11,EQ$7&lt;$H11),"X",IF(AND(EQ$7&gt;=$H11,EQ$7&lt;=$I11),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="ER11" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(ER$7=$G11,$E11=0),"u",  IF(AND(ER$7&gt;=$G11,ER$7&lt;$H11),"X",IF(AND(ER$7&gt;=$H11,ER$7&lt;=$I11),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="ES11" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(ES$7=$G11,$E11=0),"u",  IF(AND(ES$7&gt;=$G11,ES$7&lt;$H11),"X",IF(AND(ES$7&gt;=$H11,ES$7&lt;=$I11),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7221,7 +7337,7 @@
       </c>
       <c r="B12" s="105" t="str">
         <f>'Sprint 1'!B8</f>
-        <v>Create tasks</v>
+        <v>Create the tasks</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="106" t="str">
@@ -7236,7 +7352,7 @@
         <v>3.6944444444444442</v>
       </c>
       <c r="G12" s="51">
-        <f t="shared" ref="G12:G21" si="15">H12+(-E12)</f>
+        <f t="shared" ref="G12:G21" si="16">H12+(-E12)</f>
         <v>44091.305555555555</v>
       </c>
       <c r="H12" s="108">
@@ -7245,23 +7361,23 @@
       </c>
       <c r="I12" s="111"/>
       <c r="J12" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K12" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L12" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M12" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N12" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O12" s="52" t="str">
@@ -7765,43 +7881,43 @@
         <v/>
       </c>
       <c r="EJ12" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EJ$7=$G12,$E12=0),"u",  IF(AND(EJ$7&gt;=$G12,EJ$7&lt;$H12),"X",IF(AND(EJ$7&gt;=$H12,EJ$7&lt;=$I12),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EK12" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EK$7=$G12,$E12=0),"u",  IF(AND(EK$7&gt;=$G12,EK$7&lt;$H12),"X",IF(AND(EK$7&gt;=$H12,EK$7&lt;=$I12),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EL12" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EL$7=$G12,$E12=0),"u",  IF(AND(EL$7&gt;=$G12,EL$7&lt;$H12),"X",IF(AND(EL$7&gt;=$H12,EL$7&lt;=$I12),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EM12" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EM$7=$G12,$E12=0),"u",  IF(AND(EM$7&gt;=$G12,EM$7&lt;$H12),"X",IF(AND(EM$7&gt;=$H12,EM$7&lt;=$I12),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EN12" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EN$7=$G12,$E12=0),"u",  IF(AND(EN$7&gt;=$G12,EN$7&lt;$H12),"X",IF(AND(EN$7&gt;=$H12,EN$7&lt;=$I12),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EO12" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EO$7=$G12,$E12=0),"u",  IF(AND(EO$7&gt;=$G12,EO$7&lt;$H12),"X",IF(AND(EO$7&gt;=$H12,EO$7&lt;=$I12),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EP12" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EP$7=$G12,$E12=0),"u",  IF(AND(EP$7&gt;=$G12,EP$7&lt;$H12),"X",IF(AND(EP$7&gt;=$H12,EP$7&lt;=$I12),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EQ12" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EQ$7=$G12,$E12=0),"u",  IF(AND(EQ$7&gt;=$G12,EQ$7&lt;$H12),"X",IF(AND(EQ$7&gt;=$H12,EQ$7&lt;=$I12),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="ER12" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(ER$7=$G12,$E12=0),"u",  IF(AND(ER$7&gt;=$G12,ER$7&lt;$H12),"X",IF(AND(ER$7&gt;=$H12,ER$7&lt;=$I12),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="ES12" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(ES$7=$G12,$E12=0),"u",  IF(AND(ES$7&gt;=$G12,ES$7&lt;$H12),"X",IF(AND(ES$7&gt;=$H12,ES$7&lt;=$I12),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7826,7 +7942,7 @@
         <v>7.5833333333333321</v>
       </c>
       <c r="G13" s="51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>44091.694444444445</v>
       </c>
       <c r="H13" s="108">
@@ -7835,23 +7951,23 @@
       </c>
       <c r="I13" s="111"/>
       <c r="J13" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K13" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L13" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M13" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N13" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>X</v>
       </c>
       <c r="O13" s="52" t="str">
@@ -8355,43 +8471,43 @@
         <v/>
       </c>
       <c r="EJ13" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EJ$7=$G13,$E13=0),"u",  IF(AND(EJ$7&gt;=$G13,EJ$7&lt;$H13),"X",IF(AND(EJ$7&gt;=$H13,EJ$7&lt;=$I13),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EK13" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EK$7=$G13,$E13=0),"u",  IF(AND(EK$7&gt;=$G13,EK$7&lt;$H13),"X",IF(AND(EK$7&gt;=$H13,EK$7&lt;=$I13),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EL13" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EL$7=$G13,$E13=0),"u",  IF(AND(EL$7&gt;=$G13,EL$7&lt;$H13),"X",IF(AND(EL$7&gt;=$H13,EL$7&lt;=$I13),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EM13" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EM$7=$G13,$E13=0),"u",  IF(AND(EM$7&gt;=$G13,EM$7&lt;$H13),"X",IF(AND(EM$7&gt;=$H13,EM$7&lt;=$I13),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EN13" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EN$7=$G13,$E13=0),"u",  IF(AND(EN$7&gt;=$G13,EN$7&lt;$H13),"X",IF(AND(EN$7&gt;=$H13,EN$7&lt;=$I13),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EO13" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EO$7=$G13,$E13=0),"u",  IF(AND(EO$7&gt;=$G13,EO$7&lt;$H13),"X",IF(AND(EO$7&gt;=$H13,EO$7&lt;=$I13),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EP13" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EP$7=$G13,$E13=0),"u",  IF(AND(EP$7&gt;=$G13,EP$7&lt;$H13),"X",IF(AND(EP$7&gt;=$H13,EP$7&lt;=$I13),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EQ13" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EQ$7=$G13,$E13=0),"u",  IF(AND(EQ$7&gt;=$G13,EQ$7&lt;$H13),"X",IF(AND(EQ$7&gt;=$H13,EQ$7&lt;=$I13),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="ER13" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(ER$7=$G13,$E13=0),"u",  IF(AND(ER$7&gt;=$G13,ER$7&lt;$H13),"X",IF(AND(ER$7&gt;=$H13,ER$7&lt;=$I13),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="ES13" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(ES$7=$G13,$E13=0),"u",  IF(AND(ES$7&gt;=$G13,ES$7&lt;$H13),"X",IF(AND(ES$7&gt;=$H13,ES$7&lt;=$I13),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -8416,32 +8532,32 @@
         <v>11.472222222222221</v>
       </c>
       <c r="G14" s="51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>44095.583333333328</v>
       </c>
       <c r="H14" s="108">
-        <f t="shared" ref="H14:H21" si="16">G$3+F14</f>
+        <f t="shared" ref="H14:H21" si="17">G$3+F14</f>
         <v>44099.472222222219</v>
       </c>
       <c r="I14" s="111"/>
       <c r="J14" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K14" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L14" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M14" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N14" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O14" s="52" t="str">
@@ -8661,67 +8777,67 @@
         <v/>
       </c>
       <c r="BQ14" s="52" t="str">
-        <f t="shared" ref="BQ14:EB21" si="17" xml:space="preserve"> IF(AND(BQ$7=$G14,$E14=0),"u",  IF(AND(BQ$7&gt;=$G14,BQ$7&lt;$H14),"X",IF(AND(BQ$7&gt;=$H14,BQ$7&lt;=$I14),"Y","")))</f>
+        <f t="shared" ref="BQ14:EB21" si="18" xml:space="preserve"> IF(AND(BQ$7=$G14,$E14=0),"u",  IF(AND(BQ$7&gt;=$G14,BQ$7&lt;$H14),"X",IF(AND(BQ$7&gt;=$H14,BQ$7&lt;=$I14),"Y","")))</f>
         <v/>
       </c>
       <c r="BR14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BS14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BT14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BU14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BV14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BW14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BX14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BY14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BZ14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CA14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CB14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CC14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CD14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CE14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CF14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CG14" s="52" t="str">
@@ -8733,23 +8849,23 @@
         <v/>
       </c>
       <c r="CI14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CJ14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CK14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CL14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CM14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CN14" s="52" t="str">
@@ -8829,91 +8945,91 @@
         <v/>
       </c>
       <c r="DG14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DH14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DI14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DJ14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DK14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DL14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DM14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DN14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DO14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DP14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DQ14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DR14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DS14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DT14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DU14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DV14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DW14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DX14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DY14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DZ14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="EA14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="EB14" s="52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="EC14" s="52" t="str">
@@ -8945,43 +9061,43 @@
         <v/>
       </c>
       <c r="EJ14" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EJ$7=$G14,$E14=0),"u",  IF(AND(EJ$7&gt;=$G14,EJ$7&lt;$H14),"X",IF(AND(EJ$7&gt;=$H14,EJ$7&lt;=$I14),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EK14" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EK$7=$G14,$E14=0),"u",  IF(AND(EK$7&gt;=$G14,EK$7&lt;$H14),"X",IF(AND(EK$7&gt;=$H14,EK$7&lt;=$I14),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EL14" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EL$7=$G14,$E14=0),"u",  IF(AND(EL$7&gt;=$G14,EL$7&lt;$H14),"X",IF(AND(EL$7&gt;=$H14,EL$7&lt;=$I14),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EM14" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EM$7=$G14,$E14=0),"u",  IF(AND(EM$7&gt;=$G14,EM$7&lt;$H14),"X",IF(AND(EM$7&gt;=$H14,EM$7&lt;=$I14),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EN14" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EN$7=$G14,$E14=0),"u",  IF(AND(EN$7&gt;=$G14,EN$7&lt;$H14),"X",IF(AND(EN$7&gt;=$H14,EN$7&lt;=$I14),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EO14" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EO$7=$G14,$E14=0),"u",  IF(AND(EO$7&gt;=$G14,EO$7&lt;$H14),"X",IF(AND(EO$7&gt;=$H14,EO$7&lt;=$I14),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EP14" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EP$7=$G14,$E14=0),"u",  IF(AND(EP$7&gt;=$G14,EP$7&lt;$H14),"X",IF(AND(EP$7&gt;=$H14,EP$7&lt;=$I14),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EQ14" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EQ$7=$G14,$E14=0),"u",  IF(AND(EQ$7&gt;=$G14,EQ$7&lt;$H14),"X",IF(AND(EQ$7&gt;=$H14,EQ$7&lt;=$I14),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="ER14" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(ER$7=$G14,$E14=0),"u",  IF(AND(ER$7&gt;=$G14,ER$7&lt;$H14),"X",IF(AND(ER$7&gt;=$H14,ER$7&lt;=$I14),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="ES14" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(ES$7=$G14,$E14=0),"u",  IF(AND(ES$7&gt;=$G14,ES$7&lt;$H14),"X",IF(AND(ES$7&gt;=$H14,ES$7&lt;=$I14),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9006,32 +9122,32 @@
         <v>13.416666666666666</v>
       </c>
       <c r="G15" s="51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>44099.472222222219</v>
       </c>
       <c r="H15" s="108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>44101.416666666664</v>
       </c>
       <c r="I15" s="111"/>
       <c r="J15" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K15" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L15" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M15" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N15" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O15" s="52" t="str">
@@ -9207,305 +9323,305 @@
         <v/>
       </c>
       <c r="BF15" s="52" t="str">
-        <f t="shared" ref="BF15:DQ21" si="18" xml:space="preserve"> IF(AND(BF$7=$G15,$E15=0),"u",  IF(AND(BF$7&gt;=$G15,BF$7&lt;$H15),"X",IF(AND(BF$7&gt;=$H15,BF$7&lt;=$I15),"Y","")))</f>
+        <f t="shared" ref="BF15:DQ21" si="19" xml:space="preserve"> IF(AND(BF$7=$G15,$E15=0),"u",  IF(AND(BF$7&gt;=$G15,BF$7&lt;$H15),"X",IF(AND(BF$7&gt;=$H15,BF$7&lt;=$I15),"Y","")))</f>
         <v/>
       </c>
       <c r="BG15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BH15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BI15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BJ15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BK15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BL15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BM15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BN15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BO15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BP15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BQ15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BR15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BS15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BT15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BU15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BV15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BW15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BX15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BH15" s="52" t="str">
+      <c r="BY15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BI15" s="52" t="str">
+      <c r="BZ15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BJ15" s="52" t="str">
+      <c r="CA15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK15" s="52" t="str">
+      <c r="CB15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BL15" s="52" t="str">
+      <c r="CC15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BM15" s="52" t="str">
+      <c r="CD15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BN15" s="52" t="str">
+      <c r="CE15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BO15" s="52" t="str">
+      <c r="CF15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BP15" s="52" t="str">
+      <c r="CG15" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CH15" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CI15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BQ15" s="52" t="str">
+      <c r="CJ15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BR15" s="52" t="str">
+      <c r="CK15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BS15" s="52" t="str">
+      <c r="CL15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BT15" s="52" t="str">
+      <c r="CM15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BU15" s="52" t="str">
+      <c r="CN15" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CO15" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CP15" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CQ15" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CR15" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CS15" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CT15" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CU15" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CV15" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CW15" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CX15" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CY15" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CZ15" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="DA15" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="DB15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DC15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DD15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DE15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DF15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DG15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DH15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DI15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DJ15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DK15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DL15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DM15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DN15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DO15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DP15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DQ15" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DR15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BV15" s="52" t="str">
+      <c r="DS15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BW15" s="52" t="str">
+      <c r="DT15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BX15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="BY15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="BZ15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CA15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CB15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CC15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CD15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CE15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CF15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CG15" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CH15" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CI15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CJ15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CK15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CL15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CM15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CN15" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CO15" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CP15" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CQ15" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CR15" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CS15" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CT15" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CU15" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CV15" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CW15" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CX15" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CY15" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CZ15" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="DA15" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="DB15" s="52" t="str">
+      <c r="DU15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DC15" s="52" t="str">
+      <c r="DV15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DD15" s="52" t="str">
+      <c r="DW15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DE15" s="52" t="str">
+      <c r="DX15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DF15" s="52" t="str">
+      <c r="DY15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DG15" s="52" t="str">
+      <c r="DZ15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DH15" s="52" t="str">
+      <c r="EA15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DI15" s="52" t="str">
+      <c r="EB15" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DJ15" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DK15" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DL15" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DM15" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DN15" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DO15" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DP15" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DQ15" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DR15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DS15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DT15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DU15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DV15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DW15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DX15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DY15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DZ15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="EA15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="EB15" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="EC15" s="52" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -9535,43 +9651,43 @@
         <v/>
       </c>
       <c r="EJ15" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EJ$7=$G15,$E15=0),"u",  IF(AND(EJ$7&gt;=$G15,EJ$7&lt;$H15),"X",IF(AND(EJ$7&gt;=$H15,EJ$7&lt;=$I15),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EK15" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EK$7=$G15,$E15=0),"u",  IF(AND(EK$7&gt;=$G15,EK$7&lt;$H15),"X",IF(AND(EK$7&gt;=$H15,EK$7&lt;=$I15),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EL15" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EL$7=$G15,$E15=0),"u",  IF(AND(EL$7&gt;=$G15,EL$7&lt;$H15),"X",IF(AND(EL$7&gt;=$H15,EL$7&lt;=$I15),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EM15" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EM$7=$G15,$E15=0),"u",  IF(AND(EM$7&gt;=$G15,EM$7&lt;$H15),"X",IF(AND(EM$7&gt;=$H15,EM$7&lt;=$I15),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EN15" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EN$7=$G15,$E15=0),"u",  IF(AND(EN$7&gt;=$G15,EN$7&lt;$H15),"X",IF(AND(EN$7&gt;=$H15,EN$7&lt;=$I15),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EO15" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EO$7=$G15,$E15=0),"u",  IF(AND(EO$7&gt;=$G15,EO$7&lt;$H15),"X",IF(AND(EO$7&gt;=$H15,EO$7&lt;=$I15),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EP15" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EP$7=$G15,$E15=0),"u",  IF(AND(EP$7&gt;=$G15,EP$7&lt;$H15),"X",IF(AND(EP$7&gt;=$H15,EP$7&lt;=$I15),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EQ15" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EQ$7=$G15,$E15=0),"u",  IF(AND(EQ$7&gt;=$G15,EQ$7&lt;$H15),"X",IF(AND(EQ$7&gt;=$H15,EQ$7&lt;=$I15),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="ER15" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(ER$7=$G15,$E15=0),"u",  IF(AND(ER$7&gt;=$G15,ER$7&lt;$H15),"X",IF(AND(ER$7&gt;=$H15,ER$7&lt;=$I15),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="ES15" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(ES$7=$G15,$E15=0),"u",  IF(AND(ES$7&gt;=$G15,ES$7&lt;$H15),"X",IF(AND(ES$7&gt;=$H15,ES$7&lt;=$I15),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9596,32 +9712,32 @@
         <v>14.777777777777777</v>
       </c>
       <c r="G16" s="51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>44101.416666666672</v>
       </c>
       <c r="H16" s="108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>44102.777777777781</v>
       </c>
       <c r="I16" s="111"/>
       <c r="J16" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K16" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L16" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M16" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N16" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O16" s="52" t="str">
@@ -9797,305 +9913,305 @@
         <v/>
       </c>
       <c r="BF16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BH16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BI16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BJ16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BK16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BL16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BM16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BN16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BO16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BP16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BQ16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BR16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BS16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BT16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BU16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BV16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BW16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BX16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BG16" s="52" t="str">
+      <c r="BY16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BH16" s="52" t="str">
+      <c r="BZ16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BI16" s="52" t="str">
+      <c r="CA16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BJ16" s="52" t="str">
+      <c r="CB16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK16" s="52" t="str">
+      <c r="CC16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BL16" s="52" t="str">
+      <c r="CD16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BM16" s="52" t="str">
+      <c r="CE16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BN16" s="52" t="str">
+      <c r="CF16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BO16" s="52" t="str">
+      <c r="CG16" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CH16" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CI16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BP16" s="52" t="str">
+      <c r="CJ16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BQ16" s="52" t="str">
+      <c r="CK16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BR16" s="52" t="str">
+      <c r="CL16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BS16" s="52" t="str">
+      <c r="CM16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BT16" s="52" t="str">
+      <c r="CN16" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CO16" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CP16" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CQ16" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CR16" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CS16" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CT16" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CU16" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CV16" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CW16" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CX16" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CY16" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CZ16" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="DA16" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="DB16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DC16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DD16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DE16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DF16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DG16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DH16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DI16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DJ16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DK16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DL16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DM16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DN16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DO16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DP16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DQ16" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DR16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BU16" s="52" t="str">
+      <c r="DS16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BV16" s="52" t="str">
+      <c r="DT16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BW16" s="52" t="str">
+      <c r="DU16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BX16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="BY16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="BZ16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CA16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CB16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CC16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CD16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CE16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CF16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CG16" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CH16" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CI16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CJ16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CK16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CL16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CM16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CN16" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CO16" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CP16" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CQ16" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CR16" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CS16" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CT16" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CU16" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CV16" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CW16" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CX16" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CY16" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CZ16" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="DA16" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="DB16" s="52" t="str">
+      <c r="DV16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DC16" s="52" t="str">
+      <c r="DW16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DD16" s="52" t="str">
+      <c r="DX16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DE16" s="52" t="str">
+      <c r="DY16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DF16" s="52" t="str">
+      <c r="DZ16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DG16" s="52" t="str">
+      <c r="EA16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DH16" s="52" t="str">
+      <c r="EB16" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DI16" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DJ16" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DK16" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DL16" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DM16" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DN16" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DO16" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DP16" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DQ16" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DR16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DS16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DT16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DU16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DV16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DW16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DX16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DY16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DZ16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="EA16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="EB16" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="EC16" s="52" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -10125,43 +10241,43 @@
         <v/>
       </c>
       <c r="EJ16" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EJ$7=$G16,$E16=0),"u",  IF(AND(EJ$7&gt;=$G16,EJ$7&lt;$H16),"X",IF(AND(EJ$7&gt;=$H16,EJ$7&lt;=$I16),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EK16" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EK$7=$G16,$E16=0),"u",  IF(AND(EK$7&gt;=$G16,EK$7&lt;$H16),"X",IF(AND(EK$7&gt;=$H16,EK$7&lt;=$I16),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EL16" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EL$7=$G16,$E16=0),"u",  IF(AND(EL$7&gt;=$G16,EL$7&lt;$H16),"X",IF(AND(EL$7&gt;=$H16,EL$7&lt;=$I16),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EM16" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EM$7=$G16,$E16=0),"u",  IF(AND(EM$7&gt;=$G16,EM$7&lt;$H16),"X",IF(AND(EM$7&gt;=$H16,EM$7&lt;=$I16),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EN16" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EN$7=$G16,$E16=0),"u",  IF(AND(EN$7&gt;=$G16,EN$7&lt;$H16),"X",IF(AND(EN$7&gt;=$H16,EN$7&lt;=$I16),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EO16" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EO$7=$G16,$E16=0),"u",  IF(AND(EO$7&gt;=$G16,EO$7&lt;$H16),"X",IF(AND(EO$7&gt;=$H16,EO$7&lt;=$I16),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EP16" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EP$7=$G16,$E16=0),"u",  IF(AND(EP$7&gt;=$G16,EP$7&lt;$H16),"X",IF(AND(EP$7&gt;=$H16,EP$7&lt;=$I16),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EQ16" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EQ$7=$G16,$E16=0),"u",  IF(AND(EQ$7&gt;=$G16,EQ$7&lt;$H16),"X",IF(AND(EQ$7&gt;=$H16,EQ$7&lt;=$I16),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="ER16" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(ER$7=$G16,$E16=0),"u",  IF(AND(ER$7&gt;=$G16,ER$7&lt;$H16),"X",IF(AND(ER$7&gt;=$H16,ER$7&lt;=$I16),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="ES16" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(ES$7=$G16,$E16=0),"u",  IF(AND(ES$7&gt;=$G16,ES$7&lt;$H16),"X",IF(AND(ES$7&gt;=$H16,ES$7&lt;=$I16),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10186,32 +10302,32 @@
         <v>15.361111111111111</v>
       </c>
       <c r="G17" s="51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>44102.777777777774</v>
       </c>
       <c r="H17" s="108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>44103.361111111109</v>
       </c>
       <c r="I17" s="111"/>
       <c r="J17" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K17" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L17" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M17" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N17" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O17" s="52" t="str">
@@ -10387,371 +10503,371 @@
         <v/>
       </c>
       <c r="BF17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BH17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BI17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BJ17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BK17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BL17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BM17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BN17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BO17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BP17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BQ17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BR17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BS17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BT17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BU17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BV17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BW17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BX17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BG17" s="52" t="str">
+      <c r="BY17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BH17" s="52" t="str">
+      <c r="BZ17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BI17" s="52" t="str">
+      <c r="CA17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BJ17" s="52" t="str">
+      <c r="CB17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BK17" s="52" t="str">
+      <c r="CC17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BL17" s="52" t="str">
+      <c r="CD17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BM17" s="52" t="str">
+      <c r="CE17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BN17" s="52" t="str">
+      <c r="CF17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BO17" s="52" t="str">
+      <c r="CG17" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CH17" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CI17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BP17" s="52" t="str">
+      <c r="CJ17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BQ17" s="52" t="str">
+      <c r="CK17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BR17" s="52" t="str">
+      <c r="CL17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BS17" s="52" t="str">
+      <c r="CM17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BT17" s="52" t="str">
+      <c r="CN17" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CO17" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CP17" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CQ17" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CR17" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CS17" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CT17" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CU17" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CV17" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CW17" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CX17" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CY17" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="CZ17" s="52" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="DA17" s="52" t="str">
+        <f t="shared" ref="CN17:DA21" si="20" xml:space="preserve"> IF(AND(DA$7=$G17,$E17=0),"u",  IF(AND(DA$7&gt;=$G17,DA$7&lt;$H17),"X",IF(AND(DA$7&gt;=$H17,DA$7&lt;=$I17),"Y","")))</f>
+        <v/>
+      </c>
+      <c r="DB17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DC17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DD17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DE17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DF17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DG17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DH17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DI17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DJ17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DK17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DL17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DM17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DN17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DO17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DP17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DQ17" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DR17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BU17" s="52" t="str">
+      <c r="DS17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BV17" s="52" t="str">
+      <c r="DT17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BW17" s="52" t="str">
+      <c r="DU17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BX17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="BY17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="BZ17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CA17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CB17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CC17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CD17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CE17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CF17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CG17" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CH17" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CI17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CJ17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CK17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CL17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CM17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="CN17" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CO17" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CP17" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CQ17" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CR17" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CS17" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CT17" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CU17" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CV17" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CW17" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CX17" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CY17" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="CZ17" s="52" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="DA17" s="52" t="str">
-        <f t="shared" ref="CN17:EI21" si="19" xml:space="preserve"> IF(AND(DA$7=$G17,$E17=0),"u",  IF(AND(DA$7&gt;=$G17,DA$7&lt;$H17),"X",IF(AND(DA$7&gt;=$H17,DA$7&lt;=$I17),"Y","")))</f>
-        <v/>
-      </c>
-      <c r="DB17" s="52" t="str">
+      <c r="DV17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DC17" s="52" t="str">
+      <c r="DW17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DD17" s="52" t="str">
+      <c r="DX17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DE17" s="52" t="str">
+      <c r="DY17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DF17" s="52" t="str">
+      <c r="DZ17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DG17" s="52" t="str">
+      <c r="EA17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DH17" s="52" t="str">
+      <c r="EB17" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="DI17" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DJ17" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DK17" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DL17" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DM17" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DN17" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DO17" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DP17" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DQ17" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DR17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DS17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DT17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DU17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DV17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DW17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DX17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DY17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DZ17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="EA17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="EB17" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="EC17" s="52" t="str">
-        <f t="shared" ref="BX17:EI21" si="20" xml:space="preserve"> IF(AND(EC$7=$G17,$E17=0),"u",  IF(AND(EC$7&gt;=$G17,EC$7&lt;$H17),"X",IF(AND(EC$7&gt;=$H17,EC$7&lt;=$I17),"Y","")))</f>
+        <f t="shared" ref="BX17:EI21" si="21" xml:space="preserve"> IF(AND(EC$7=$G17,$E17=0),"u",  IF(AND(EC$7&gt;=$G17,EC$7&lt;$H17),"X",IF(AND(EC$7&gt;=$H17,EC$7&lt;=$I17),"Y","")))</f>
         <v/>
       </c>
       <c r="ED17" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EE17" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EF17" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EG17" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EH17" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EI17" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EJ17" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EJ$7=$G17,$E17=0),"u",  IF(AND(EJ$7&gt;=$G17,EJ$7&lt;$H17),"X",IF(AND(EJ$7&gt;=$H17,EJ$7&lt;=$I17),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EK17" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EK$7=$G17,$E17=0),"u",  IF(AND(EK$7&gt;=$G17,EK$7&lt;$H17),"X",IF(AND(EK$7&gt;=$H17,EK$7&lt;=$I17),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EL17" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EL$7=$G17,$E17=0),"u",  IF(AND(EL$7&gt;=$G17,EL$7&lt;$H17),"X",IF(AND(EL$7&gt;=$H17,EL$7&lt;=$I17),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EM17" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EM$7=$G17,$E17=0),"u",  IF(AND(EM$7&gt;=$G17,EM$7&lt;$H17),"X",IF(AND(EM$7&gt;=$H17,EM$7&lt;=$I17),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EN17" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EN$7=$G17,$E17=0),"u",  IF(AND(EN$7&gt;=$G17,EN$7&lt;$H17),"X",IF(AND(EN$7&gt;=$H17,EN$7&lt;=$I17),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EO17" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EO$7=$G17,$E17=0),"u",  IF(AND(EO$7&gt;=$G17,EO$7&lt;$H17),"X",IF(AND(EO$7&gt;=$H17,EO$7&lt;=$I17),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EP17" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EP$7=$G17,$E17=0),"u",  IF(AND(EP$7&gt;=$G17,EP$7&lt;$H17),"X",IF(AND(EP$7&gt;=$H17,EP$7&lt;=$I17),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EQ17" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EQ$7=$G17,$E17=0),"u",  IF(AND(EQ$7&gt;=$G17,EQ$7&lt;$H17),"X",IF(AND(EQ$7&gt;=$H17,EQ$7&lt;=$I17),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="ER17" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(ER$7=$G17,$E17=0),"u",  IF(AND(ER$7&gt;=$G17,ER$7&lt;$H17),"X",IF(AND(ER$7&gt;=$H17,ER$7&lt;=$I17),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="ES17" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(ES$7=$G17,$E17=0),"u",  IF(AND(ES$7&gt;=$G17,ES$7&lt;$H17),"X",IF(AND(ES$7&gt;=$H17,ES$7&lt;=$I17),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10776,32 +10892,32 @@
         <v>16.722222222222221</v>
       </c>
       <c r="G18" s="51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>44103.361111111109</v>
       </c>
       <c r="H18" s="108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>44104.722222222219</v>
       </c>
       <c r="I18" s="115"/>
       <c r="J18" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K18" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L18" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M18" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N18" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O18" s="52" t="str">
@@ -10977,371 +11093,371 @@
         <v/>
       </c>
       <c r="BF18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BH18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BI18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BJ18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BK18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BL18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BM18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BN18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BO18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BP18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BQ18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BR18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BS18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BT18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BU18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BV18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BW18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BX18" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="BY18" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="BZ18" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CA18" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CB18" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CC18" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CD18" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CE18" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CF18" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CG18" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CH18" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CI18" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CJ18" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CK18" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CL18" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CM18" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CN18" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CO18" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CP18" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CQ18" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CR18" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CS18" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CT18" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CU18" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CV18" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CW18" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CX18" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CY18" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CZ18" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="DA18" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="DB18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DC18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DD18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DE18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DF18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DG18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DH18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DI18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DJ18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DK18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DL18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DM18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DN18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DO18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DP18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DQ18" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DR18" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BG18" s="52" t="str">
+      <c r="DS18" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BH18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BI18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BJ18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BK18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BL18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BM18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BN18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BO18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BP18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BQ18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BR18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BS18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BT18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BU18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BV18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BW18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BX18" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="BY18" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="BZ18" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CA18" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CB18" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CC18" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CD18" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CE18" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CF18" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CG18" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CH18" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CI18" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CJ18" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CK18" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CL18" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CM18" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CN18" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CO18" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CP18" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CQ18" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CR18" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CS18" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CT18" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CU18" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CV18" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CW18" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CX18" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CY18" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CZ18" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="DA18" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="DB18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DC18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DD18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DE18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DF18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DG18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DH18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DI18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DJ18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DK18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DL18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DM18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DN18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DO18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DP18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DQ18" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DR18" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DS18" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="DT18" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DU18" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DV18" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DW18" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DX18" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DY18" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DZ18" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EA18" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EB18" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EC18" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="ED18" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EE18" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EF18" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EG18" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EH18" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EI18" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EJ18" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EJ$7=$G18,$E18=0),"u",  IF(AND(EJ$7&gt;=$G18,EJ$7&lt;$H18),"X",IF(AND(EJ$7&gt;=$H18,EJ$7&lt;=$I18),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EK18" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EK$7=$G18,$E18=0),"u",  IF(AND(EK$7&gt;=$G18,EK$7&lt;$H18),"X",IF(AND(EK$7&gt;=$H18,EK$7&lt;=$I18),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EL18" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EL$7=$G18,$E18=0),"u",  IF(AND(EL$7&gt;=$G18,EL$7&lt;$H18),"X",IF(AND(EL$7&gt;=$H18,EL$7&lt;=$I18),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EM18" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EM$7=$G18,$E18=0),"u",  IF(AND(EM$7&gt;=$G18,EM$7&lt;$H18),"X",IF(AND(EM$7&gt;=$H18,EM$7&lt;=$I18),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EN18" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EN$7=$G18,$E18=0),"u",  IF(AND(EN$7&gt;=$G18,EN$7&lt;$H18),"X",IF(AND(EN$7&gt;=$H18,EN$7&lt;=$I18),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EO18" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EO$7=$G18,$E18=0),"u",  IF(AND(EO$7&gt;=$G18,EO$7&lt;$H18),"X",IF(AND(EO$7&gt;=$H18,EO$7&lt;=$I18),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EP18" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EP$7=$G18,$E18=0),"u",  IF(AND(EP$7&gt;=$G18,EP$7&lt;$H18),"X",IF(AND(EP$7&gt;=$H18,EP$7&lt;=$I18),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="EQ18" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(EQ$7=$G18,$E18=0),"u",  IF(AND(EQ$7&gt;=$G18,EQ$7&lt;$H18),"X",IF(AND(EQ$7&gt;=$H18,EQ$7&lt;=$I18),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="ER18" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(ER$7=$G18,$E18=0),"u",  IF(AND(ER$7&gt;=$G18,ER$7&lt;$H18),"X",IF(AND(ER$7&gt;=$H18,ER$7&lt;=$I18),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="ES18" s="52" t="str">
-        <f xml:space="preserve"> IF(AND(ES$7=$G18,$E18=0),"u",  IF(AND(ES$7&gt;=$G18,ES$7&lt;$H18),"X",IF(AND(ES$7&gt;=$H18,ES$7&lt;=$I18),"Y","")))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11366,32 +11482,32 @@
         <v>18.666666666666664</v>
       </c>
       <c r="G19" s="51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>44104.722222222219</v>
       </c>
       <c r="H19" s="108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>44106.666666666664</v>
       </c>
       <c r="I19" s="116"/>
       <c r="J19" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K19" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L19" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M19" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N19" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O19" s="52" t="str">
@@ -11567,331 +11683,331 @@
         <v/>
       </c>
       <c r="BF19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BH19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BI19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BJ19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BK19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BL19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BM19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BN19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BO19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BP19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BQ19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BR19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BS19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BT19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BU19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BV19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BW19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BX19" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="BY19" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="BZ19" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CA19" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CB19" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CC19" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CD19" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CE19" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CF19" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CG19" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CH19" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CI19" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CJ19" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CK19" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CL19" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CM19" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CN19" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CO19" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CP19" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CQ19" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CR19" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CS19" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CT19" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CU19" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CV19" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CW19" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CX19" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CY19" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CZ19" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="DA19" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="DB19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DC19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DD19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DE19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DF19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DG19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DH19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DI19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DJ19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DK19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DL19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DM19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DN19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DO19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DP19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DQ19" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DR19" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BG19" s="52" t="str">
+      <c r="DS19" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BH19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BI19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BJ19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BK19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BL19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BM19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BN19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BO19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BP19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BQ19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BR19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BS19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BT19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BU19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BV19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BW19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BX19" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="BY19" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="BZ19" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CA19" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CB19" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CC19" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CD19" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CE19" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CF19" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CG19" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CH19" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CI19" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CJ19" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CK19" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CL19" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CM19" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CN19" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CO19" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CP19" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CQ19" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CR19" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CS19" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CT19" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CU19" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CV19" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CW19" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CX19" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CY19" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CZ19" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="DA19" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="DB19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DC19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DD19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DE19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DF19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DG19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DH19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DI19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DJ19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DK19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DL19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DM19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DN19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DO19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DP19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DQ19" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DR19" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DS19" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="DT19" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DU19" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DV19" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DW19" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DX19" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DY19" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DZ19" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EA19" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EB19" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EC19" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="ED19" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EE19" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EF19" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EG19" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EH19" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EI19" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -11916,32 +12032,32 @@
         <v>18.958333333333332</v>
       </c>
       <c r="G20" s="51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>44106.666666666672</v>
       </c>
       <c r="H20" s="108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>44106.958333333336</v>
       </c>
       <c r="I20" s="116"/>
       <c r="J20" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K20" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L20" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M20" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N20" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O20" s="52" t="str">
@@ -12117,331 +12233,331 @@
         <v/>
       </c>
       <c r="BF20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BH20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BI20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BJ20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BK20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BL20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BM20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BN20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BO20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BP20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BQ20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BR20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BS20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BT20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BU20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BV20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BW20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BX20" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="BY20" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="BZ20" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CA20" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CB20" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CC20" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CD20" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CE20" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CF20" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CG20" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CH20" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CI20" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CJ20" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CK20" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CL20" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CM20" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CN20" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CO20" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CP20" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CQ20" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CR20" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CS20" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CT20" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CU20" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CV20" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CW20" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CX20" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CY20" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CZ20" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="DA20" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="DB20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DC20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DD20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DE20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DF20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DG20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DH20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DI20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DJ20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DK20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DL20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DM20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DN20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DO20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DP20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DQ20" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DR20" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BG20" s="52" t="str">
+      <c r="DS20" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BH20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BI20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BJ20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BK20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BL20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BM20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BN20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BO20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BP20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BQ20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BR20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BS20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BT20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BU20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BV20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BW20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BX20" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="BY20" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="BZ20" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CA20" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CB20" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CC20" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CD20" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CE20" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CF20" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CG20" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CH20" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CI20" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CJ20" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CK20" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CL20" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CM20" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CN20" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CO20" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CP20" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CQ20" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CR20" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CS20" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CT20" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CU20" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CV20" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CW20" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CX20" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CY20" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CZ20" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="DA20" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="DB20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DC20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DD20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DE20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DF20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DG20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DH20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DI20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DJ20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DK20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DL20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DM20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DN20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DO20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DP20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DQ20" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DR20" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DS20" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="DT20" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DU20" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DV20" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DW20" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DX20" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DY20" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DZ20" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EA20" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EB20" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EC20" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="ED20" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EE20" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EF20" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EG20" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EH20" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EI20" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -12466,32 +12582,32 @@
         <v>18.958333333333332</v>
       </c>
       <c r="G21" s="51">
-        <f t="shared" si="15"/>
-        <v>44106.958333333336</v>
-      </c>
-      <c r="H21" s="108">
         <f t="shared" si="16"/>
         <v>44106.958333333336</v>
       </c>
+      <c r="H21" s="108">
+        <f t="shared" si="17"/>
+        <v>44106.958333333336</v>
+      </c>
       <c r="I21" s="116"/>
       <c r="J21" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K21" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L21" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M21" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N21" s="52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O21" s="52" t="str">
@@ -12667,773 +12783,773 @@
         <v/>
       </c>
       <c r="BF21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BG21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BH21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BI21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BJ21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BK21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BL21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BM21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BN21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BO21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BP21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BQ21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BR21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BS21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BT21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BU21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BV21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BW21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BX21" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="BY21" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="BZ21" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CA21" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CB21" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CC21" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CD21" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CE21" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CF21" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CG21" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CH21" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CI21" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CJ21" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CK21" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CL21" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CM21" s="52" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="CN21" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CO21" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CP21" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CQ21" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CR21" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CS21" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CT21" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CU21" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CV21" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CW21" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CX21" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CY21" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="CZ21" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="DA21" s="52" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="DB21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DC21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DD21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DE21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DF21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DG21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DH21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DI21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DJ21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DK21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DL21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DM21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DN21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DO21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DP21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DQ21" s="52" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="DR21" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BG21" s="52" t="str">
+      <c r="DS21" s="52" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BH21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BI21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BJ21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BK21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BL21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BM21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BN21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BO21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BP21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BQ21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BR21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BS21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BT21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BU21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BV21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BW21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BX21" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="BY21" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="BZ21" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CA21" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CB21" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CC21" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CD21" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CE21" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CF21" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CG21" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CH21" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CI21" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CJ21" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CK21" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CL21" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CM21" s="52" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="CN21" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CO21" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CP21" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CQ21" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CR21" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CS21" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CT21" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CU21" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CV21" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CW21" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CX21" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CY21" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="CZ21" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="DA21" s="52" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="DB21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DC21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DD21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DE21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DF21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DG21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DH21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DI21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DJ21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DK21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DL21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DM21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DN21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DO21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DP21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DQ21" s="52" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="DR21" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="DS21" s="52" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="DT21" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DU21" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DV21" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DW21" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DX21" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DY21" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DZ21" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EA21" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EB21" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EC21" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="ED21" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EE21" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EF21" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EG21" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EH21" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="EI21" s="52" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:149" x14ac:dyDescent="0.45">
       <c r="AD22" s="1" t="str">
-        <f t="shared" ref="AD22:BI22" si="21">IF(AND(AC$7&gt;=$G22,AC$7&lt;=$H22),"X",IF(AND(AC$7&gt;$H22,AC$7&lt;= $I22), "Y",""))</f>
+        <f t="shared" ref="AD22:BI22" si="22">IF(AND(AC$7&gt;=$G22,AC$7&lt;=$H22),"X",IF(AND(AC$7&gt;$H22,AC$7&lt;= $I22), "Y",""))</f>
         <v/>
       </c>
       <c r="AE22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AF22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AG22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AH22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AI22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AJ22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AK22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AL22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AM22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AN22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AO22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AP22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AR22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AS22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AT22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AU22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AV22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AW22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AX22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AY22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AZ22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BA22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BB22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BC22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BD22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BE22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BF22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BG22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BH22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BI22" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BJ22" s="1" t="str">
-        <f t="shared" ref="BJ22:CO22" si="22">IF(AND(BI$7&gt;=$G22,BI$7&lt;=$H22),"X",IF(AND(BI$7&gt;$H22,BI$7&lt;= $I22), "Y",""))</f>
+        <f t="shared" ref="BJ22:CO22" si="23">IF(AND(BI$7&gt;=$G22,BI$7&lt;=$H22),"X",IF(AND(BI$7&gt;$H22,BI$7&lt;= $I22), "Y",""))</f>
         <v/>
       </c>
       <c r="BK22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BL22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BM22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BN22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BO22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BP22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BQ22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BR22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BS22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BT22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BU22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BV22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BW22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BX22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BY22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BZ22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CA22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CB22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CC22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CD22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CE22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CF22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CG22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CH22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CI22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CJ22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CK22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CL22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CM22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CN22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CO22" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CP22" s="1" t="str">
-        <f t="shared" ref="CP22:DU22" si="23">IF(AND(CO$7&gt;=$G22,CO$7&lt;=$H22),"X",IF(AND(CO$7&gt;$H22,CO$7&lt;= $I22), "Y",""))</f>
+        <f t="shared" ref="CP22:DU22" si="24">IF(AND(CO$7&gt;=$G22,CO$7&lt;=$H22),"X",IF(AND(CO$7&gt;$H22,CO$7&lt;= $I22), "Y",""))</f>
         <v/>
       </c>
       <c r="CQ22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CR22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CS22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CT22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CU22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CV22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CW22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CX22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CY22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CZ22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DA22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DB22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DC22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DD22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DE22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DF22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DG22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DH22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DI22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DJ22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DK22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DL22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DM22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DN22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DO22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DP22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DQ22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DR22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DS22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DT22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DU22" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DV22" s="1" t="str">
-        <f t="shared" ref="DV22:EI22" si="24">IF(AND(DU$7&gt;=$G22,DU$7&lt;=$H22),"X",IF(AND(DU$7&gt;$H22,DU$7&lt;= $I22), "Y",""))</f>
+        <f t="shared" ref="DV22:EI22" si="25">IF(AND(DU$7&gt;=$G22,DU$7&lt;=$H22),"X",IF(AND(DU$7&gt;$H22,DU$7&lt;= $I22), "Y",""))</f>
         <v/>
       </c>
       <c r="DW22" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="DX22" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="DY22" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="DZ22" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="EA22" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="EB22" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="EC22" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="ED22" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="EE22" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="EF22" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="EG22" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="EH22" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="EI22" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -13882,35 +13998,35 @@
     <row r="24" spans="1:149" ht="21.4" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <conditionalFormatting sqref="J25:EQ1048576 AE24:EQ24 K22:EQ23 J6:EQ6 J5:ES5 J7:ES8 J3:EQ4 J2:AE2 AI2:EQ2 EJ9:ES18 EJ19:EQ21 J9:EI21">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:EI23 EJ9:ES18 J9:EI21">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D21">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>High</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D21">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:EO6">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"m"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D21">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13972,7 +14088,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="74" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -13980,18 +14096,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
       <c r="G5" s="61" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -13999,13 +14115,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="61"/>
       <c r="F6" s="61"/>
@@ -14016,19 +14132,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="61" t="s">
-        <v>127</v>
-      </c>
       <c r="D7" s="61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="61"/>
       <c r="F7" s="61"/>
       <c r="G7" s="61"/>
       <c r="H7" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -14036,13 +14152,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="61"/>
       <c r="F8" s="61"/>
@@ -14053,13 +14169,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="61"/>
       <c r="F9" s="61"/>
@@ -14070,19 +14186,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="61"/>
       <c r="F10" s="61"/>
       <c r="G10" s="61"/>
       <c r="H10" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -14090,19 +14206,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="61"/>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
       <c r="H11" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -14110,13 +14226,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E12" s="61"/>
       <c r="F12" s="61"/>
@@ -14332,7 +14448,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14353,21 +14469,21 @@
         <v>BaThesis BTI7321 20/21, HS, Project Planning</v>
       </c>
       <c r="J1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A2" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -14378,7 +14494,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F3" s="97">
         <f>360/14/5</f>
@@ -14390,10 +14506,10 @@
       </c>
       <c r="H3" s="13">
         <f>SUM(H5:H17)</f>
-        <v>106.5</v>
+        <v>108.5</v>
       </c>
       <c r="J3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -14401,15 +14517,17 @@
         <v>21</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="76" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="77"/>
+        <v>99</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>147</v>
+      </c>
       <c r="F4" s="78" t="s">
         <v>24</v>
       </c>
@@ -14432,10 +14550,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D5" s="98">
         <f>G5/F3</f>
@@ -14446,23 +14564,27 @@
         <v>0.38888888888888884</v>
       </c>
       <c r="F5" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="14">
+        <v>35</v>
+      </c>
+      <c r="G5" s="82">
         <v>2</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="83"/>
+      <c r="H5" s="82">
+        <v>2</v>
+      </c>
+      <c r="I5" s="83" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="80">
         <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C6" s="81" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D6" s="98">
         <f>G6/F3</f>
@@ -14473,16 +14595,16 @@
         <v>2.333333333333333</v>
       </c>
       <c r="F6" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="14">
+        <v>35</v>
+      </c>
+      <c r="G6" s="82">
         <v>10</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="82">
         <v>11</v>
       </c>
       <c r="I6" s="83" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
@@ -14490,10 +14612,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D7" s="98">
         <f>G7/F3</f>
@@ -14504,16 +14626,16 @@
         <v>3.3055555555555554</v>
       </c>
       <c r="F7" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="14">
+        <v>35</v>
+      </c>
+      <c r="G7" s="82">
         <v>5</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="82">
         <v>6</v>
       </c>
       <c r="I7" s="83" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
@@ -14521,10 +14643,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D8" s="98">
         <f>G8/F3</f>
@@ -14535,16 +14657,16 @@
         <v>3.6944444444444442</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="14">
+        <v>35</v>
+      </c>
+      <c r="G8" s="82">
         <v>2</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="82">
         <v>3</v>
       </c>
       <c r="I8" s="83" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
@@ -14552,10 +14674,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D9" s="98">
         <f>G9/F3</f>
@@ -14566,16 +14688,16 @@
         <v>7.5833333333333321</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="14">
+        <v>35</v>
+      </c>
+      <c r="G9" s="82">
         <v>20</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="82">
         <v>22</v>
       </c>
       <c r="I9" s="83" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
@@ -14583,10 +14705,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D10" s="98">
         <f>G10/F3</f>
@@ -14597,16 +14719,16 @@
         <v>11.472222222222221</v>
       </c>
       <c r="F10" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="14">
+        <v>35</v>
+      </c>
+      <c r="G10" s="82">
         <v>20</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="82">
         <v>25</v>
       </c>
       <c r="I10" s="83" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -14614,10 +14736,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D11" s="98">
         <f>G11/F3</f>
@@ -14628,16 +14750,16 @@
         <v>13.416666666666666</v>
       </c>
       <c r="F11" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="14">
+        <v>35</v>
+      </c>
+      <c r="G11" s="82">
         <v>10</v>
       </c>
-      <c r="H11" s="87">
+      <c r="H11" s="119">
         <v>10</v>
       </c>
       <c r="I11" s="83" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -14645,10 +14767,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="87" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D12" s="98">
         <f>G12/F3</f>
@@ -14661,14 +14783,14 @@
       <c r="F12" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="87">
+      <c r="G12" s="119">
         <v>7</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="119">
         <v>7</v>
       </c>
       <c r="I12" s="83" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
@@ -14676,10 +14798,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="87" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D13" s="98">
         <f>G13/F3</f>
@@ -14692,14 +14814,14 @@
       <c r="F13" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="87">
+      <c r="G13" s="119">
         <v>3</v>
       </c>
-      <c r="H13" s="87">
+      <c r="H13" s="119">
         <v>1</v>
       </c>
       <c r="I13" s="83" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
@@ -14707,10 +14829,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="87" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C14" s="87" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D14" s="98">
         <f>G14/F3</f>
@@ -14723,14 +14845,14 @@
       <c r="F14" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="87">
+      <c r="G14" s="119">
         <v>7</v>
       </c>
-      <c r="H14" s="87">
+      <c r="H14" s="119">
         <v>8</v>
       </c>
       <c r="I14" s="83" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -14738,10 +14860,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="87" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C15" s="87" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D15" s="98">
         <f>G15/F3</f>
@@ -14754,14 +14876,14 @@
       <c r="F15" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="87">
+      <c r="G15" s="119">
         <v>10</v>
       </c>
-      <c r="H15" s="87">
+      <c r="H15" s="119">
         <v>12</v>
       </c>
       <c r="I15" s="83" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -14769,10 +14891,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="87" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C16" s="87" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D16" s="98">
         <f>G16/F3</f>
@@ -14785,14 +14907,14 @@
       <c r="F16" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="87">
+      <c r="G16" s="119">
         <v>1.5</v>
       </c>
-      <c r="H16" s="87">
+      <c r="H16" s="119">
         <v>1.5</v>
       </c>
       <c r="I16" s="83" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -14800,10 +14922,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D17" s="99">
         <f>G17/F3</f>
@@ -14814,12 +14936,12 @@
         <v>18.958333333333332</v>
       </c>
       <c r="F17" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="29">
+        <v>37</v>
+      </c>
+      <c r="G17" s="84">
         <v>0</v>
       </c>
-      <c r="H17" s="29"/>
+      <c r="H17" s="84"/>
       <c r="I17" s="85"/>
     </row>
   </sheetData>
@@ -14829,7 +14951,7 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="F4:F17">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14840,138 +14962,413 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8346C48C-640E-494D-85F6-A16EC8AEE9A1}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.59765625" customWidth="1"/>
-    <col min="3" max="3" width="30.59765625" customWidth="1"/>
-    <col min="4" max="4" width="13.73046875" style="40" customWidth="1"/>
-    <col min="5" max="5" width="9.06640625" style="38"/>
-    <col min="8" max="8" width="7.796875" customWidth="1"/>
-    <col min="9" max="9" width="17.796875" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="1" max="1" width="6.796875" customWidth="1"/>
+    <col min="2" max="2" width="19.3984375" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="5" width="9.73046875" style="40" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" style="38"/>
+    <col min="9" max="9" width="7.796875" customWidth="1"/>
+    <col min="10" max="10" width="8.9296875" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>Gannt!A1</f>
         <v>BaThesis BTI7321 20/21, HS, Project Planning</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.7">
+      <c r="J1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A2" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F3">
-        <f>SUM(F5:F14)</f>
+        <v>31</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="97">
+        <f>360/14/5</f>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="G3">
+        <f>SUM(G6:G18)</f>
+        <v>34.5</v>
+      </c>
+      <c r="H3" s="13">
+        <f>SUM(H6:H18)</f>
         <v>0</v>
       </c>
-      <c r="G3">
-        <f>SUM(G5:G14)</f>
+      <c r="J3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="96">
+        <f>360/14*A3</f>
+        <v>77.142857142857139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="125" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="126">
+        <v>14</v>
+      </c>
+      <c r="B5" s="128" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="120" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="122" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="128">
+        <v>1</v>
+      </c>
+      <c r="H5" s="120"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="124"/>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="127">
+        <v>15</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="98">
+        <f>G6/F3</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="E6" s="98">
+        <f>D6</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="F6" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="82">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="82"/>
+      <c r="I6" s="83"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="126">
+        <v>16</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="98">
+        <f>G7/$F3</f>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="E7" s="98">
+        <f>D7+E6</f>
+        <v>2.6249999999999996</v>
+      </c>
+      <c r="F7" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="82">
+        <v>12</v>
+      </c>
+      <c r="H7" s="82"/>
+      <c r="I7" s="83"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="127">
+        <v>17</v>
+      </c>
+      <c r="B8" s="87" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="98">
+        <f>G8/F$3</f>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="E8" s="98">
+        <f>D8+E7</f>
+        <v>3.7916666666666661</v>
+      </c>
+      <c r="F8" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="82">
+        <v>6</v>
+      </c>
+      <c r="H8" s="82"/>
+      <c r="I8" s="83"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="126">
+        <v>18</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="98">
+        <f t="shared" ref="D9:D18" si="0">G9/F$3</f>
+        <v>1.5555555555555554</v>
+      </c>
+      <c r="E9" s="98">
+        <f t="shared" ref="E9:E18" si="1">D9+E8</f>
+        <v>5.3472222222222214</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="82">
+        <v>8</v>
+      </c>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="127">
+        <v>19</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="98">
+        <f t="shared" si="0"/>
+        <v>1.3611111111111109</v>
+      </c>
+      <c r="E10" s="98">
+        <f t="shared" si="1"/>
+        <v>6.7083333333333321</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="82">
+        <v>7</v>
+      </c>
+      <c r="H10" s="82"/>
+      <c r="I10" s="83"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="126">
+        <v>20</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="98">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="30" t="s">
+      <c r="E11" s="98">
+        <f t="shared" si="1"/>
+        <v>6.7083333333333321</v>
+      </c>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="83"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="127">
         <v>21</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="45"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="98">
+        <f t="shared" si="1"/>
+        <v>6.7083333333333321</v>
+      </c>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="83"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="80"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="98">
+        <f t="shared" si="1"/>
+        <v>6.7083333333333321</v>
+      </c>
+      <c r="F13" s="82"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="83"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="80"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="98">
+        <f t="shared" si="1"/>
+        <v>6.7083333333333321</v>
+      </c>
+      <c r="F14" s="82"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="83"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="80"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="98">
+        <f t="shared" si="1"/>
+        <v>6.7083333333333321</v>
+      </c>
+      <c r="F15" s="82"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="83"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="80"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="98">
+        <f t="shared" si="1"/>
+        <v>6.7083333333333321</v>
+      </c>
+      <c r="F16" s="82"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="83"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="80"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="98">
+        <f t="shared" si="1"/>
+        <v>6.7083333333333321</v>
+      </c>
+      <c r="F17" s="82"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="83"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="80">
+        <v>13</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="98">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="98">
+        <f t="shared" si="1"/>
+        <v>6.7083333333333321</v>
+      </c>
+      <c r="F18" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="84">
+        <v>0</v>
+      </c>
+      <c r="H18" s="84"/>
+      <c r="I18" s="85"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F3:G3">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
-      <formula>80</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
-      <formula>90</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E14">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+  <conditionalFormatting sqref="F4:F18">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15007,10 +15404,10 @@
     </row>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A2" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -15023,7 +15420,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -15031,13 +15428,13 @@
         <v>21</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E4" s="39" t="s">
         <v>24</v>
@@ -15104,10 +15501,10 @@
     </row>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A2" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -15120,7 +15517,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -15128,13 +15525,13 @@
         <v>21</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="59" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E4" s="39" t="s">
         <v>24</v>
@@ -15179,7 +15576,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15204,7 +15601,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -15213,10 +15610,10 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -15255,7 +15652,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
@@ -15286,7 +15683,7 @@
         <v>M</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -15317,7 +15714,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="13" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -15357,9 +15754,9 @@
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="1:21" ht="171" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="65" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -15420,8 +15817,12 @@
       <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>158</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>

--- a/3project_management/project_management.xlsx
+++ b/3project_management/project_management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PLANA\planning-of-the-assignments-for-lecturers-plana\3project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7165AE-D811-4A93-9D1A-A96A21BDD778}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604F8397-C567-4861-AFAB-5153661C4E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1163" yWindow="1222" windowWidth="10800" windowHeight="5461" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Termins-rules" sheetId="9" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="165">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -820,7 +820,14 @@
     </r>
   </si>
   <si>
-    <t>Display module run in concrete semester</t>
+    <t>Display module run for one concrete semester</t>
+  </si>
+  <si>
+    <t>Build new entities in backend, 
+connect it to the whole programm</t>
+  </si>
+  <si>
+    <t>Testing with postman</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1438,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1669,6 +1676,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Date" xfId="2" xr:uid="{52E8FA25-AB34-439C-BC48-9650F425CC09}"/>
@@ -1676,7 +1686,7 @@
     <cellStyle name="Title" xfId="3" builtinId="15"/>
     <cellStyle name="zHiddenText" xfId="1" xr:uid="{5343EAB6-CD30-48D5-9BB1-01A341256D68}"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="19">
     <dxf>
       <font>
         <color theme="8" tint="0.79998168889431442"/>
@@ -1769,37 +1779,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
+        <color rgb="FFC65911"/>
       </font>
     </dxf>
     <dxf>
@@ -1853,11 +1833,6 @@
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC65911"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2510,7 +2485,6 @@
             <a:rPr lang="en-US" sz="1100" b="1"/>
             <a:t>code:</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr marL="171450" indent="-171450">
@@ -2519,7 +2493,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Controllers</a:t>
+            <a:t>New enities </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3371,7 +3345,7 @@
       </c>
       <c r="B5" s="66">
         <f ca="1">TODAY()</f>
-        <v>44116</v>
+        <v>44128</v>
       </c>
       <c r="C5" s="67">
         <v>0.65625</v>
@@ -13998,35 +13972,35 @@
     <row r="24" spans="1:149" ht="21.4" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <conditionalFormatting sqref="J25:EQ1048576 AE24:EQ24 K22:EQ23 J6:EQ6 J5:ES5 J7:ES8 J3:EQ4 J2:AE2 AI2:EQ2 EJ9:ES18 EJ19:EQ21 J9:EI21">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:EI23 EJ9:ES18 J9:EI21">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D21">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>High</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D21">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:EO6">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"m"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D21">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14947,11 +14921,11 @@
   </sheetData>
   <autoFilter ref="F5:F24" xr:uid="{19388B08-6607-4FB7-80A4-7440077A6089}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:J20">
-      <sortCondition sortBy="fontColor" ref="F5:F20" dxfId="22"/>
+      <sortCondition sortBy="fontColor" ref="F5:F20" dxfId="11"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="F4:F17">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14965,7 +14939,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15016,7 +14990,7 @@
       </c>
       <c r="G3">
         <f>SUM(G6:G18)</f>
-        <v>34.5</v>
+        <v>46</v>
       </c>
       <c r="H3" s="13">
         <f>SUM(H6:H18)</f>
@@ -15216,22 +15190,28 @@
       <c r="H10" s="82"/>
       <c r="I10" s="83"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="126">
         <v>20</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="C11" s="129" t="s">
+        <v>163</v>
+      </c>
       <c r="D11" s="98">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9444444444444442</v>
       </c>
       <c r="E11" s="98">
         <f t="shared" si="1"/>
-        <v>6.7083333333333321</v>
-      </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
+        <v>8.6527777777777768</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="82">
+        <v>10</v>
+      </c>
       <c r="H11" s="82"/>
       <c r="I11" s="83"/>
     </row>
@@ -15240,17 +15220,23 @@
         <v>21</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="87"/>
+      <c r="C12" s="87" t="s">
+        <v>164</v>
+      </c>
       <c r="D12" s="98">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="E12" s="98">
         <f t="shared" si="1"/>
-        <v>6.7083333333333321</v>
-      </c>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
+        <v>8.9444444444444429</v>
+      </c>
+      <c r="F12" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="82">
+        <v>1.5</v>
+      </c>
       <c r="H12" s="119"/>
       <c r="I12" s="83"/>
     </row>
@@ -15264,7 +15250,7 @@
       </c>
       <c r="E13" s="98">
         <f t="shared" si="1"/>
-        <v>6.7083333333333321</v>
+        <v>8.9444444444444429</v>
       </c>
       <c r="F13" s="82"/>
       <c r="G13" s="119"/>
@@ -15281,7 +15267,7 @@
       </c>
       <c r="E14" s="98">
         <f t="shared" si="1"/>
-        <v>6.7083333333333321</v>
+        <v>8.9444444444444429</v>
       </c>
       <c r="F14" s="82"/>
       <c r="G14" s="119"/>
@@ -15298,7 +15284,7 @@
       </c>
       <c r="E15" s="98">
         <f t="shared" si="1"/>
-        <v>6.7083333333333321</v>
+        <v>8.9444444444444429</v>
       </c>
       <c r="F15" s="82"/>
       <c r="G15" s="119"/>
@@ -15315,7 +15301,7 @@
       </c>
       <c r="E16" s="98">
         <f t="shared" si="1"/>
-        <v>6.7083333333333321</v>
+        <v>8.9444444444444429</v>
       </c>
       <c r="F16" s="82"/>
       <c r="G16" s="119"/>
@@ -15332,7 +15318,7 @@
       </c>
       <c r="E17" s="98">
         <f t="shared" si="1"/>
-        <v>6.7083333333333321</v>
+        <v>8.9444444444444429</v>
       </c>
       <c r="F17" s="82"/>
       <c r="G17" s="119"/>
@@ -15340,9 +15326,7 @@
       <c r="I17" s="83"/>
     </row>
     <row r="18" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="80">
-        <v>13</v>
-      </c>
+      <c r="A18" s="80"/>
       <c r="B18" s="29" t="s">
         <v>37</v>
       </c>
@@ -15355,7 +15339,7 @@
       </c>
       <c r="E18" s="98">
         <f t="shared" si="1"/>
-        <v>6.7083333333333321</v>
+        <v>8.9444444444444429</v>
       </c>
       <c r="F18" s="84" t="s">
         <v>37</v>
@@ -15368,7 +15352,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F4:F18">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/3project_management/project_management.xlsx
+++ b/3project_management/project_management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PLANA\planning-of-the-assignments-for-lecturers-plana\3project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FBEA2C-46EA-4590-8D8E-33E7D8B83A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E986BBC-F29A-46C8-885E-03C7483E6061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1163" yWindow="1222" windowWidth="10800" windowHeight="5461" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Termins-rules" sheetId="9" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="176">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -783,9 +783,6 @@
     <t xml:space="preserve">UML </t>
   </si>
   <si>
-    <t>UML class diagram</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">   </t>
     </r>
@@ -801,9 +798,6 @@
     </r>
   </si>
   <si>
-    <t>Display module run for one concrete semester</t>
-  </si>
-  <si>
     <t>Build new entities in backend, 
 connect it to the whole programm</t>
   </si>
@@ -811,15 +805,9 @@
     <t>Testing with postman</t>
   </si>
   <si>
-    <t>Iclude groups in the views</t>
-  </si>
-  <si>
     <t>User stories</t>
   </si>
   <si>
-    <t>Add repositories and contollers to the new entities</t>
-  </si>
-  <si>
     <t>Add background to the introduction section of the report</t>
   </si>
   <si>
@@ -830,6 +818,48 @@
   </si>
   <si>
     <t>Sprint Backlog(Sprint2)</t>
+  </si>
+  <si>
+    <t>Describe innovation in the report inroduction</t>
+  </si>
+  <si>
+    <t>Improve UI look</t>
+  </si>
+  <si>
+    <t>Display module run for one concrete semester(start)</t>
+  </si>
+  <si>
+    <t>UML class diagram(start)</t>
+  </si>
+  <si>
+    <t>Iclude groups into the views</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe domain model </t>
+  </si>
+  <si>
+    <t>&gt;&gt; sprint3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add repositories </t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>&gt;&gt;sprint3</t>
   </si>
 </sst>
 </file>
@@ -2394,7 +2424,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t> concepts</a:t>
+            <a:t> concepts end look</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
@@ -2507,6 +2537,16 @@
             <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
             <a:buChar char="Ø"/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Inroduction extendet</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Wingdings" panose="05000000000000000000" pitchFamily="2" charset="2"/>
+            <a:buChar char="Ø"/>
+          </a:pPr>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
@@ -2531,7 +2571,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7767639" cy="1076325"/>
+    <xdr:ext cx="7777163" cy="1200151"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="TextBox 3">
@@ -2545,8 +2585,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3895724"/>
-          <a:ext cx="7767639" cy="1076325"/>
+          <a:off x="0" y="4295774"/>
+          <a:ext cx="7777163" cy="1200151"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2588,8 +2628,41 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
-            <a:t>1. </a:t>
+            <a:t>1. Domain model</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>2. Final view</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> of UI concepts</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t>3. Add new entities in code</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>4.Add repositories in code</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>5. Extensiton</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> of introduction</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3313,7 +3386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13538CB-7E67-4044-B4BC-9356A4A96686}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3563,7 +3636,7 @@
       </c>
       <c r="B5" s="61">
         <f ca="1">TODAY()</f>
-        <v>44139</v>
+        <v>44144</v>
       </c>
       <c r="C5" s="62">
         <v>0.65625</v>
@@ -3987,7 +4060,7 @@
       </c>
       <c r="D12" s="131"/>
       <c r="E12" s="83">
-        <v>44141</v>
+        <v>44143</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -4173,7 +4246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ES24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -14258,7 +14331,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -14402,7 +14475,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>107</v>
@@ -14639,7 +14712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D544E4EA-43A9-4C2D-95F8-E8BC054D1071}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -15157,7 +15230,7 @@
         <v>125</v>
       </c>
       <c r="C19" s="124" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -15180,8 +15253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8346C48C-640E-494D-85F6-A16EC8AEE9A1}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15207,7 +15280,7 @@
     </row>
     <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A2" s="30" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>97</v>
@@ -15232,11 +15305,11 @@
       </c>
       <c r="G3">
         <f>SUM(G6:G19)</f>
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="H3" s="13">
         <f>SUM(H6:H19)</f>
-        <v>33.5</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s">
         <v>134</v>
@@ -15283,7 +15356,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="114"/>
       <c r="E5" s="114"/>
@@ -15394,23 +15467,25 @@
         <v>149</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D9" s="91">
         <f t="shared" ref="D9:D19" si="0">G9/F$3</f>
-        <v>1.5555555555555554</v>
+        <v>2.9166666666666665</v>
       </c>
       <c r="E9" s="91">
         <f t="shared" ref="E9:E19" si="1">D9+E8</f>
-        <v>5.3472222222222214</v>
+        <v>6.7083333333333321</v>
       </c>
       <c r="F9" s="77" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="77">
-        <v>8</v>
-      </c>
-      <c r="H9" s="77"/>
+        <v>15</v>
+      </c>
+      <c r="H9" s="77">
+        <v>17</v>
+      </c>
       <c r="I9" s="78"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
@@ -15421,7 +15496,7 @@
         <v>153</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D10" s="91">
         <f t="shared" si="0"/>
@@ -15429,7 +15504,7 @@
       </c>
       <c r="E10" s="91">
         <f t="shared" si="1"/>
-        <v>6.7083333333333321</v>
+        <v>8.0694444444444429</v>
       </c>
       <c r="F10" s="77" t="s">
         <v>28</v>
@@ -15437,16 +15512,20 @@
       <c r="G10" s="77">
         <v>7</v>
       </c>
-      <c r="H10" s="77"/>
+      <c r="H10" s="77" t="s">
+        <v>175</v>
+      </c>
       <c r="I10" s="78"/>
     </row>
     <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="119">
         <v>21</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="82" t="s">
+        <v>174</v>
+      </c>
       <c r="C11" s="122" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D11" s="91">
         <f t="shared" si="0"/>
@@ -15454,7 +15533,7 @@
       </c>
       <c r="E11" s="91">
         <f t="shared" si="1"/>
-        <v>8.6527777777777768</v>
+        <v>10.013888888888888</v>
       </c>
       <c r="F11" s="77" t="s">
         <v>34</v>
@@ -15467,35 +15546,39 @@
       </c>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="119">
         <v>22</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C12" s="122" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D12" s="91">
         <f t="shared" si="0"/>
-        <v>1.9444444444444442</v>
+        <v>2.9166666666666665</v>
       </c>
       <c r="E12" s="91"/>
       <c r="F12" s="77"/>
       <c r="G12" s="77">
-        <v>10</v>
-      </c>
-      <c r="H12" s="77"/>
+        <v>15</v>
+      </c>
+      <c r="H12" s="77">
+        <v>15</v>
+      </c>
       <c r="I12" s="78"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="120">
         <v>23</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="82" t="s">
+        <v>167</v>
+      </c>
       <c r="C13" s="82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D13" s="91">
         <f t="shared" si="0"/>
@@ -15503,7 +15586,7 @@
       </c>
       <c r="E13" s="91">
         <f>D13+E11</f>
-        <v>8.9444444444444429</v>
+        <v>10.305555555555554</v>
       </c>
       <c r="F13" s="77" t="s">
         <v>34</v>
@@ -15511,16 +15594,20 @@
       <c r="G13" s="77">
         <v>1.5</v>
       </c>
-      <c r="H13" s="112"/>
+      <c r="H13" s="112">
+        <v>2</v>
+      </c>
       <c r="I13" s="78"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="120">
         <v>24</v>
       </c>
-      <c r="B14" s="82"/>
+      <c r="B14" s="82" t="s">
+        <v>168</v>
+      </c>
       <c r="C14" s="82" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D14" s="91">
         <f t="shared" si="0"/>
@@ -15528,64 +15615,96 @@
       </c>
       <c r="E14" s="91">
         <f t="shared" si="1"/>
-        <v>10.888888888888888</v>
+        <v>12.249999999999998</v>
       </c>
       <c r="F14" s="77"/>
       <c r="G14" s="112">
         <v>10</v>
       </c>
-      <c r="H14" s="112"/>
+      <c r="H14" s="112" t="s">
+        <v>172</v>
+      </c>
       <c r="I14" s="78"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="75"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
+      <c r="A15" s="75">
+        <v>25</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>171</v>
+      </c>
       <c r="D15" s="91">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="E15" s="91">
         <f t="shared" si="1"/>
-        <v>10.888888888888888</v>
+        <v>12.833333333333332</v>
       </c>
       <c r="F15" s="77"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
+      <c r="G15" s="112">
+        <v>3</v>
+      </c>
+      <c r="H15" s="112">
+        <v>3</v>
+      </c>
       <c r="I15" s="78"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="75"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
+      <c r="A16" s="75">
+        <v>26</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>162</v>
+      </c>
       <c r="D16" s="91">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.38888888888888884</v>
       </c>
       <c r="E16" s="91">
         <f t="shared" si="1"/>
-        <v>10.888888888888888</v>
+        <v>13.222222222222221</v>
       </c>
       <c r="F16" s="77"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
+      <c r="G16" s="112">
+        <v>2</v>
+      </c>
+      <c r="H16" s="112">
+        <v>2.5</v>
+      </c>
       <c r="I16" s="78"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="75"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
+      <c r="A17" s="75">
+        <v>27</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>163</v>
+      </c>
       <c r="D17" s="91">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="E17" s="91">
         <f t="shared" si="1"/>
-        <v>10.888888888888888</v>
+        <v>14.388888888888888</v>
       </c>
       <c r="F17" s="77"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
+      <c r="G17" s="112">
+        <v>6</v>
+      </c>
+      <c r="H17" s="112">
+        <v>6</v>
+      </c>
       <c r="I17" s="78"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
@@ -15598,7 +15717,7 @@
       </c>
       <c r="E18" s="91">
         <f t="shared" si="1"/>
-        <v>10.888888888888888</v>
+        <v>14.388888888888888</v>
       </c>
       <c r="F18" s="77"/>
       <c r="G18" s="112"/>
@@ -15617,10 +15736,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="91">
-        <f t="shared" si="1"/>
-        <v>10.888888888888888</v>
-      </c>
+      <c r="E19" s="91"/>
       <c r="F19" s="79" t="s">
         <v>36</v>
       </c>
@@ -15749,7 +15865,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="114"/>
       <c r="E5" s="114"/>
@@ -15894,7 +16010,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="119"/>
       <c r="B12" s="82" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C12" s="122"/>
       <c r="D12" s="91">
@@ -16155,7 +16271,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="114"/>
       <c r="E5" s="114"/>
@@ -16300,7 +16416,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="119"/>
       <c r="B12" s="82" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C12" s="122"/>
       <c r="D12" s="91">

--- a/3project_management/project_management.xlsx
+++ b/3project_management/project_management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PLANA\planning-of-the-assignments-for-lecturers-plana\3project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1500F4-6DDF-482F-8FF7-3F77A137C815}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E441D7-134B-46B0-9A8C-4E28C9346BEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Termins-rules" sheetId="9" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="185">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -891,8 +891,8 @@
     <numFmt numFmtId="164" formatCode="dd\.mm\.yy"/>
     <numFmt numFmtId="165" formatCode="dd"/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="168" formatCode="ddd"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="ddd"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1711,7 +1711,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1746,14 +1746,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1773,7 +1773,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1791,8 +1791,8 @@
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1804,7 +1804,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1878,7 +1878,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1886,8 +1886,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1952,6 +1952,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC65911"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="7"/>
       </font>
     </dxf>
@@ -2001,11 +2006,6 @@
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC65911"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2125,6 +2125,12 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>4. Poster</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>5. Video</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -3490,10 +3496,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3759,7 +3761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13538CB-7E67-4044-B4BC-9356A4A96686}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -4110,7 +4112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB44EE33-8DB4-4D77-8C2D-5A0F5796B97D}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -14478,35 +14480,35 @@
     <row r="24" spans="1:149" ht="21.4" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <conditionalFormatting sqref="J25:EQ1048576 AE24:EQ24 K22:EQ23 J6:EQ6 J5:ES5 J7:ES8 J3:EQ4 J2:AE2 AI2:EQ2 EJ9:ES18 EJ19:EQ21 J9:EI21">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:EI23 EJ9:ES18 J9:EI21">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D21">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>High</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D21">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:EO6">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"m"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D21">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14527,7 +14529,7 @@
   <cols>
     <col min="1" max="1" width="2.53125" customWidth="1"/>
     <col min="2" max="2" width="21.59765625" customWidth="1"/>
-    <col min="3" max="3" width="78.265625" customWidth="1"/>
+    <col min="3" max="3" width="70.86328125" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" customWidth="1"/>
     <col min="6" max="6" width="6.86328125" customWidth="1"/>
@@ -15459,7 +15461,7 @@
   </sheetData>
   <autoFilter ref="F5:F25" xr:uid="{19388B08-6607-4FB7-80A4-7440077A6089}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:J21">
-      <sortCondition sortBy="fontColor" ref="F5:F21" dxfId="13"/>
+      <sortCondition sortBy="fontColor" ref="F5:F21" dxfId="6"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="F4:F18">
@@ -16010,8 +16012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6800609C-959E-46C1-840F-B86053269743}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16156,7 +16158,9 @@
         <v>1.5</v>
       </c>
       <c r="H6" s="69"/>
-      <c r="I6" s="70"/>
+      <c r="I6" s="70" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="111">
@@ -16210,7 +16214,9 @@
         <v>12</v>
       </c>
       <c r="H8" s="69"/>
-      <c r="I8" s="70"/>
+      <c r="I8" s="70" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="111">
@@ -16227,7 +16233,7 @@
         <v>0.9722222222222221</v>
       </c>
       <c r="E9" s="83">
-        <f t="shared" ref="E9:E19" si="1">D9+E8</f>
+        <f t="shared" ref="E9:E18" si="1">D9+E8</f>
         <v>5.1527777777777777</v>
       </c>
       <c r="F9" s="69" t="s">

--- a/3project_management/project_management.xlsx
+++ b/3project_management/project_management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PLANA\planning-of-the-assignments-for-lecturers-plana\3project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E441D7-134B-46B0-9A8C-4E28C9346BEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2867CAB-6E39-402A-B09B-AF41B7FC3700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Termins-rules" sheetId="9" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="185">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -15478,8 +15478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8346C48C-640E-494D-85F6-A16EC8AEE9A1}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16012,8 +16012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6800609C-959E-46C1-840F-B86053269743}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16243,7 +16243,9 @@
         <v>5</v>
       </c>
       <c r="H9" s="69"/>
-      <c r="I9" s="70"/>
+      <c r="I9" s="70" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="112">
@@ -16375,7 +16377,9 @@
         <v>8</v>
       </c>
       <c r="H14" s="104"/>
-      <c r="I14" s="70"/>
+      <c r="I14" s="70" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="111">
@@ -16899,7 +16903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91297CB-FE51-46A7-A70E-391CFFF80B75}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/3project_management/project_management.xlsx
+++ b/3project_management/project_management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PLANA\planning-of-the-assignments-for-lecturers-plana\3project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2867CAB-6E39-402A-B09B-AF41B7FC3700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7793C86-5A71-492E-BA4E-9E22A89FB680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Termins-rules" sheetId="9" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="185">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -4112,7 +4112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB44EE33-8DB4-4D77-8C2D-5A0F5796B97D}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -16012,8 +16012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6800609C-959E-46C1-840F-B86053269743}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16072,7 +16072,7 @@
       </c>
       <c r="H3" s="13">
         <f>SUM(H6:H19)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J3" t="s">
         <v>117</v>
@@ -16129,8 +16129,12 @@
       <c r="G5" s="113">
         <v>1</v>
       </c>
-      <c r="H5" s="105"/>
-      <c r="I5" s="108"/>
+      <c r="H5" s="105">
+        <v>1</v>
+      </c>
+      <c r="I5" s="108" t="s">
+        <v>107</v>
+      </c>
       <c r="J5" s="109"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
@@ -16157,7 +16161,9 @@
       <c r="G6" s="69">
         <v>1.5</v>
       </c>
-      <c r="H6" s="69"/>
+      <c r="H6" s="69">
+        <v>1.5</v>
+      </c>
       <c r="I6" s="70" t="s">
         <v>107</v>
       </c>
@@ -16187,7 +16193,9 @@
         <v>8</v>
       </c>
       <c r="H7" s="69"/>
-      <c r="I7" s="70"/>
+      <c r="I7" s="70" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="112">
@@ -16903,7 +16911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91297CB-FE51-46A7-A70E-391CFFF80B75}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/3project_management/project_management.xlsx
+++ b/3project_management/project_management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PLANA\planning-of-the-assignments-for-lecturers-plana\3project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7793C86-5A71-492E-BA4E-9E22A89FB680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AA3953-BE55-4F9D-A2F1-CFB73C49E29C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Termins-rules" sheetId="9" r:id="rId1"/>
@@ -1604,7 +1604,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1906,6 +1906,10 @@
     </xf>
     <xf numFmtId="16" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3420,6 +3424,230 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57152</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4567236" cy="1895475"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E5710B-8B8F-492E-9579-677F0805D27E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4505327" y="4443413"/>
+          <a:ext cx="4567236" cy="1895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>brake</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="1" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> plan into days plan</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>report</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>describe layers and architecture , add</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> layer diagram, finish sith ui requirements and UI in general</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" baseline="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>code</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>23-Nov</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt; finish with all repo and make services </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>24,25,26,27-Nov</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>add backend logic into services</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>28,29-Nov</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>write new controllers</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3494,6 +3722,10 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4113,7 +4345,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4355,7 +4587,7 @@
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="73">
-        <v>44185</v>
+        <v>44194</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -16010,10 +16242,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6800609C-959E-46C1-840F-B86053269743}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16072,7 +16304,7 @@
       </c>
       <c r="H3" s="13">
         <f>SUM(H6:H19)</f>
-        <v>1.5</v>
+        <v>10.5</v>
       </c>
       <c r="J3" t="s">
         <v>117</v>
@@ -16192,7 +16424,9 @@
       <c r="G7" s="69">
         <v>8</v>
       </c>
-      <c r="H7" s="69"/>
+      <c r="H7" s="69">
+        <v>9</v>
+      </c>
       <c r="I7" s="70" t="s">
         <v>98</v>
       </c>
@@ -16484,6 +16718,13 @@
       </c>
       <c r="H19" s="71"/>
       <c r="I19" s="72"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B22" s="15"/>
+      <c r="D22" s="161"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B23" s="160"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F4:F9 F11:F19">

--- a/3project_management/project_management.xlsx
+++ b/3project_management/project_management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PLANA\planning-of-the-assignments-for-lecturers-plana\3project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AA3953-BE55-4F9D-A2F1-CFB73C49E29C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF473203-0597-4E5A-8926-41592200A382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="190">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -881,6 +881,21 @@
       </rPr>
       <t>zwischen 25.1. und</t>
     </r>
+  </si>
+  <si>
+    <t>till 7Jan2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">book </t>
+  </si>
+  <si>
+    <t>book ---&gt; Mr.Pfahrer</t>
+  </si>
+  <si>
+    <t>book----------&gt; Mr. Pfahrer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> delivery of sprint3</t>
   </si>
 </sst>
 </file>
@@ -3724,10 +3739,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3993,8 +4004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13538CB-7E67-4044-B4BC-9356A4A96686}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4323,10 +4334,16 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
       <c r="B20" s="150"/>
-      <c r="C20" s="131"/>
+      <c r="C20" s="131" t="s">
+        <v>185</v>
+      </c>
       <c r="D20" s="136"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="156"/>
+      <c r="E20" s="142" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="156" t="s">
+        <v>187</v>
+      </c>
       <c r="G20" s="126"/>
       <c r="H20" s="126"/>
       <c r="I20" s="126"/>
@@ -4345,7 +4362,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4560,7 +4577,7 @@
       <c r="D16" s="34"/>
       <c r="E16" s="59"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="21">
         <v>13</v>
       </c>
@@ -4575,7 +4592,7 @@
       </c>
       <c r="E17" s="59"/>
     </row>
-    <row r="18" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="23">
         <v>14</v>
       </c>
@@ -4590,7 +4607,7 @@
         <v>44194</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="25" t="s">
         <v>18</v>
       </c>
@@ -4602,7 +4619,7 @@
       </c>
       <c r="D19" s="28"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="21" t="s">
         <v>18</v>
       </c>
@@ -4614,7 +4631,7 @@
       </c>
       <c r="D20" s="157"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="21" t="s">
         <v>80</v>
       </c>
@@ -4625,8 +4642,14 @@
         <v>44204</v>
       </c>
       <c r="D21" s="157"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E21" s="160">
+        <v>43837</v>
+      </c>
+      <c r="F21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="21">
         <v>16</v>
       </c>
@@ -4643,7 +4666,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
       <c r="B23" s="16">
         <v>44214</v>
@@ -4653,7 +4676,7 @@
       </c>
       <c r="D23" s="157"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="B24" s="16">
         <v>44221</v>
@@ -4663,7 +4686,7 @@
       </c>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
       <c r="B25" s="16">
         <v>44228</v>
@@ -4673,7 +4696,7 @@
       </c>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="29"/>
       <c r="B26" s="24">
         <v>44235</v>
@@ -16244,8 +16267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6800609C-959E-46C1-840F-B86053269743}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16703,7 +16726,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="D19" s="83">
         <f t="shared" si="0"/>

--- a/3project_management/project_management.xlsx
+++ b/3project_management/project_management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PLANA\planning-of-the-assignments-for-lecturers-plana\3project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF473203-0597-4E5A-8926-41592200A382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88966EE8-D4B9-4398-B81F-49D48AE0A245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3655,6 +3655,20 @@
             <a:rPr lang="en-US"/>
             <a:t> </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>28,29 - implement</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> UIs</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
           </a:endParaRPr>
@@ -16267,7 +16281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6800609C-959E-46C1-840F-B86053269743}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/3project_management/project_management.xlsx
+++ b/3project_management/project_management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PLANA\planning-of-the-assignments-for-lecturers-plana\3project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55DF557-8CD5-4F58-AA56-04FC1F0A5D8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FD4C98-4D84-4496-8938-AE4B43B65669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1560" windowWidth="10800" windowHeight="5460" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Termins-rules" sheetId="9" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="207">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -905,6 +905,48 @@
   </si>
   <si>
     <t xml:space="preserve">Make architecture clear. </t>
+  </si>
+  <si>
+    <t>Sprint Backlog(Sprint4)</t>
+  </si>
+  <si>
+    <t>Break down user stories for the sprint4</t>
+  </si>
+  <si>
+    <t>add all lecturer and study director views</t>
+  </si>
+  <si>
+    <t>Connect backend with new frontend</t>
+  </si>
+  <si>
+    <t>Add authorization to the frontend</t>
+  </si>
+  <si>
+    <t>Add login page</t>
+  </si>
+  <si>
+    <t>Add methods for the work hours calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book </t>
+  </si>
+  <si>
+    <t>Create book page</t>
+  </si>
+  <si>
+    <t>Add test section to the report</t>
+  </si>
+  <si>
+    <t>Expand the project management section in the report</t>
+  </si>
+  <si>
+    <t>Reprort</t>
+  </si>
+  <si>
+    <t>Add modules view for study director</t>
+  </si>
+  <si>
+    <t>Functionality for new classes</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1181,6 +1223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1628,7 +1676,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1926,6 +1974,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Date" xfId="2" xr:uid="{52E8FA25-AB34-439C-BC48-9650F425CC09}"/>
@@ -1967,11 +2017,6 @@
     <dxf>
       <font>
         <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC65911"/>
       </font>
     </dxf>
     <dxf>
@@ -2026,10 +2071,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC65911"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
       <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
@@ -2051,13 +2102,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>61913</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>233363</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2072,8 +2123,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3948113" y="4305300"/>
-          <a:ext cx="6000750" cy="1300162"/>
+          <a:off x="3948113" y="4305299"/>
+          <a:ext cx="6000750" cy="1457325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2150,6 +2201,16 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>5. Video</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>* have to be prepared for the 1st</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Presentation -"Sale Product" Presentation</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -2295,8 +2356,8 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>deliverable sprint 1</a:t>
+            <a:rPr lang="en-US" sz="1100" u="sng"/>
+            <a:t>deliverable sprint 1:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2403,8 +2464,8 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Components of Deliverable 1</a:t>
+            <a:rPr lang="en-US" sz="1100" u="sng"/>
+            <a:t>Components of Deliverable 1:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2705,8 +2766,8 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>deliverable sprint 2</a:t>
+            <a:rPr lang="en-US" sz="1100" u="sng"/>
+            <a:t>deliverable sprint 2:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2803,8 +2864,8 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Components of Deliverable 2</a:t>
+            <a:rPr lang="en-US" sz="1100" u="sng"/>
+            <a:t>Components of Deliverable 2:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3152,7 +3213,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1100" u="sng">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3161,9 +3222,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>deliverable sprint 3</a:t>
+            <a:t>deliverable sprint 3:</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US">
+          <a:endParaRPr lang="en-US" u="sng">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -3341,7 +3402,7 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1100" u="sng">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3350,9 +3411,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Components of Deliverable 3</a:t>
+            <a:t>Components of Deliverable 3:</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US">
+          <a:endParaRPr lang="en-US" u="sng">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -3820,8 +3881,330 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> 4</a:t>
+            <a:t> 4  </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Goals:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" u="sng">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Organize Product Backlog(PB) :</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> -  PB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>item prioritization</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Organize sprint</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   - fix the list of PB for this sprint</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   - split big PB in smaller items</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Components of Deliverable 4:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" u="sng">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Enter content for the PB at the beginning of the sprint</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Enter priority to the tasks </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>code:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Controllers , all Views, Connection Backend-Frontend, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>main functionality of the apllication has to have status: "done"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>report:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> -&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> UML class diagram, test section, management section</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -4096,7 +4479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13538CB-7E67-4044-B4BC-9356A4A96686}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -4453,8 +4836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB44EE33-8DB4-4D77-8C2D-5A0F5796B97D}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4762,7 +5145,7 @@
         <v>44218</v>
       </c>
       <c r="D23" s="148"/>
-      <c r="E23" s="67">
+      <c r="E23" s="156">
         <v>43851</v>
       </c>
     </row>
@@ -4778,7 +5161,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
-      <c r="B25" s="16">
+      <c r="B25" s="155">
         <v>44228</v>
       </c>
       <c r="C25" s="16">
@@ -4807,7 +5190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ES24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -14825,35 +15208,35 @@
     <row r="24" spans="1:149" ht="21.4" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <conditionalFormatting sqref="J25:EQ1048576 AE24:EQ24 K22:EQ23 J6:EQ6 J5:ES5 J7:ES8 J3:EQ4 J2:AE2 AI2:EQ2 EJ9:ES18 EJ19:EQ21 J9:EI21">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:EI23 EJ9:ES18 J9:EI21">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D21">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>High</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D21">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:EO6">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"m"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D21">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15282,7 +15665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D544E4EA-43A9-4C2D-95F8-E8BC054D1071}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -15806,7 +16189,7 @@
   </sheetData>
   <autoFilter ref="F5:F25" xr:uid="{19388B08-6607-4FB7-80A4-7440077A6089}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:J21">
-      <sortCondition sortBy="fontColor" ref="F5:F21" dxfId="6"/>
+      <sortCondition sortBy="fontColor" ref="F5:F21" dxfId="13"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="F4:F18">
@@ -15824,7 +16207,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16358,7 +16741,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16484,7 +16867,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="106">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>126</v>
@@ -16515,7 +16898,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="105">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>128</v>
@@ -16546,7 +16929,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="106">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B8" s="68" t="s">
         <v>164</v>
@@ -16577,7 +16960,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="105">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B9" s="68" t="s">
         <v>166</v>
@@ -16670,7 +17053,7 @@
     </row>
     <row r="12" spans="1:10" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="105">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B12" s="68" t="s">
         <v>169</v>
@@ -16698,7 +17081,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="105">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B13" s="68" t="s">
         <v>166</v>
@@ -16723,11 +17106,13 @@
       <c r="H13" s="98">
         <v>8</v>
       </c>
-      <c r="I13" s="64"/>
+      <c r="I13" s="64" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="105">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B14" s="68" t="s">
         <v>173</v>
@@ -16789,7 +17174,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="105">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B16" s="68" t="s">
         <v>191</v>
@@ -16822,8 +17207,12 @@
       <c r="A17" s="105">
         <v>39</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
+      <c r="B17" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>205</v>
+      </c>
       <c r="D17" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16838,9 +17227,15 @@
       <c r="I17" s="64"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="61"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
+      <c r="A18" s="61">
+        <v>43</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>206</v>
+      </c>
       <c r="D18" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16903,8 +17298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687EE61-BC21-474A-A1F5-FD35F1C9EE1C}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16931,7 +17326,7 @@
     </row>
     <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A2" s="25" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="29" t="s">
@@ -16958,7 +17353,7 @@
       </c>
       <c r="G3">
         <f>SUM(G6:G19)</f>
-        <v>1.5</v>
+        <v>129.5</v>
       </c>
       <c r="H3" s="13">
         <f>SUM(H6:H19)</f>
@@ -17002,7 +17397,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="105"/>
+      <c r="A5" s="105">
+        <v>55</v>
+      </c>
       <c r="B5" s="107" t="s">
         <v>20</v>
       </c>
@@ -17022,12 +17419,14 @@
       <c r="J5" s="103"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="106"/>
+      <c r="A6" s="106">
+        <v>54</v>
+      </c>
       <c r="B6" s="62" t="s">
         <v>126</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="D6" s="77">
         <f>G6/F3</f>
@@ -17046,106 +17445,138 @@
       <c r="H6" s="63"/>
       <c r="I6" s="64"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="105"/>
+    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="105">
+        <v>45</v>
+      </c>
       <c r="B7" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="62"/>
+        <v>132</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>195</v>
+      </c>
       <c r="D7" s="77">
         <f>G7/$F3</f>
-        <v>0</v>
+        <v>7.7777777777777768</v>
       </c>
       <c r="E7" s="77">
         <f>D7+E6</f>
-        <v>0.29166666666666663</v>
+        <v>8.0694444444444429</v>
       </c>
       <c r="F7" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="63"/>
+      <c r="G7" s="63">
+        <v>40</v>
+      </c>
       <c r="H7" s="63"/>
       <c r="I7" s="64"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="106"/>
+      <c r="A8" s="106">
+        <v>46</v>
+      </c>
       <c r="B8" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="68"/>
+        <v>115</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>196</v>
+      </c>
       <c r="D8" s="77">
         <f>G8/F$3</f>
-        <v>0</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="E8" s="77">
         <f>D8+E7</f>
-        <v>0.29166666666666663</v>
+        <v>13.902777777777775</v>
       </c>
       <c r="F8" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="63"/>
+      <c r="G8" s="63">
+        <v>30</v>
+      </c>
       <c r="H8" s="63"/>
       <c r="I8" s="64"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="105"/>
+      <c r="A9" s="105">
+        <v>47</v>
+      </c>
       <c r="B9" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="68" t="s">
+        <v>197</v>
+      </c>
       <c r="D9" s="77">
         <f t="shared" ref="D9:D19" si="0">G9/F$3</f>
-        <v>0</v>
+        <v>2.9166666666666665</v>
       </c>
       <c r="E9" s="77">
         <f t="shared" ref="E9:E19" si="1">D9+E8</f>
-        <v>0.29166666666666663</v>
+        <v>16.819444444444443</v>
       </c>
       <c r="F9" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="63"/>
+      <c r="G9" s="63">
+        <v>15</v>
+      </c>
       <c r="H9" s="63"/>
       <c r="I9" s="64"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="106"/>
+      <c r="A10" s="106">
+        <v>48</v>
+      </c>
       <c r="B10" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="68"/>
+        <v>132</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>198</v>
+      </c>
       <c r="D10" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5277777777777777</v>
       </c>
       <c r="E10" s="77">
         <f t="shared" si="1"/>
-        <v>0.29166666666666663</v>
+        <v>19.347222222222221</v>
       </c>
       <c r="F10" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="63"/>
+      <c r="G10" s="63">
+        <v>13</v>
+      </c>
       <c r="H10" s="63"/>
       <c r="I10" s="64"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="105"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="108"/>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="105">
+        <v>49</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="108" t="s">
+        <v>199</v>
+      </c>
       <c r="D11" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5555555555555554</v>
       </c>
       <c r="E11" s="77">
         <f t="shared" si="1"/>
-        <v>0.29166666666666663</v>
+        <v>20.902777777777779</v>
       </c>
       <c r="F11" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="63"/>
+      <c r="G11" s="63">
+        <v>8</v>
+      </c>
       <c r="H11" s="63"/>
       <c r="I11" s="64"/>
     </row>
@@ -17166,78 +17597,118 @@
       <c r="I12" s="64"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="106"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="68"/>
+      <c r="A13" s="106">
+        <v>50</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>201</v>
+      </c>
       <c r="D13" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.9722222222222221</v>
       </c>
       <c r="E13" s="77">
         <f>D13+E11</f>
-        <v>0.29166666666666663</v>
+        <v>21.875</v>
       </c>
       <c r="F13" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="63"/>
+      <c r="G13" s="63">
+        <v>5</v>
+      </c>
       <c r="H13" s="98"/>
       <c r="I13" s="64"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="106"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
+      <c r="A14" s="106">
+        <v>51</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>202</v>
+      </c>
       <c r="D14" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.9722222222222221</v>
       </c>
       <c r="E14" s="77">
         <f t="shared" si="1"/>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="98"/>
+        <v>22.847222222222221</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="98">
+        <v>5</v>
+      </c>
       <c r="H14" s="98"/>
       <c r="I14" s="64"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="61"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
+      <c r="A15" s="61">
+        <v>52</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>203</v>
+      </c>
       <c r="D15" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.9722222222222221</v>
       </c>
       <c r="E15" s="77">
         <f t="shared" si="1"/>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="98"/>
+        <v>23.819444444444443</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="98">
+        <v>5</v>
+      </c>
       <c r="H15" s="98"/>
       <c r="I15" s="64"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="61"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
+      <c r="A16" s="61">
+        <v>53</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>168</v>
+      </c>
       <c r="D16" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3611111111111109</v>
       </c>
       <c r="E16" s="77">
         <f t="shared" si="1"/>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="98"/>
+        <v>25.180555555555554</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="98">
+        <v>7</v>
+      </c>
       <c r="H16" s="98"/>
       <c r="I16" s="64"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="61"/>
-      <c r="B17" s="68"/>
+      <c r="B17" s="68" t="s">
+        <v>204</v>
+      </c>
       <c r="C17" s="68"/>
       <c r="D17" s="77">
         <f t="shared" si="0"/>
@@ -17245,7 +17716,7 @@
       </c>
       <c r="E17" s="77">
         <f t="shared" si="1"/>
-        <v>0.29166666666666663</v>
+        <v>25.180555555555554</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="98"/>
@@ -17262,7 +17733,7 @@
       </c>
       <c r="E18" s="77">
         <f t="shared" si="1"/>
-        <v>0.29166666666666663</v>
+        <v>25.180555555555554</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="98"/>
@@ -17283,7 +17754,7 @@
       </c>
       <c r="E19" s="77">
         <f t="shared" si="1"/>
-        <v>0.29166666666666663</v>
+        <v>25.180555555555554</v>
       </c>
       <c r="F19" s="65" t="s">
         <v>36</v>

--- a/3project_management/project_management.xlsx
+++ b/3project_management/project_management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PLANA\planning-of-the-assignments-for-lecturers-plana\3project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FD4C98-4D84-4496-8938-AE4B43B65669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01A693D-A2EA-4F03-9DD5-CB8ECBD0B24F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1560" windowWidth="10800" windowHeight="5460" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Termins-rules" sheetId="9" r:id="rId1"/>
@@ -2021,6 +2021,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC65911"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="7"/>
       </font>
     </dxf>
@@ -2070,11 +2075,6 @@
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC65911"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2182,7 +2182,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>2. Final presentation</a:t>
+            <a:t>2. Final presentation till 1-Feb</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4836,8 +4836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB44EE33-8DB4-4D77-8C2D-5A0F5796B97D}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15208,35 +15208,35 @@
     <row r="24" spans="1:149" ht="21.4" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <conditionalFormatting sqref="J25:EQ1048576 AE24:EQ24 K22:EQ23 J6:EQ6 J5:ES5 J7:ES8 J3:EQ4 J2:AE2 AI2:EQ2 EJ9:ES18 EJ19:EQ21 J9:EI21">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:EI23 EJ9:ES18 J9:EI21">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D21">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>High</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D21">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:EO6">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"m"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D21">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16189,7 +16189,7 @@
   </sheetData>
   <autoFilter ref="F5:F25" xr:uid="{19388B08-6607-4FB7-80A4-7440077A6089}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:J21">
-      <sortCondition sortBy="fontColor" ref="F5:F21" dxfId="13"/>
+      <sortCondition sortBy="fontColor" ref="F5:F21" dxfId="6"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="F4:F18">
@@ -16740,7 +16740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6800609C-959E-46C1-840F-B86053269743}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -17298,7 +17298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687EE61-BC21-474A-A1F5-FD35F1C9EE1C}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/3project_management/project_management.xlsx
+++ b/3project_management/project_management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PLANA\planning-of-the-assignments-for-lecturers-plana\3project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01A693D-A2EA-4F03-9DD5-CB8ECBD0B24F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AF16C7-E295-4C49-8852-9DFE9601D6FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Termins-rules" sheetId="9" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="207">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -4836,7 +4836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB44EE33-8DB4-4D77-8C2D-5A0F5796B97D}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -17298,8 +17298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687EE61-BC21-474A-A1F5-FD35F1C9EE1C}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17357,7 +17357,7 @@
       </c>
       <c r="H3" s="13">
         <f>SUM(H6:H19)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="J3" t="s">
         <v>117</v>
@@ -17442,8 +17442,12 @@
       <c r="G6" s="63">
         <v>1.5</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
+      <c r="H6" s="63">
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="105">
@@ -17526,7 +17530,7 @@
       <c r="H9" s="63"/>
       <c r="I9" s="64"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="106">
         <v>48</v>
       </c>

--- a/3project_management/project_management.xlsx
+++ b/3project_management/project_management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PLANA\planning-of-the-assignments-for-lecturers-plana\3project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A72C9F-3A1D-45A6-9688-6030F816D5C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120BC33A-8479-4F6C-8102-1C4ECA7181A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Termins-rules" sheetId="9" r:id="rId1"/>
@@ -790,9 +790,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="167" formatCode="ddd"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="165" formatCode="ddd"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1246,8 +1246,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1259,7 +1259,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFill="1"/>
@@ -1279,8 +1279,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,10 +1302,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1314,14 +1314,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1335,7 +1335,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1346,7 +1346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1355,19 +1355,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1404,16 +1404,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1441,22 +1441,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1875,16 +1875,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>   - schedule the tasks using gannt diagram</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
           <a:pPr marL="0" indent="0">
             <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:buNone/>
@@ -2281,16 +2271,6 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>   - schedule the tasks using gannt diagram</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
             <a:t>  </a:t>
           </a:r>
         </a:p>
@@ -2813,7 +2793,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>   - schedule the tasks using gannt diagram</a:t>
+            <a:t>   </a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -4623,7 +4603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D544E4EA-43A9-4C2D-95F8-E8BC054D1071}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -5676,7 +5656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6800609C-959E-46C1-840F-B86053269743}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -5905,7 +5885,7 @@
         <v>124</v>
       </c>
       <c r="D9" s="46">
-        <f t="shared" ref="D9:D19" si="0">G9/F$3</f>
+        <f t="shared" ref="D9:D18" si="0">G9/F$3</f>
         <v>0.9722222222222221</v>
       </c>
       <c r="E9" s="46">
@@ -6466,11 +6446,11 @@
         <v>152</v>
       </c>
       <c r="D9" s="46">
-        <f t="shared" ref="D9:D19" si="0">G9/F$3</f>
+        <f t="shared" ref="D9:D18" si="0">G9/F$3</f>
         <v>2.9166666666666665</v>
       </c>
       <c r="E9" s="46">
-        <f t="shared" ref="E9:E19" si="1">D9+E8</f>
+        <f t="shared" ref="E9:E18" si="1">D9+E8</f>
         <v>16.819444444444443</v>
       </c>
       <c r="F9" s="32" t="s">

--- a/3project_management/project_management.xlsx
+++ b/3project_management/project_management.xlsx
@@ -8,21 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PLANA\planning-of-the-assignments-for-lecturers-plana\3project_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120BC33A-8479-4F6C-8102-1C4ECA7181A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6415B461-5584-4657-BB50-AC554F02052B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Termins-rules" sheetId="9" r:id="rId1"/>
     <sheet name="Project-Planning" sheetId="3" r:id="rId2"/>
-    <sheet name="Sprint 1" sheetId="5" r:id="rId3"/>
-    <sheet name="Sprint2" sheetId="6" r:id="rId4"/>
-    <sheet name="Sprint 3" sheetId="7" r:id="rId5"/>
-    <sheet name="Sprint 4" sheetId="8" r:id="rId6"/>
-    <sheet name="excel-formula" sheetId="2" r:id="rId7"/>
+    <sheet name="Product Backlog" sheetId="11" r:id="rId3"/>
+    <sheet name="temp" sheetId="12" r:id="rId4"/>
+    <sheet name="Sprint 1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
+    <sheet name="Sprint2" sheetId="6" r:id="rId7"/>
+    <sheet name="Sprint 3" sheetId="7" r:id="rId8"/>
+    <sheet name="Sprint 4" sheetId="8" r:id="rId9"/>
+    <sheet name="excel-formula" sheetId="2" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sprint 1'!$F$5:$F$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Sprint 1'!$F$5:$F$25</definedName>
     <definedName name="Project_Start">#REF!</definedName>
     <definedName name="Scrolling_Increment">#REF!</definedName>
   </definedNames>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="193">
   <si>
     <t>Task Description</t>
   </si>
@@ -784,6 +787,96 @@
   <si>
     <t>Create project management document structure( sprints )</t>
   </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>See the assignment plan for a specific year</t>
+  </si>
+  <si>
+    <t>Study Director</t>
+  </si>
+  <si>
+    <t>See the requests for the modules</t>
+  </si>
+  <si>
+    <t>See the requests for the groups</t>
+  </si>
+  <si>
+    <t>See the working hours requests for the concrete module</t>
+  </si>
+  <si>
+    <t>Set the group of lecturers to the module</t>
+  </si>
+  <si>
+    <t>Attach the lecturers group to the modules group</t>
+  </si>
+  <si>
+    <t>Create a plan of aasignments</t>
+  </si>
+  <si>
+    <t>Manage plan of assignments</t>
+  </si>
+  <si>
+    <t>Make a groups of lecturers</t>
+  </si>
+  <si>
+    <t>Make groups of modules</t>
+  </si>
+  <si>
+    <t>Attach the lecturers to the module</t>
+  </si>
+  <si>
+    <t>Attach the lecturers to the module group</t>
+  </si>
+  <si>
+    <t>Lecturer</t>
+  </si>
+  <si>
+    <t>Officially publicize a plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See last year plan </t>
+  </si>
+  <si>
+    <t>Make a copy from last year plan</t>
+  </si>
+  <si>
+    <t>See hours conflicts</t>
+  </si>
+  <si>
+    <t>See the plan of my assignments for concrete year</t>
+  </si>
+  <si>
+    <t>Set my hours for concrete module</t>
+  </si>
+  <si>
+    <t>Add new modules to my plan</t>
+  </si>
+  <si>
+    <t>Add new additional assignments to my plan</t>
+  </si>
+  <si>
+    <t>See last year plan</t>
+  </si>
+  <si>
+    <t>Publish my plan</t>
+  </si>
+  <si>
+    <t>Add new module to the plan</t>
+  </si>
+  <si>
+    <t>Add lecturer to the module</t>
+  </si>
+  <si>
+    <t>Publish plan for lecturers</t>
+  </si>
+  <si>
+    <t>Set lecturer's hours to for module</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> delivery of sprint4</t>
+  </si>
 </sst>
 </file>
 
@@ -794,7 +887,7 @@
     <numFmt numFmtId="165" formatCode="ddd"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -924,8 +1017,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -992,8 +1092,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1230,6 +1336,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1239,7 +1356,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1459,6 +1576,74 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Date" xfId="2" xr:uid="{52E8FA25-AB34-439C-BC48-9650F425CC09}"/>
@@ -1466,7 +1651,17 @@
     <cellStyle name="Title" xfId="3" builtinId="15"/>
     <cellStyle name="zHiddenText" xfId="1" xr:uid="{5343EAB6-CD30-48D5-9BB1-01A341256D68}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="8" tint="0.79998168889431442"/>
@@ -1510,6 +1705,16 @@
     <dxf>
       <font>
         <color rgb="FFC65911"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
       </font>
     </dxf>
   </dxfs>
@@ -1739,6 +1944,248 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4213859" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639CA9ED-E212-4544-9EE4-FAACD9A4ADAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1828799" y="45720"/>
+          <a:ext cx="4213859" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0"/>
+            <a:t>Product Backlog</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7696200" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77907C2B-BBEF-4DCE-B5B3-9948EF6F99B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1798320" y="5715000"/>
+          <a:ext cx="7696200" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>There is an identifier in priority weightfrom 1 to 10. A higher priority weight indicates that the corresponding user story ismore important for the project’s success and for meeting customer needs.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4213859" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8D7E6F-79C2-424F-81BE-7DE974E3681E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1828799" y="45720"/>
+          <a:ext cx="4213859" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0"/>
+            <a:t>Product Backlog</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7696200" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32E4EF33-85CE-45A3-BDCC-30646E578B32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="5669280"/>
+          <a:ext cx="7696200" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>There is an identifier in priority weightfrom 1 to 10. A higher priority weight indicates that the corresponding user story ismore important for the project’s success and for meeting customer needs.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -2135,7 +2582,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2572,7 +3019,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3235,7 +3682,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4248,2476 +4695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB44EE33-8DB4-4D77-8C2D-5A0F5796B97D}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7">
-        <v>44088</v>
-      </c>
-      <c r="C5" s="7">
-        <v>44092</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6">
-        <v>44095</v>
-      </c>
-      <c r="C6" s="6">
-        <v>44099</v>
-      </c>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6">
-        <v>44102</v>
-      </c>
-      <c r="C7" s="6">
-        <v>44106</v>
-      </c>
-      <c r="D7" s="17">
-        <v>1</v>
-      </c>
-      <c r="E7" s="36"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6">
-        <v>44109</v>
-      </c>
-      <c r="C8" s="6">
-        <v>44113</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="38">
-        <v>44115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="40">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7">
-        <v>44116</v>
-      </c>
-      <c r="C9" s="7">
-        <v>44120</v>
-      </c>
-      <c r="D9" s="41"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6">
-        <v>44123</v>
-      </c>
-      <c r="C10" s="6">
-        <v>44127</v>
-      </c>
-      <c r="D10" s="43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6">
-        <v>44130</v>
-      </c>
-      <c r="C11" s="6">
-        <v>44134</v>
-      </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="36"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="63">
-        <v>8</v>
-      </c>
-      <c r="B12" s="39">
-        <v>44137</v>
-      </c>
-      <c r="C12" s="39">
-        <v>44141</v>
-      </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="38">
-        <v>44143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6">
-        <v>44144</v>
-      </c>
-      <c r="C13" s="6">
-        <v>44148</v>
-      </c>
-      <c r="D13" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6">
-        <v>44151</v>
-      </c>
-      <c r="C14" s="6">
-        <v>44155</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="36"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="61">
-        <v>11</v>
-      </c>
-      <c r="B15" s="62">
-        <v>44158</v>
-      </c>
-      <c r="C15" s="62">
-        <v>44162</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="36"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="61">
-        <v>12</v>
-      </c>
-      <c r="B16" s="62">
-        <v>44165</v>
-      </c>
-      <c r="C16" s="62">
-        <v>44169</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="36"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>13</v>
-      </c>
-      <c r="B17" s="6">
-        <v>44172</v>
-      </c>
-      <c r="C17" s="6">
-        <v>44176</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="36">
-        <v>44178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>14</v>
-      </c>
-      <c r="B18" s="6">
-        <v>44179</v>
-      </c>
-      <c r="C18" s="6">
-        <v>44183</v>
-      </c>
-      <c r="D18" s="104">
-        <v>4</v>
-      </c>
-      <c r="E18" s="36"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="39">
-        <v>44186</v>
-      </c>
-      <c r="C19" s="39">
-        <v>44190</v>
-      </c>
-      <c r="D19" s="103"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="6">
-        <v>44193</v>
-      </c>
-      <c r="C20" s="6">
-        <v>44197</v>
-      </c>
-      <c r="D20" s="103"/>
-      <c r="G20" s="38"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="39">
-        <v>44200</v>
-      </c>
-      <c r="C21" s="39">
-        <v>44204</v>
-      </c>
-      <c r="D21" s="103"/>
-      <c r="E21" s="38">
-        <v>43840</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <v>16</v>
-      </c>
-      <c r="B22" s="6">
-        <v>44207</v>
-      </c>
-      <c r="C22" s="6">
-        <v>44211</v>
-      </c>
-      <c r="D22" s="99">
-        <v>5</v>
-      </c>
-      <c r="E22" s="100"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6">
-        <v>44214</v>
-      </c>
-      <c r="C23" s="6">
-        <v>44218</v>
-      </c>
-      <c r="D23" s="98"/>
-      <c r="E23" s="106">
-        <v>43851</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="6">
-        <v>44221</v>
-      </c>
-      <c r="C24" s="6">
-        <v>44225</v>
-      </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="105">
-        <v>44228</v>
-      </c>
-      <c r="C25" s="6">
-        <v>44232</v>
-      </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="14"/>
-      <c r="B26" s="13">
-        <v>44235</v>
-      </c>
-      <c r="C26" s="13">
-        <v>44239</v>
-      </c>
-      <c r="D26" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D544E4EA-43A9-4C2D-95F8-E8BC054D1071}">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
-    <col min="4" max="5" width="9.77734375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" customWidth="1"/>
-    <col min="11" max="11" width="40" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
-        <f>'Project-Planning'!A1</f>
-        <v>BaThesis BTI7321 20/21, HS, Project Planning</v>
-      </c>
-      <c r="J1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="45">
-        <f>360/14/5</f>
-        <v>5.1428571428571432</v>
-      </c>
-      <c r="G3">
-        <f>SUM(G5:G17)</f>
-        <v>97.5</v>
-      </c>
-      <c r="H3" s="3">
-        <f>SUM(H5:H17)</f>
-        <v>108.5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="44">
-        <f>360/14*A3</f>
-        <v>102.85714285714286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30">
-        <v>1</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="46">
-        <f>G5/F3</f>
-        <v>0.38888888888888884</v>
-      </c>
-      <c r="E5" s="46">
-        <f>D5</f>
-        <v>0.38888888888888884</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="32">
-        <v>2</v>
-      </c>
-      <c r="H5" s="32">
-        <v>2</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="46">
-        <f>G6/F3</f>
-        <v>1.9444444444444442</v>
-      </c>
-      <c r="E6" s="46">
-        <f>D5+D6</f>
-        <v>2.333333333333333</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="32">
-        <v>10</v>
-      </c>
-      <c r="H6" s="32">
-        <v>11</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="46">
-        <f>G7/F3</f>
-        <v>0.9722222222222221</v>
-      </c>
-      <c r="E7" s="46">
-        <f>E6+D7</f>
-        <v>3.3055555555555554</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="32">
-        <v>5</v>
-      </c>
-      <c r="H7" s="32">
-        <v>6</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="46">
-        <f>G8/F3</f>
-        <v>0.38888888888888884</v>
-      </c>
-      <c r="E8" s="46">
-        <f>E7+D8</f>
-        <v>3.6944444444444442</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="32">
-        <v>2</v>
-      </c>
-      <c r="H8" s="32">
-        <v>3</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="46">
-        <f>G9/F3</f>
-        <v>3.8888888888888884</v>
-      </c>
-      <c r="E9" s="46">
-        <f>E8+D9</f>
-        <v>7.5833333333333321</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="32">
-        <v>20</v>
-      </c>
-      <c r="H9" s="32">
-        <v>22</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="46">
-        <f>G10/F3</f>
-        <v>3.8888888888888884</v>
-      </c>
-      <c r="E10" s="46">
-        <f>E9+D10</f>
-        <v>11.472222222222221</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="32">
-        <v>20</v>
-      </c>
-      <c r="H10" s="32">
-        <v>25</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="46">
-        <f>G11/F3</f>
-        <v>1.9444444444444442</v>
-      </c>
-      <c r="E11" s="46">
-        <f t="shared" ref="E11:E16" si="0">E10+D11</f>
-        <v>13.416666666666666</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="32">
-        <v>10</v>
-      </c>
-      <c r="H11" s="48">
-        <v>10</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
-        <v>8</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="46">
-        <f>G12/F3</f>
-        <v>1.3611111111111109</v>
-      </c>
-      <c r="E12" s="46">
-        <f t="shared" si="0"/>
-        <v>14.777777777777777</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="48">
-        <v>7</v>
-      </c>
-      <c r="H12" s="48">
-        <v>7</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="30">
-        <v>9</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="46">
-        <f>G13/F3</f>
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="E13" s="46">
-        <f t="shared" si="0"/>
-        <v>15.361111111111111</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="48">
-        <v>3</v>
-      </c>
-      <c r="H13" s="48">
-        <v>1</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
-        <v>10</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="46">
-        <f>G14/F3</f>
-        <v>1.3611111111111109</v>
-      </c>
-      <c r="E14" s="46">
-        <f t="shared" si="0"/>
-        <v>16.722222222222221</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="48">
-        <v>7</v>
-      </c>
-      <c r="H14" s="48">
-        <v>8</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="30">
-        <v>11</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="46">
-        <f>G15/F3</f>
-        <v>1.9444444444444442</v>
-      </c>
-      <c r="E15" s="46">
-        <f t="shared" si="0"/>
-        <v>18.666666666666664</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="48">
-        <v>10</v>
-      </c>
-      <c r="H15" s="48">
-        <v>12</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
-        <v>12</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="46">
-        <f>G16/F3</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="E16" s="46">
-        <f t="shared" si="0"/>
-        <v>18.958333333333332</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="48">
-        <v>1.5</v>
-      </c>
-      <c r="H16" s="48">
-        <v>1.5</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30">
-        <v>13</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="108">
-        <f>'Project-Planning'!E8</f>
-        <v>44115</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="34">
-        <v>0</v>
-      </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="60"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="F5:F25" xr:uid="{19388B08-6607-4FB7-80A4-7440077A6089}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:J21">
-      <sortCondition sortBy="fontColor" ref="F5:F21" dxfId="7"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="F4:F18">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8346C48C-640E-494D-85F6-A16EC8AEE9A1}">
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
-    <col min="4" max="5" width="9.77734375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="19"/>
-    <col min="9" max="9" width="7.77734375" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" customWidth="1"/>
-    <col min="11" max="11" width="40" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="45">
-        <f>360/14/5</f>
-        <v>5.1428571428571432</v>
-      </c>
-      <c r="G3">
-        <f>SUM(G6:G18)</f>
-        <v>89</v>
-      </c>
-      <c r="H3" s="3">
-        <f>SUM(H6:H18)</f>
-        <v>79</v>
-      </c>
-      <c r="J3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="44">
-        <f>360/14*A3</f>
-        <v>102.85714285714286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="54" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55">
-        <v>16</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="57">
-        <v>1</v>
-      </c>
-      <c r="H5" s="49">
-        <v>1.5</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="53"/>
-    </row>
-    <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="56">
-        <v>15</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="46">
-        <f>G6/F3</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="E6" s="46">
-        <f>D6</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="H6" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="55">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="46">
-        <f>G7/$F3</f>
-        <v>2.333333333333333</v>
-      </c>
-      <c r="E7" s="46">
-        <f>D7+E6</f>
-        <v>2.6249999999999996</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="32">
-        <v>12</v>
-      </c>
-      <c r="H7" s="32">
-        <v>15</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="56">
-        <v>18</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="46">
-        <f>G8/F$3</f>
-        <v>1.1666666666666665</v>
-      </c>
-      <c r="E8" s="46">
-        <f>D8+E7</f>
-        <v>3.7916666666666661</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="32">
-        <v>6</v>
-      </c>
-      <c r="H8" s="32">
-        <v>6</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="55">
-        <v>19</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="46">
-        <f t="shared" ref="D9:D17" si="0">G9/F$3</f>
-        <v>2.9166666666666665</v>
-      </c>
-      <c r="E9" s="46">
-        <f t="shared" ref="E9:E17" si="1">D9+E8</f>
-        <v>6.7083333333333321</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="32">
-        <v>15</v>
-      </c>
-      <c r="H9" s="32">
-        <v>17</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="56">
-        <v>20</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="46">
-        <f t="shared" si="0"/>
-        <v>1.3611111111111109</v>
-      </c>
-      <c r="E10" s="46">
-        <f t="shared" si="1"/>
-        <v>8.0694444444444429</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="32">
-        <v>7</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="55">
-        <v>21</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="46">
-        <f t="shared" si="0"/>
-        <v>1.9444444444444442</v>
-      </c>
-      <c r="E11" s="46">
-        <f t="shared" si="1"/>
-        <v>10.013888888888888</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="32">
-        <v>10</v>
-      </c>
-      <c r="H11" s="32">
-        <v>11</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="55">
-        <v>22</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="46">
-        <f t="shared" si="0"/>
-        <v>2.9166666666666665</v>
-      </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32">
-        <v>15</v>
-      </c>
-      <c r="H12" s="32">
-        <v>15</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="56">
-        <v>23</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="46">
-        <f t="shared" si="0"/>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="E13" s="46">
-        <f>D13+E11</f>
-        <v>10.305555555555554</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="H13" s="48">
-        <v>2</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="56">
-        <v>24</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="46">
-        <f t="shared" si="0"/>
-        <v>1.9444444444444442</v>
-      </c>
-      <c r="E14" s="46">
-        <f t="shared" si="1"/>
-        <v>12.249999999999998</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="48">
-        <v>10</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="30">
-        <v>25</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="46">
-        <f t="shared" si="0"/>
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="E15" s="46">
-        <f t="shared" si="1"/>
-        <v>12.833333333333332</v>
-      </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="48">
-        <v>3</v>
-      </c>
-      <c r="H15" s="48">
-        <v>3</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
-        <v>26</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="46">
-        <f t="shared" si="0"/>
-        <v>0.38888888888888884</v>
-      </c>
-      <c r="E16" s="46">
-        <f t="shared" si="1"/>
-        <v>13.222222222222221</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="48">
-        <v>2</v>
-      </c>
-      <c r="H16" s="48">
-        <v>2.5</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="30">
-        <v>27</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="46">
-        <f t="shared" si="0"/>
-        <v>1.1666666666666665</v>
-      </c>
-      <c r="E17" s="46">
-        <f t="shared" si="1"/>
-        <v>14.388888888888888</v>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="48">
-        <v>6</v>
-      </c>
-      <c r="H17" s="48">
-        <v>6</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="30"/>
-      <c r="B18" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="109">
-        <f>'Project-Planning'!E12</f>
-        <v>44143</v>
-      </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="34">
-        <v>0</v>
-      </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="F4:F18">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6800609C-959E-46C1-840F-B86053269743}">
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="39.77734375" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="19"/>
-    <col min="8" max="8" width="7.77734375" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
-        <f>'Project-Planning'!A1</f>
-        <v>BaThesis BTI7321 20/21, HS, Project Planning</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="19"/>
-      <c r="J1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="45">
-        <f>360/14/5</f>
-        <v>5.1428571428571432</v>
-      </c>
-      <c r="G3">
-        <f>SUM(G6:G19)</f>
-        <v>132.5</v>
-      </c>
-      <c r="H3" s="3">
-        <f>SUM(H6:H19)</f>
-        <v>151.5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="44">
-        <f>360/14*A3</f>
-        <v>128.57142857142858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55">
-        <v>28</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="57">
-        <v>1</v>
-      </c>
-      <c r="H5" s="49">
-        <v>1</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="53"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="56">
-        <v>35</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="46">
-        <f>G6/F3</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="E6" s="46">
-        <f>D6</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="H6" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="55">
-        <v>36</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="46">
-        <f>G7/$F3</f>
-        <v>1.5555555555555554</v>
-      </c>
-      <c r="E7" s="46">
-        <f>D7+E6</f>
-        <v>1.8472222222222219</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="32">
-        <v>8</v>
-      </c>
-      <c r="H7" s="32">
-        <v>9</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="56">
-        <v>56</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="46">
-        <f>G8/F$3</f>
-        <v>2.333333333333333</v>
-      </c>
-      <c r="E8" s="46">
-        <f>D8+E7</f>
-        <v>4.1805555555555554</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="32">
-        <v>12</v>
-      </c>
-      <c r="H8" s="32">
-        <v>12</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="55">
-        <v>38</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="46">
-        <f t="shared" ref="D9:D18" si="0">G9/F$3</f>
-        <v>0.9722222222222221</v>
-      </c>
-      <c r="E9" s="46">
-        <f t="shared" ref="E9:E18" si="1">D9+E8</f>
-        <v>5.1527777777777777</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="32">
-        <v>5</v>
-      </c>
-      <c r="H9" s="32">
-        <v>8</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="56">
-        <v>20</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="46">
-        <f t="shared" si="0"/>
-        <v>1.3611111111111109</v>
-      </c>
-      <c r="E10" s="46">
-        <f t="shared" si="1"/>
-        <v>6.5138888888888884</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="32">
-        <v>7</v>
-      </c>
-      <c r="H10" s="32">
-        <v>0</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55">
-        <v>33</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="46">
-        <f t="shared" si="0"/>
-        <v>2.9166666666666665</v>
-      </c>
-      <c r="E11" s="46">
-        <f t="shared" si="1"/>
-        <v>9.4305555555555554</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="32">
-        <v>15</v>
-      </c>
-      <c r="H11" s="32">
-        <v>25</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55">
-        <v>40</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="46">
-        <f t="shared" si="0"/>
-        <v>3.8888888888888884</v>
-      </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="32">
-        <v>20</v>
-      </c>
-      <c r="H12" s="32">
-        <v>22</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="55">
-        <v>41</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="46">
-        <f t="shared" si="0"/>
-        <v>1.3611111111111109</v>
-      </c>
-      <c r="E13" s="46">
-        <f>D13+E11</f>
-        <v>10.791666666666666</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="32">
-        <v>7</v>
-      </c>
-      <c r="H13" s="48">
-        <v>8</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
-        <v>42</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="46">
-        <f t="shared" si="0"/>
-        <v>1.5555555555555554</v>
-      </c>
-      <c r="E14" s="46">
-        <f t="shared" si="1"/>
-        <v>12.347222222222221</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="48">
-        <v>8</v>
-      </c>
-      <c r="H14" s="48">
-        <v>8</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="55">
-        <v>37</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" s="46">
-        <f t="shared" si="0"/>
-        <v>2.333333333333333</v>
-      </c>
-      <c r="E15" s="46">
-        <f t="shared" si="1"/>
-        <v>14.680555555555554</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="48">
-        <v>12</v>
-      </c>
-      <c r="H15" s="48">
-        <v>15</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="55">
-        <v>44</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="46">
-        <f t="shared" si="0"/>
-        <v>2.9166666666666665</v>
-      </c>
-      <c r="E16" s="46">
-        <f t="shared" si="1"/>
-        <v>17.597222222222221</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="48">
-        <v>15</v>
-      </c>
-      <c r="H16" s="48">
-        <v>17</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="55">
-        <v>39</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="46">
-        <f t="shared" si="0"/>
-        <v>1.9444444444444442</v>
-      </c>
-      <c r="E17" s="46">
-        <f t="shared" si="1"/>
-        <v>19.541666666666664</v>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="48">
-        <v>10</v>
-      </c>
-      <c r="H17" s="48">
-        <v>12</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="30">
-        <v>43</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="46">
-        <f t="shared" si="0"/>
-        <v>2.333333333333333</v>
-      </c>
-      <c r="E18" s="46">
-        <f t="shared" si="1"/>
-        <v>21.874999999999996</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="48">
-        <v>12</v>
-      </c>
-      <c r="H18" s="48">
-        <v>14</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
-      <c r="B19" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="107">
-        <f>'Project-Planning'!E17</f>
-        <v>44178</v>
-      </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="34">
-        <v>0</v>
-      </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="D22" s="102"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="101"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="F4:F9 F11:F19">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687EE61-BC21-474A-A1F5-FD35F1C9EE1C}">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="19"/>
-    <col min="8" max="8" width="7.77734375" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="19"/>
-      <c r="J1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="45">
-        <f>360/14/5</f>
-        <v>5.1428571428571432</v>
-      </c>
-      <c r="G3">
-        <f>SUM(G6:G19)</f>
-        <v>129.5</v>
-      </c>
-      <c r="H3" s="3">
-        <f>SUM(H6:H19)</f>
-        <v>111.5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="44">
-        <f>360/14*A3</f>
-        <v>102.85714285714286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55">
-        <v>55</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="57">
-        <v>1</v>
-      </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="56">
-        <v>54</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="46">
-        <f>G6/F3</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="E6" s="46">
-        <f>D6</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="H6" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="55">
-        <v>45</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="46">
-        <f>G7/$F3</f>
-        <v>7.7777777777777768</v>
-      </c>
-      <c r="E7" s="46">
-        <f>D7+E6</f>
-        <v>8.0694444444444429</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="32">
-        <v>40</v>
-      </c>
-      <c r="H7" s="32">
-        <v>45</v>
-      </c>
-      <c r="I7" s="33"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="56">
-        <v>46</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="46">
-        <f>G8/F$3</f>
-        <v>5.833333333333333</v>
-      </c>
-      <c r="E8" s="46">
-        <f>D8+E7</f>
-        <v>13.902777777777775</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="32">
-        <v>30</v>
-      </c>
-      <c r="H8" s="32">
-        <v>34</v>
-      </c>
-      <c r="I8" s="33"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="55">
-        <v>47</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="46">
-        <f t="shared" ref="D9:D18" si="0">G9/F$3</f>
-        <v>2.9166666666666665</v>
-      </c>
-      <c r="E9" s="46">
-        <f t="shared" ref="E9:E18" si="1">D9+E8</f>
-        <v>16.819444444444443</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="32">
-        <v>15</v>
-      </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-    </row>
-    <row r="10" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56">
-        <v>48</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="46">
-        <f t="shared" si="0"/>
-        <v>2.5277777777777777</v>
-      </c>
-      <c r="E10" s="46">
-        <f t="shared" si="1"/>
-        <v>19.347222222222221</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="32">
-        <v>13</v>
-      </c>
-      <c r="H10" s="32">
-        <v>13</v>
-      </c>
-      <c r="I10" s="33"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55">
-        <v>49</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="46">
-        <f t="shared" si="0"/>
-        <v>1.5555555555555554</v>
-      </c>
-      <c r="E11" s="46">
-        <f t="shared" si="1"/>
-        <v>20.902777777777779</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="32">
-        <v>8</v>
-      </c>
-      <c r="H11" s="32">
-        <v>7</v>
-      </c>
-      <c r="I11" s="33"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="56">
-        <v>50</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="46">
-        <f t="shared" si="0"/>
-        <v>0.9722222222222221</v>
-      </c>
-      <c r="E13" s="46">
-        <f>D13+E11</f>
-        <v>21.875</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="32">
-        <v>5</v>
-      </c>
-      <c r="H13" s="48">
-        <v>7</v>
-      </c>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="56">
-        <v>51</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="46">
-        <f t="shared" si="0"/>
-        <v>0.9722222222222221</v>
-      </c>
-      <c r="E14" s="46">
-        <f t="shared" si="1"/>
-        <v>22.847222222222221</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="48">
-        <v>5</v>
-      </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="33"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="30">
-        <v>52</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="46">
-        <f t="shared" si="0"/>
-        <v>0.9722222222222221</v>
-      </c>
-      <c r="E15" s="46">
-        <f t="shared" si="1"/>
-        <v>23.819444444444443</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="48">
-        <v>5</v>
-      </c>
-      <c r="H15" s="48">
-        <v>4</v>
-      </c>
-      <c r="I15" s="33"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
-        <v>53</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="46">
-        <f t="shared" si="0"/>
-        <v>1.3611111111111109</v>
-      </c>
-      <c r="E16" s="46">
-        <f t="shared" si="1"/>
-        <v>25.180555555555554</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="48">
-        <v>7</v>
-      </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="33"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="46">
-        <f t="shared" si="1"/>
-        <v>25.180555555555554</v>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="33"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="46">
-        <f t="shared" si="1"/>
-        <v>25.180555555555554</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="33"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
-      <c r="B19" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="111">
-        <f>'Project-Planning'!E21</f>
-        <v>43840</v>
-      </c>
-      <c r="E19" s="112"/>
-      <c r="F19" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="34">
-        <v>0</v>
-      </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="F4:F19">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91297CB-FE51-46A7-A70E-391CFFF80B75}">
   <dimension ref="A1:U26"/>
   <sheetViews>
@@ -7148,10 +5126,3447 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:U2">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB44EE33-8DB4-4D77-8C2D-5A0F5796B97D}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>44088</v>
+      </c>
+      <c r="C5" s="7">
+        <v>44092</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44095</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44099</v>
+      </c>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6">
+        <v>44102</v>
+      </c>
+      <c r="C7" s="6">
+        <v>44106</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>44109</v>
+      </c>
+      <c r="C8" s="6">
+        <v>44113</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="38">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="40">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7">
+        <v>44116</v>
+      </c>
+      <c r="C9" s="7">
+        <v>44120</v>
+      </c>
+      <c r="D9" s="41"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="42">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>44123</v>
+      </c>
+      <c r="C10" s="6">
+        <v>44127</v>
+      </c>
+      <c r="D10" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6">
+        <v>44130</v>
+      </c>
+      <c r="C11" s="6">
+        <v>44134</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="36"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="63">
+        <v>8</v>
+      </c>
+      <c r="B12" s="39">
+        <v>44137</v>
+      </c>
+      <c r="C12" s="39">
+        <v>44141</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="38">
+        <v>44143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
+        <v>44144</v>
+      </c>
+      <c r="C13" s="6">
+        <v>44148</v>
+      </c>
+      <c r="D13" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6">
+        <v>44151</v>
+      </c>
+      <c r="C14" s="6">
+        <v>44155</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="61">
+        <v>11</v>
+      </c>
+      <c r="B15" s="62">
+        <v>44158</v>
+      </c>
+      <c r="C15" s="62">
+        <v>44162</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="36"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="61">
+        <v>12</v>
+      </c>
+      <c r="B16" s="62">
+        <v>44165</v>
+      </c>
+      <c r="C16" s="62">
+        <v>44169</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="36"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6">
+        <v>44172</v>
+      </c>
+      <c r="C17" s="6">
+        <v>44176</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="36">
+        <v>44178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6">
+        <v>44179</v>
+      </c>
+      <c r="C18" s="6">
+        <v>44183</v>
+      </c>
+      <c r="D18" s="104">
+        <v>4</v>
+      </c>
+      <c r="E18" s="36"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="39">
+        <v>44186</v>
+      </c>
+      <c r="C19" s="39">
+        <v>44190</v>
+      </c>
+      <c r="D19" s="103"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="6">
+        <v>44193</v>
+      </c>
+      <c r="C20" s="6">
+        <v>44197</v>
+      </c>
+      <c r="D20" s="103"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="39">
+        <v>44200</v>
+      </c>
+      <c r="C21" s="39">
+        <v>44204</v>
+      </c>
+      <c r="D21" s="103"/>
+      <c r="E21" s="38">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6">
+        <v>44207</v>
+      </c>
+      <c r="C22" s="6">
+        <v>44211</v>
+      </c>
+      <c r="D22" s="99">
+        <v>5</v>
+      </c>
+      <c r="E22" s="100"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="6">
+        <v>44214</v>
+      </c>
+      <c r="C23" s="6">
+        <v>44218</v>
+      </c>
+      <c r="D23" s="98"/>
+      <c r="E23" s="106">
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6">
+        <v>44221</v>
+      </c>
+      <c r="C24" s="6">
+        <v>44225</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="105">
+        <v>44228</v>
+      </c>
+      <c r="C25" s="6">
+        <v>44232</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="14"/>
+      <c r="B26" s="13">
+        <v>44235</v>
+      </c>
+      <c r="C26" s="13">
+        <v>44239</v>
+      </c>
+      <c r="D26" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBBA89F-E2EE-4433-AD58-A1633C113434}">
+  <dimension ref="D3:H34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="6.6640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="54.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D3" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="116" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D4" s="118"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="128"/>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D5" s="119">
+        <v>1</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="126">
+        <v>10</v>
+      </c>
+      <c r="H5" s="132" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D6" s="119">
+        <v>2</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="126">
+        <v>10</v>
+      </c>
+      <c r="H6" s="132" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D7" s="119">
+        <v>3</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="126">
+        <v>10</v>
+      </c>
+      <c r="H7" s="132" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="119">
+        <v>4</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="126">
+        <v>10</v>
+      </c>
+      <c r="H8" s="132" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="119">
+        <v>5</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G9" s="126">
+        <v>10</v>
+      </c>
+      <c r="H9" s="129" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="119">
+        <v>6</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="126">
+        <v>10</v>
+      </c>
+      <c r="H10" s="129" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D11" s="119">
+        <v>7</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="126">
+        <v>10</v>
+      </c>
+      <c r="H11" s="132" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="119">
+        <v>8</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="126">
+        <v>10</v>
+      </c>
+      <c r="H12" s="132" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="120">
+        <v>9</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="126">
+        <v>10</v>
+      </c>
+      <c r="H13" s="132" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="119">
+        <v>10</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="126">
+        <v>10</v>
+      </c>
+      <c r="H14" s="130" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="120">
+        <v>11</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="126">
+        <v>10</v>
+      </c>
+      <c r="H15" s="132" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="119">
+        <v>12</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="126">
+        <v>10</v>
+      </c>
+      <c r="H16" s="130" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="120">
+        <v>13</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="126">
+        <v>10</v>
+      </c>
+      <c r="H17" s="130" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D18" s="119">
+        <v>14</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="126">
+        <v>10</v>
+      </c>
+      <c r="H18" s="130" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D19" s="119">
+        <v>15</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" s="126">
+        <v>10</v>
+      </c>
+      <c r="H19" s="130" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D20" s="120">
+        <v>16</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" s="126">
+        <v>10</v>
+      </c>
+      <c r="H20" s="130" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D21" s="120">
+        <v>17</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="32">
+        <v>5</v>
+      </c>
+      <c r="H21" s="130" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D22" s="121">
+        <v>18</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="32">
+        <v>3</v>
+      </c>
+      <c r="H22" s="130" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D23" s="121">
+        <v>19</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" s="32">
+        <v>5</v>
+      </c>
+      <c r="H23" s="130" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D24" s="121">
+        <v>20</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="32">
+        <v>7</v>
+      </c>
+      <c r="H24" s="132" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D25" s="121">
+        <v>21</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="32">
+        <v>10</v>
+      </c>
+      <c r="H25" s="132" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D26" s="122">
+        <v>22</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="48">
+        <v>10</v>
+      </c>
+      <c r="H26" s="132" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D27" s="122">
+        <v>23</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="48">
+        <v>10</v>
+      </c>
+      <c r="H27" s="132" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D28" s="122">
+        <v>24</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" s="48">
+        <v>10</v>
+      </c>
+      <c r="H28" s="132" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D29" s="122">
+        <v>25</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="48">
+        <v>3</v>
+      </c>
+      <c r="H29" s="130" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D30" s="123">
+        <v>26</v>
+      </c>
+      <c r="E30" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="124" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" s="125">
+        <v>10</v>
+      </c>
+      <c r="H30" s="131" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D31" s="48"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D32" s="48"/>
+      <c r="E32" s="37"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="48"/>
+      <c r="E33" s="37"/>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="48"/>
+      <c r="E34" s="37"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G3:G4">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G30">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A594BA00-E04B-4FA7-94B5-0C1F02B727CE}">
+  <dimension ref="D3:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="6.6640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="54.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D3" s="133" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="134" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D4" s="136"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="138"/>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D5" s="119">
+        <v>1</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="119">
+        <v>2</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="119">
+        <v>3</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="119">
+        <v>4</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="119">
+        <v>5</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G9" s="126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="119">
+        <v>6</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="119">
+        <v>7</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D12" s="119">
+        <v>8</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="120">
+        <v>9</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="119">
+        <v>10</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="120">
+        <v>11</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D16" s="119">
+        <v>12</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17" s="120">
+        <v>13</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D18" s="119">
+        <v>14</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D19" s="119">
+        <v>15</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" s="126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="120">
+        <v>16</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" s="126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D21" s="120">
+        <v>17</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="121">
+        <v>18</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D23" s="121">
+        <v>19</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="121">
+        <v>20</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D25" s="121">
+        <v>21</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D26" s="122">
+        <v>22</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D27" s="122">
+        <v>23</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D28" s="122">
+        <v>24</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" s="48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D29" s="122">
+        <v>25</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D30" s="123">
+        <v>26</v>
+      </c>
+      <c r="E30" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="124" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" s="125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D31" s="48"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D32" s="48"/>
+      <c r="E32" s="37"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="48"/>
+      <c r="E33" s="37"/>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="48"/>
+      <c r="E34" s="37"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G3:G30">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D544E4EA-43A9-4C2D-95F8-E8BC054D1071}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="5" width="9.77734375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="str">
+        <f>'Project-Planning'!A1</f>
+        <v>BaThesis BTI7321 20/21, HS, Project Planning</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="45">
+        <f>360/14/5</f>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="G3">
+        <f>SUM(G5:G17)</f>
+        <v>97.5</v>
+      </c>
+      <c r="H3" s="3">
+        <f>SUM(H5:H17)</f>
+        <v>108.5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="44">
+        <f>360/14*A3</f>
+        <v>102.85714285714286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30">
+        <v>1</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="46">
+        <f>G5/F3</f>
+        <v>0.38888888888888884</v>
+      </c>
+      <c r="E5" s="46">
+        <f>D5</f>
+        <v>0.38888888888888884</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="32">
+        <v>2</v>
+      </c>
+      <c r="H5" s="32">
+        <v>2</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="30">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="46">
+        <f>G6/F3</f>
+        <v>1.9444444444444442</v>
+      </c>
+      <c r="E6" s="46">
+        <f>D5+D6</f>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="32">
+        <v>10</v>
+      </c>
+      <c r="H6" s="32">
+        <v>11</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="30">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="46">
+        <f>G7/F3</f>
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="E7" s="46">
+        <f>E6+D7</f>
+        <v>3.3055555555555554</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="32">
+        <v>5</v>
+      </c>
+      <c r="H7" s="32">
+        <v>6</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="30">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="46">
+        <f>G8/F3</f>
+        <v>0.38888888888888884</v>
+      </c>
+      <c r="E8" s="46">
+        <f>E7+D8</f>
+        <v>3.6944444444444442</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="32">
+        <v>2</v>
+      </c>
+      <c r="H8" s="32">
+        <v>3</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="30">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="46">
+        <f>G9/F3</f>
+        <v>3.8888888888888884</v>
+      </c>
+      <c r="E9" s="46">
+        <f>E8+D9</f>
+        <v>7.5833333333333321</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="32">
+        <v>20</v>
+      </c>
+      <c r="H9" s="32">
+        <v>22</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="30">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="46">
+        <f>G10/F3</f>
+        <v>3.8888888888888884</v>
+      </c>
+      <c r="E10" s="46">
+        <f>E9+D10</f>
+        <v>11.472222222222221</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="32">
+        <v>20</v>
+      </c>
+      <c r="H10" s="32">
+        <v>25</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="30">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="46">
+        <f>G11/F3</f>
+        <v>1.9444444444444442</v>
+      </c>
+      <c r="E11" s="46">
+        <f t="shared" ref="E11:E16" si="0">E10+D11</f>
+        <v>13.416666666666666</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="32">
+        <v>10</v>
+      </c>
+      <c r="H11" s="48">
+        <v>10</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="30">
+        <v>8</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="46">
+        <f>G12/F3</f>
+        <v>1.3611111111111109</v>
+      </c>
+      <c r="E12" s="46">
+        <f t="shared" si="0"/>
+        <v>14.777777777777777</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="48">
+        <v>7</v>
+      </c>
+      <c r="H12" s="48">
+        <v>7</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="30">
+        <v>9</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="46">
+        <f>G13/F3</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="E13" s="46">
+        <f t="shared" si="0"/>
+        <v>15.361111111111111</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="48">
+        <v>3</v>
+      </c>
+      <c r="H13" s="48">
+        <v>1</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="30">
+        <v>10</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="46">
+        <f>G14/F3</f>
+        <v>1.3611111111111109</v>
+      </c>
+      <c r="E14" s="46">
+        <f t="shared" si="0"/>
+        <v>16.722222222222221</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="48">
+        <v>7</v>
+      </c>
+      <c r="H14" s="48">
+        <v>8</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="30">
+        <v>11</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="46">
+        <f>G15/F3</f>
+        <v>1.9444444444444442</v>
+      </c>
+      <c r="E15" s="46">
+        <f t="shared" si="0"/>
+        <v>18.666666666666664</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="48">
+        <v>10</v>
+      </c>
+      <c r="H15" s="48">
+        <v>12</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="30">
+        <v>12</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="46">
+        <f>G16/F3</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="E16" s="46">
+        <f t="shared" si="0"/>
+        <v>18.958333333333332</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="H16" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="30">
+        <v>13</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="108">
+        <f>'Project-Planning'!E8</f>
+        <v>44115</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="34">
+        <v>0</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="59"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="59"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="60"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="F5:F25" xr:uid="{19388B08-6607-4FB7-80A4-7440077A6089}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:J21">
+      <sortCondition sortBy="fontColor" ref="F5:F21" dxfId="9"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="F4:F18">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A10AD9-03F9-4AA0-86E3-0CA78F75700D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8346C48C-640E-494D-85F6-A16EC8AEE9A1}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="5" width="9.77734375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="19"/>
+    <col min="9" max="9" width="7.77734375" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="45">
+        <f>360/14/5</f>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="G3">
+        <f>SUM(G6:G18)</f>
+        <v>89</v>
+      </c>
+      <c r="H3" s="3">
+        <f>SUM(H6:H18)</f>
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="44">
+        <f>360/14*A3</f>
+        <v>102.85714285714286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="54" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="55">
+        <v>16</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="57">
+        <v>1</v>
+      </c>
+      <c r="H5" s="49">
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="53"/>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="56">
+        <v>15</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="46">
+        <f>G6/F3</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="E6" s="46">
+        <f>D6</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="55">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="46">
+        <f>G7/$F3</f>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="E7" s="46">
+        <f>D7+E6</f>
+        <v>2.6249999999999996</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="32">
+        <v>12</v>
+      </c>
+      <c r="H7" s="32">
+        <v>15</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="56">
+        <v>18</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="46">
+        <f>G8/F$3</f>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="E8" s="46">
+        <f>D8+E7</f>
+        <v>3.7916666666666661</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="32">
+        <v>6</v>
+      </c>
+      <c r="H8" s="32">
+        <v>6</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="55">
+        <v>19</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="46">
+        <f t="shared" ref="D9:D17" si="0">G9/F$3</f>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="E9" s="46">
+        <f t="shared" ref="E9:E17" si="1">D9+E8</f>
+        <v>6.7083333333333321</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="32">
+        <v>15</v>
+      </c>
+      <c r="H9" s="32">
+        <v>17</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="56">
+        <v>20</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="46">
+        <f t="shared" si="0"/>
+        <v>1.3611111111111109</v>
+      </c>
+      <c r="E10" s="46">
+        <f t="shared" si="1"/>
+        <v>8.0694444444444429</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="32">
+        <v>7</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="55">
+        <v>21</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="46">
+        <f t="shared" si="0"/>
+        <v>1.9444444444444442</v>
+      </c>
+      <c r="E11" s="46">
+        <f t="shared" si="1"/>
+        <v>10.013888888888888</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="32">
+        <v>10</v>
+      </c>
+      <c r="H11" s="32">
+        <v>11</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="55">
+        <v>22</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="46">
+        <f t="shared" si="0"/>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32">
+        <v>15</v>
+      </c>
+      <c r="H12" s="32">
+        <v>15</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="56">
+        <v>23</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="46">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="E13" s="46">
+        <f>D13+E11</f>
+        <v>10.305555555555554</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="H13" s="48">
+        <v>2</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="56">
+        <v>24</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="46">
+        <f t="shared" si="0"/>
+        <v>1.9444444444444442</v>
+      </c>
+      <c r="E14" s="46">
+        <f t="shared" si="1"/>
+        <v>12.249999999999998</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="48">
+        <v>10</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="30">
+        <v>25</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="46">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="E15" s="46">
+        <f t="shared" si="1"/>
+        <v>12.833333333333332</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="48">
+        <v>3</v>
+      </c>
+      <c r="H15" s="48">
+        <v>3</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="30">
+        <v>26</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="46">
+        <f t="shared" si="0"/>
+        <v>0.38888888888888884</v>
+      </c>
+      <c r="E16" s="46">
+        <f t="shared" si="1"/>
+        <v>13.222222222222221</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="48">
+        <v>2</v>
+      </c>
+      <c r="H16" s="48">
+        <v>2.5</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="30">
+        <v>27</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="46">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="E17" s="46">
+        <f t="shared" si="1"/>
+        <v>14.388888888888888</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="48">
+        <v>6</v>
+      </c>
+      <c r="H17" s="48">
+        <v>6</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="30"/>
+      <c r="B18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="109">
+        <f>'Project-Planning'!E12</f>
+        <v>44143</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="34">
+        <v>0</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F4:F18">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6800609C-959E-46C1-840F-B86053269743}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="39.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="19"/>
+    <col min="8" max="8" width="7.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="str">
+        <f>'Project-Planning'!A1</f>
+        <v>BaThesis BTI7321 20/21, HS, Project Planning</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="19"/>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="45">
+        <f>360/14/5</f>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="G3">
+        <f>SUM(G6:G19)</f>
+        <v>132.5</v>
+      </c>
+      <c r="H3" s="3">
+        <f>SUM(H6:H19)</f>
+        <v>151.5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="44">
+        <f>360/14*A3</f>
+        <v>128.57142857142858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="55">
+        <v>28</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="57">
+        <v>1</v>
+      </c>
+      <c r="H5" s="49">
+        <v>1</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="53"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="56">
+        <v>35</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="46">
+        <f>G6/F3</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="E6" s="46">
+        <f>D6</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="55">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="46">
+        <f>G7/$F3</f>
+        <v>1.5555555555555554</v>
+      </c>
+      <c r="E7" s="46">
+        <f>D7+E6</f>
+        <v>1.8472222222222219</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="32">
+        <v>8</v>
+      </c>
+      <c r="H7" s="32">
+        <v>9</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="56">
+        <v>56</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="46">
+        <f>G8/F$3</f>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="E8" s="46">
+        <f>D8+E7</f>
+        <v>4.1805555555555554</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="32">
+        <v>12</v>
+      </c>
+      <c r="H8" s="32">
+        <v>12</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="55">
+        <v>38</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="46">
+        <f t="shared" ref="D9:D18" si="0">G9/F$3</f>
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="E9" s="46">
+        <f t="shared" ref="E9:E18" si="1">D9+E8</f>
+        <v>5.1527777777777777</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="32">
+        <v>5</v>
+      </c>
+      <c r="H9" s="32">
+        <v>8</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="56">
+        <v>20</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="46">
+        <f t="shared" si="0"/>
+        <v>1.3611111111111109</v>
+      </c>
+      <c r="E10" s="46">
+        <f t="shared" si="1"/>
+        <v>6.5138888888888884</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="32">
+        <v>7</v>
+      </c>
+      <c r="H10" s="32">
+        <v>0</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="55">
+        <v>33</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="46">
+        <f t="shared" si="0"/>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="E11" s="46">
+        <f t="shared" si="1"/>
+        <v>9.4305555555555554</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="32">
+        <v>15</v>
+      </c>
+      <c r="H11" s="32">
+        <v>25</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="55">
+        <v>40</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="46">
+        <f t="shared" si="0"/>
+        <v>3.8888888888888884</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="32">
+        <v>20</v>
+      </c>
+      <c r="H12" s="32">
+        <v>22</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="55">
+        <v>41</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="46">
+        <f t="shared" si="0"/>
+        <v>1.3611111111111109</v>
+      </c>
+      <c r="E13" s="46">
+        <f>D13+E11</f>
+        <v>10.791666666666666</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="32">
+        <v>7</v>
+      </c>
+      <c r="H13" s="48">
+        <v>8</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="55">
+        <v>42</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="46">
+        <f t="shared" si="0"/>
+        <v>1.5555555555555554</v>
+      </c>
+      <c r="E14" s="46">
+        <f t="shared" si="1"/>
+        <v>12.347222222222221</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="48">
+        <v>8</v>
+      </c>
+      <c r="H14" s="48">
+        <v>8</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="55">
+        <v>37</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="46">
+        <f t="shared" si="0"/>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="E15" s="46">
+        <f t="shared" si="1"/>
+        <v>14.680555555555554</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="48">
+        <v>12</v>
+      </c>
+      <c r="H15" s="48">
+        <v>15</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="55">
+        <v>44</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="46">
+        <f t="shared" si="0"/>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="E16" s="46">
+        <f t="shared" si="1"/>
+        <v>17.597222222222221</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="48">
+        <v>15</v>
+      </c>
+      <c r="H16" s="48">
+        <v>17</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="55">
+        <v>39</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="46">
+        <f t="shared" si="0"/>
+        <v>1.9444444444444442</v>
+      </c>
+      <c r="E17" s="46">
+        <f t="shared" si="1"/>
+        <v>19.541666666666664</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="48">
+        <v>10</v>
+      </c>
+      <c r="H17" s="48">
+        <v>12</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="30">
+        <v>43</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="46">
+        <f t="shared" si="0"/>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="E18" s="46">
+        <f t="shared" si="1"/>
+        <v>21.874999999999996</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="48">
+        <v>12</v>
+      </c>
+      <c r="H18" s="48">
+        <v>14</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="30"/>
+      <c r="B19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="107">
+        <f>'Project-Planning'!E17</f>
+        <v>44178</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="34">
+        <v>0</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
+      <c r="D22" s="102"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="101"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F4:F9 F11:F19">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2687EE61-BC21-474A-A1F5-FD35F1C9EE1C}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="19"/>
+    <col min="8" max="8" width="7.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="19"/>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="45">
+        <f>360/14/5</f>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="G3">
+        <f>SUM(G6:G19)</f>
+        <v>129.5</v>
+      </c>
+      <c r="H3" s="3">
+        <f>SUM(H6:H19)</f>
+        <v>111.5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="44">
+        <f>360/14*A3</f>
+        <v>102.85714285714286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="55">
+        <v>55</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="57">
+        <v>1</v>
+      </c>
+      <c r="H5" s="49"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="56">
+        <v>54</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="46">
+        <f>G6/F3</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="E6" s="46">
+        <f>D6</f>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="55">
+        <v>45</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="46">
+        <f>G7/$F3</f>
+        <v>7.7777777777777768</v>
+      </c>
+      <c r="E7" s="46">
+        <f>D7+E6</f>
+        <v>8.0694444444444429</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="32">
+        <v>40</v>
+      </c>
+      <c r="H7" s="32">
+        <v>45</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="56">
+        <v>46</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="46">
+        <f>G8/F$3</f>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="E8" s="46">
+        <f>D8+E7</f>
+        <v>13.902777777777775</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="32">
+        <v>30</v>
+      </c>
+      <c r="H8" s="32">
+        <v>34</v>
+      </c>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="55">
+        <v>47</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="46">
+        <f t="shared" ref="D9:D18" si="0">G9/F$3</f>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="E9" s="46">
+        <f t="shared" ref="E9:E18" si="1">D9+E8</f>
+        <v>16.819444444444443</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="32">
+        <v>15</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="56">
+        <v>48</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="46">
+        <f t="shared" si="0"/>
+        <v>2.5277777777777777</v>
+      </c>
+      <c r="E10" s="46">
+        <f t="shared" si="1"/>
+        <v>19.347222222222221</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="32">
+        <v>13</v>
+      </c>
+      <c r="H10" s="32">
+        <v>13</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="55">
+        <v>49</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="46">
+        <f t="shared" si="0"/>
+        <v>1.5555555555555554</v>
+      </c>
+      <c r="E11" s="46">
+        <f t="shared" si="1"/>
+        <v>20.902777777777779</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="32">
+        <v>8</v>
+      </c>
+      <c r="H11" s="32">
+        <v>7</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="55"/>
+      <c r="B12" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="56">
+        <v>50</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="46">
+        <f t="shared" si="0"/>
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="E13" s="46">
+        <f>D13+E11</f>
+        <v>21.875</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="32">
+        <v>5</v>
+      </c>
+      <c r="H13" s="48">
+        <v>7</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="56">
+        <v>51</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="46">
+        <f t="shared" si="0"/>
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="E14" s="46">
+        <f t="shared" si="1"/>
+        <v>22.847222222222221</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="48">
+        <v>5</v>
+      </c>
+      <c r="H14" s="48"/>
+      <c r="I14" s="33"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="30">
+        <v>52</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="46">
+        <f t="shared" si="0"/>
+        <v>0.9722222222222221</v>
+      </c>
+      <c r="E15" s="46">
+        <f t="shared" si="1"/>
+        <v>23.819444444444443</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="48">
+        <v>5</v>
+      </c>
+      <c r="H15" s="48">
+        <v>4</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="30">
+        <v>53</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="46">
+        <f t="shared" si="0"/>
+        <v>1.3611111111111109</v>
+      </c>
+      <c r="E16" s="46">
+        <f t="shared" si="1"/>
+        <v>25.180555555555554</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="48">
+        <v>7</v>
+      </c>
+      <c r="H16" s="48"/>
+      <c r="I16" s="33"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="B17" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="46">
+        <f t="shared" si="1"/>
+        <v>25.180555555555554</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="33"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="46">
+        <f t="shared" si="1"/>
+        <v>25.180555555555554</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="30"/>
+      <c r="B19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="110" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="111">
+        <f>'Project-Planning'!E21</f>
+        <v>43840</v>
+      </c>
+      <c r="E19" s="112"/>
+      <c r="F19" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="34">
+        <v>0</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F4:F19">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>